--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247AA6C4-A6E3-4B89-A618-81F5EB4C72AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA517B0-EA2D-4565-99B3-55A16307619E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1056" windowWidth="13380" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Instructions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="192">
   <si>
     <t>Species</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>Mouse1_1</t>
+  </si>
+  <si>
+    <t>Remote File Path</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1242,11 +1245,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1340,10 +1413,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1366,6 +1439,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8FB8BE-37D5-48E7-8089-12604CAF4615}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1710,230 +1793,230 @@
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
@@ -1958,17 +2041,17 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2397,6 +2480,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A3:J3"/>
@@ -2413,8 +2498,6 @@
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7343,10 +7426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7355,13 +7438,14 @@
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="59.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375"/>
+    <col min="11" max="11" width="16.33203125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>46</v>
       </c>
@@ -7372,22 +7456,25 @@
         <v>48</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7402,27 +7489,28 @@
         <f>IF(Input!C18="","",Input!C18 &amp;"_"&amp;Input!D18 &amp;"_"&amp;Input!E18&amp;"_"&amp;Input!H18&amp;"_rep"&amp;Input!F18&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="21" t="str">
+      <c r="F2" s="21" t="str">
         <f>IF(Input!D18="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G2" s="16" t="str">
+        <f>IF(Input!H18="","",VLOOKUP(Input!H18,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H2" s="16" t="str">
-        <f>IF(Input!H18="","",VLOOKUP(Input!H18,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I2" s="16" t="str">
         <f>IF(Input!B18="","",Input!B18)</f>
         <v/>
       </c>
-      <c r="J2" s="17">
+      <c r="I2" s="17">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
+      <c r="M2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7437,24 +7525,25 @@
         <f>IF(Input!C19="","",Input!C19 &amp;"_"&amp;Input!D19 &amp;"_"&amp;Input!E19&amp;"_"&amp;Input!H19&amp;"_rep"&amp;Input!F19&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22" t="str">
+      <c r="F3" s="22" t="str">
         <f>IF(Input!I19="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G3" s="10" t="str">
+        <f>IF(Input!H19="","",VLOOKUP(Input!H19,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H3" s="10" t="str">
-        <f>IF(Input!H19="","",VLOOKUP(Input!H19,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I3" s="10" t="str">
         <f>IF(Input!B19="","",Input!B19)</f>
         <v/>
       </c>
-      <c r="J3" s="19">
+      <c r="I3" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -7469,24 +7558,25 @@
         <f>IF(Input!C20="","",Input!C20 &amp;"_"&amp;Input!D20 &amp;"_"&amp;Input!E20&amp;"_"&amp;Input!H20&amp;"_rep"&amp;Input!F20&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="str">
+      <c r="F4" s="23" t="str">
         <f>IF(Input!I20="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G4" s="10" t="str">
+        <f>IF(Input!H20="","",VLOOKUP(Input!H20,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H4" s="10" t="str">
-        <f>IF(Input!H20="","",VLOOKUP(Input!H20,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I4" s="10" t="str">
         <f>IF(Input!B20="","",Input!B20)</f>
         <v/>
       </c>
-      <c r="J4" s="19">
+      <c r="I4" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -7501,24 +7591,25 @@
         <f>IF(Input!C21="","",Input!C21 &amp;"_"&amp;Input!D21 &amp;"_"&amp;Input!E21&amp;"_"&amp;Input!H21&amp;"_rep"&amp;Input!F21&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="str">
+      <c r="F5" s="22" t="str">
         <f>IF(Input!I21="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G5" s="10" t="str">
+        <f>IF(Input!H21="","",VLOOKUP(Input!H21,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H5" s="10" t="str">
-        <f>IF(Input!H21="","",VLOOKUP(Input!H21,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I5" s="10" t="str">
         <f>IF(Input!B21="","",Input!B21)</f>
         <v/>
       </c>
-      <c r="J5" s="19">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
         <v>116</v>
       </c>
@@ -7536,24 +7627,23 @@
         <f>IF(Input!C22="","",Input!C22 &amp;"_"&amp;Input!D22 &amp;"_"&amp;Input!E22&amp;"_"&amp;Input!H22&amp;"_rep"&amp;Input!F22&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="23" t="str">
+      <c r="F6" s="23" t="str">
         <f>IF(Input!I22="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G6" s="10" t="str">
+        <f>IF(Input!H22="","",VLOOKUP(Input!H22,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H6" s="10" t="str">
-        <f>IF(Input!H22="","",VLOOKUP(Input!H22,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I6" s="10" t="str">
         <f>IF(Input!B22="","",Input!B22)</f>
         <v/>
       </c>
-      <c r="J6" s="19">
+      <c r="I6" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7">
         <v>6</v>
@@ -7569,24 +7659,25 @@
         <f>IF(Input!C23="","",Input!C23 &amp;"_"&amp;Input!D23 &amp;"_"&amp;Input!E23&amp;"_"&amp;Input!H23&amp;"_rep"&amp;Input!F23&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="23" t="str">
+      <c r="F7" s="23" t="str">
         <f>IF(Input!I23="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G7" s="10" t="str">
+        <f>IF(Input!H23="","",VLOOKUP(Input!H23,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H7" s="10" t="str">
-        <f>IF(Input!H23="","",VLOOKUP(Input!H23,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I7" s="10" t="str">
         <f>IF(Input!B23="","",Input!B23)</f>
         <v/>
       </c>
-      <c r="J7" s="19">
+      <c r="I7" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
@@ -7601,24 +7692,25 @@
         <f>IF(Input!C24="","",Input!C24 &amp;"_"&amp;Input!D24 &amp;"_"&amp;Input!E24&amp;"_"&amp;Input!H24&amp;"_rep"&amp;Input!F24&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23" t="str">
+      <c r="F8" s="23" t="str">
         <f>IF(Input!I24="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G8" s="10" t="str">
+        <f>IF(Input!H24="","",VLOOKUP(Input!H24,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H8" s="10" t="str">
-        <f>IF(Input!H24="","",VLOOKUP(Input!H24,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I8" s="10" t="str">
         <f>IF(Input!B24="","",Input!B24)</f>
         <v/>
       </c>
-      <c r="J8" s="19">
+      <c r="I8" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -7633,24 +7725,25 @@
         <f>IF(Input!C25="","",Input!C25 &amp;"_"&amp;Input!D25 &amp;"_"&amp;Input!E25&amp;"_"&amp;Input!H25&amp;"_rep"&amp;Input!F25&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="str">
+      <c r="F9" s="23" t="str">
         <f>IF(Input!I25="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G9" s="10" t="str">
+        <f>IF(Input!H25="","",VLOOKUP(Input!H25,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H9" s="10" t="str">
-        <f>IF(Input!H25="","",VLOOKUP(Input!H25,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I9" s="10" t="str">
         <f>IF(Input!B25="","",Input!B25)</f>
         <v/>
       </c>
-      <c r="J9" s="19">
+      <c r="I9" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -7668,24 +7761,25 @@
         <f>IF(Input!C26="","",Input!C26 &amp;"_"&amp;Input!D26 &amp;"_"&amp;Input!E26&amp;"_"&amp;Input!H26&amp;"_rep"&amp;Input!F26&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="str">
+      <c r="F10" s="23" t="str">
         <f>IF(Input!I26="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G10" s="10" t="str">
+        <f>IF(Input!H26="","",VLOOKUP(Input!H26,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H10" s="10" t="str">
-        <f>IF(Input!H26="","",VLOOKUP(Input!H26,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I10" s="10" t="str">
         <f>IF(Input!B26="","",Input!B26)</f>
         <v/>
       </c>
-      <c r="J10" s="19">
+      <c r="I10" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="75"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -7703,24 +7797,25 @@
         <f>IF(Input!C27="","",Input!C27 &amp;"_"&amp;Input!D27 &amp;"_"&amp;Input!E27&amp;"_"&amp;Input!H27&amp;"_rep"&amp;Input!F27&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23" t="str">
+      <c r="F11" s="23" t="str">
         <f>IF(Input!I27="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G11" s="10" t="str">
+        <f>IF(Input!H27="","",VLOOKUP(Input!H27,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H11" s="10" t="str">
-        <f>IF(Input!H27="","",VLOOKUP(Input!H27,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I11" s="10" t="str">
         <f>IF(Input!B27="","",Input!B27)</f>
         <v/>
       </c>
-      <c r="J11" s="19">
+      <c r="I11" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>11</v>
       </c>
@@ -7735,24 +7830,23 @@
         <f>IF(Input!C28="","",Input!C28 &amp;"_"&amp;Input!D28 &amp;"_"&amp;Input!E28&amp;"_"&amp;Input!H28&amp;"_rep"&amp;Input!F28&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="23" t="str">
+      <c r="F12" s="23" t="str">
         <f>IF(Input!I28="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G12" s="10" t="str">
+        <f>IF(Input!H28="","",VLOOKUP(Input!H28,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H12" s="10" t="str">
-        <f>IF(Input!H28="","",VLOOKUP(Input!H28,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I12" s="10" t="str">
         <f>IF(Input!B28="","",Input!B28)</f>
         <v/>
       </c>
-      <c r="J12" s="19">
+      <c r="I12" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>12</v>
       </c>
@@ -7767,24 +7861,25 @@
         <f>IF(Input!C29="","",Input!C29 &amp;"_"&amp;Input!D29 &amp;"_"&amp;Input!E29&amp;"_"&amp;Input!H29&amp;"_rep"&amp;Input!F29&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="23" t="str">
+      <c r="F13" s="23" t="str">
         <f>IF(Input!I29="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G13" s="10" t="str">
+        <f>IF(Input!H29="","",VLOOKUP(Input!H29,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H13" s="10" t="str">
-        <f>IF(Input!H29="","",VLOOKUP(Input!H29,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I13" s="10" t="str">
         <f>IF(Input!B29="","",Input!B29)</f>
         <v/>
       </c>
-      <c r="J13" s="19">
+      <c r="I13" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13</v>
       </c>
@@ -7799,24 +7894,25 @@
         <f>IF(Input!C30="","",Input!C30 &amp;"_"&amp;Input!D30 &amp;"_"&amp;Input!E30&amp;"_"&amp;Input!H30&amp;"_rep"&amp;Input!F30&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="str">
+      <c r="F14" s="23" t="str">
         <f>IF(Input!I30="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G14" s="10" t="str">
+        <f>IF(Input!H30="","",VLOOKUP(Input!H30,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H14" s="10" t="str">
-        <f>IF(Input!H30="","",VLOOKUP(Input!H30,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I14" s="10" t="str">
         <f>IF(Input!B30="","",Input!B30)</f>
         <v/>
       </c>
-      <c r="J14" s="19">
+      <c r="I14" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>14</v>
       </c>
@@ -7831,24 +7927,25 @@
         <f>IF(Input!C31="","",Input!C31 &amp;"_"&amp;Input!D31 &amp;"_"&amp;Input!E31&amp;"_"&amp;Input!H31&amp;"_rep"&amp;Input!F31&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="str">
+      <c r="F15" s="23" t="str">
         <f>IF(Input!I31="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G15" s="10" t="str">
+        <f>IF(Input!H31="","",VLOOKUP(Input!H31,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H15" s="10" t="str">
-        <f>IF(Input!H31="","",VLOOKUP(Input!H31,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I15" s="10" t="str">
         <f>IF(Input!B31="","",Input!B31)</f>
         <v/>
       </c>
-      <c r="J15" s="19">
+      <c r="I15" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>15</v>
       </c>
@@ -7863,24 +7960,25 @@
         <f>IF(Input!C32="","",Input!C32 &amp;"_"&amp;Input!D32 &amp;"_"&amp;Input!E32&amp;"_"&amp;Input!H32&amp;"_rep"&amp;Input!F32&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="str">
+      <c r="F16" s="23" t="str">
         <f>IF(Input!I32="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G16" s="10" t="str">
+        <f>IF(Input!H32="","",VLOOKUP(Input!H32,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H16" s="10" t="str">
-        <f>IF(Input!H32="","",VLOOKUP(Input!H32,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I16" s="10" t="str">
         <f>IF(Input!B32="","",Input!B32)</f>
         <v/>
       </c>
-      <c r="J16" s="19">
+      <c r="I16" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -7895,24 +7993,25 @@
         <f>IF(Input!C33="","",Input!C33 &amp;"_"&amp;Input!D33 &amp;"_"&amp;Input!E33&amp;"_"&amp;Input!H33&amp;"_rep"&amp;Input!F33&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23" t="str">
+      <c r="F17" s="23" t="str">
         <f>IF(Input!I33="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G17" s="10" t="str">
+        <f>IF(Input!H33="","",VLOOKUP(Input!H33,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H17" s="10" t="str">
-        <f>IF(Input!H33="","",VLOOKUP(Input!H33,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I17" s="10" t="str">
         <f>IF(Input!B33="","",Input!B33)</f>
         <v/>
       </c>
-      <c r="J17" s="19">
+      <c r="I17" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -7927,24 +8026,23 @@
         <f>IF(Input!C34="","",Input!C34 &amp;"_"&amp;Input!D34 &amp;"_"&amp;Input!E34&amp;"_"&amp;Input!H34&amp;"_rep"&amp;Input!F34&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="23" t="str">
+      <c r="F18" s="23" t="str">
         <f>IF(Input!I34="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G18" s="10" t="str">
+        <f>IF(Input!H34="","",VLOOKUP(Input!H34,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H18" s="10" t="str">
-        <f>IF(Input!H34="","",VLOOKUP(Input!H34,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I18" s="10" t="str">
         <f>IF(Input!B34="","",Input!B34)</f>
         <v/>
       </c>
-      <c r="J18" s="19">
+      <c r="I18" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -7959,24 +8057,25 @@
         <f>IF(Input!C35="","",Input!C35 &amp;"_"&amp;Input!D35 &amp;"_"&amp;Input!E35&amp;"_"&amp;Input!H35&amp;"_rep"&amp;Input!F35&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="23" t="str">
+      <c r="F19" s="23" t="str">
         <f>IF(Input!I35="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G19" s="10" t="str">
+        <f>IF(Input!H35="","",VLOOKUP(Input!H35,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H19" s="10" t="str">
-        <f>IF(Input!H35="","",VLOOKUP(Input!H35,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I19" s="10" t="str">
         <f>IF(Input!B35="","",Input!B35)</f>
         <v/>
       </c>
-      <c r="J19" s="19">
+      <c r="I19" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
+    </row>
+    <row r="20" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -7991,24 +8090,25 @@
         <f>IF(Input!C36="","",Input!C36 &amp;"_"&amp;Input!D36 &amp;"_"&amp;Input!E36&amp;"_"&amp;Input!H36&amp;"_rep"&amp;Input!F36&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23" t="str">
+      <c r="F20" s="23" t="str">
         <f>IF(Input!I36="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G20" s="10" t="str">
+        <f>IF(Input!H36="","",VLOOKUP(Input!H36,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H20" s="10" t="str">
-        <f>IF(Input!H36="","",VLOOKUP(Input!H36,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I20" s="10" t="str">
         <f>IF(Input!B36="","",Input!B36)</f>
         <v/>
       </c>
-      <c r="J20" s="19">
+      <c r="I20" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="75"/>
+      <c r="L20" s="76"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -8023,24 +8123,25 @@
         <f>IF(Input!C37="","",Input!C37 &amp;"_"&amp;Input!D37 &amp;"_"&amp;Input!E37&amp;"_"&amp;Input!H37&amp;"_rep"&amp;Input!F37&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23" t="str">
+      <c r="F21" s="23" t="str">
         <f>IF(Input!I37="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G21" s="10" t="str">
+        <f>IF(Input!H37="","",VLOOKUP(Input!H37,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H21" s="10" t="str">
-        <f>IF(Input!H37="","",VLOOKUP(Input!H37,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I21" s="10" t="str">
         <f>IF(Input!B37="","",Input!B37)</f>
         <v/>
       </c>
-      <c r="J21" s="19">
+      <c r="I21" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -8055,24 +8156,25 @@
         <f>IF(Input!C38="","",Input!C38 &amp;"_"&amp;Input!D38 &amp;"_"&amp;Input!E38&amp;"_"&amp;Input!H38&amp;"_rep"&amp;Input!F38&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23" t="str">
+      <c r="F22" s="23" t="str">
         <f>IF(Input!I38="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G22" s="10" t="str">
+        <f>IF(Input!H38="","",VLOOKUP(Input!H38,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H22" s="10" t="str">
-        <f>IF(Input!H38="","",VLOOKUP(Input!H38,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I22" s="10" t="str">
         <f>IF(Input!B38="","",Input!B38)</f>
         <v/>
       </c>
-      <c r="J22" s="19">
+      <c r="I22" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -8087,24 +8189,25 @@
         <f>IF(Input!C39="","",Input!C39 &amp;"_"&amp;Input!D39 &amp;"_"&amp;Input!E39&amp;"_"&amp;Input!H39&amp;"_rep"&amp;Input!F39&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23" t="str">
+      <c r="F23" s="23" t="str">
         <f>IF(Input!I39="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G23" s="10" t="str">
+        <f>IF(Input!H39="","",VLOOKUP(Input!H39,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H23" s="10" t="str">
-        <f>IF(Input!H39="","",VLOOKUP(Input!H39,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I23" s="10" t="str">
         <f>IF(Input!B39="","",Input!B39)</f>
         <v/>
       </c>
-      <c r="J23" s="19">
+      <c r="I23" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -8119,24 +8222,25 @@
         <f>IF(Input!C40="","",Input!C40 &amp;"_"&amp;Input!D40 &amp;"_"&amp;Input!E40&amp;"_"&amp;Input!H40&amp;"_rep"&amp;Input!F40&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23" t="str">
+      <c r="F24" s="23" t="str">
         <f>IF(Input!I40="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G24" s="10" t="str">
+        <f>IF(Input!H40="","",VLOOKUP(Input!H40,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H24" s="10" t="str">
-        <f>IF(Input!H40="","",VLOOKUP(Input!H40,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I24" s="10" t="str">
         <f>IF(Input!B40="","",Input!B40)</f>
         <v/>
       </c>
-      <c r="J24" s="19">
+      <c r="I24" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="75"/>
+      <c r="L24" s="76"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -8151,24 +8255,25 @@
         <f>IF(Input!C41="","",Input!C41 &amp;"_"&amp;Input!D41 &amp;"_"&amp;Input!E41&amp;"_"&amp;Input!H41&amp;"_rep"&amp;Input!F41&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="str">
+      <c r="F25" s="23" t="str">
         <f>IF(Input!I41="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G25" s="10" t="str">
+        <f>IF(Input!H41="","",VLOOKUP(Input!H41,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H25" s="10" t="str">
-        <f>IF(Input!H41="","",VLOOKUP(Input!H41,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I25" s="10" t="str">
         <f>IF(Input!B41="","",Input!B41)</f>
         <v/>
       </c>
-      <c r="J25" s="19">
+      <c r="I25" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="75"/>
+      <c r="L25" s="76"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -8183,24 +8288,25 @@
         <f>IF(Input!C42="","",Input!C42 &amp;"_"&amp;Input!D42 &amp;"_"&amp;Input!E42&amp;"_"&amp;Input!H42&amp;"_rep"&amp;Input!F42&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23" t="str">
+      <c r="F26" s="23" t="str">
         <f>IF(Input!I42="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G26" s="10" t="str">
+        <f>IF(Input!H42="","",VLOOKUP(Input!H42,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H26" s="10" t="str">
-        <f>IF(Input!H42="","",VLOOKUP(Input!H42,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I26" s="10" t="str">
         <f>IF(Input!B42="","",Input!B42)</f>
         <v/>
       </c>
-      <c r="J26" s="19">
+      <c r="I26" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
@@ -8215,24 +8321,25 @@
         <f>IF(Input!C43="","",Input!C43 &amp;"_"&amp;Input!D43 &amp;"_"&amp;Input!E43&amp;"_"&amp;Input!H43&amp;"_rep"&amp;Input!F43&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23" t="str">
+      <c r="F27" s="23" t="str">
         <f>IF(Input!I43="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G27" s="10" t="str">
+        <f>IF(Input!H43="","",VLOOKUP(Input!H43,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H27" s="10" t="str">
-        <f>IF(Input!H43="","",VLOOKUP(Input!H43,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I27" s="10" t="str">
         <f>IF(Input!B43="","",Input!B43)</f>
         <v/>
       </c>
-      <c r="J27" s="19">
+      <c r="I27" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>27</v>
       </c>
@@ -8247,25 +8354,24 @@
         <f>IF(Input!C44="","",Input!C44 &amp;"_"&amp;Input!D44 &amp;"_"&amp;Input!E44&amp;"_"&amp;Input!H44&amp;"_rep"&amp;Input!F44&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="23" t="str">
+      <c r="F28" s="23" t="str">
         <f>IF(Input!I44="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G28" s="10" t="str">
+        <f>IF(Input!H44="","",VLOOKUP(Input!H44,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H28" s="10" t="str">
-        <f>IF(Input!H44="","",VLOOKUP(Input!H44,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I28" s="10" t="str">
         <f>IF(Input!B44="","",Input!B44)</f>
         <v/>
       </c>
-      <c r="J28" s="19">
+      <c r="I28" s="19">
         <v>2</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>28</v>
       </c>
@@ -8280,24 +8386,25 @@
         <f>IF(Input!C45="","",Input!C45 &amp;"_"&amp;Input!D45 &amp;"_"&amp;Input!E45&amp;"_"&amp;Input!H45&amp;"_rep"&amp;Input!F45&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="23" t="str">
+      <c r="F29" s="23" t="str">
         <f>IF(Input!I45="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G29" s="10" t="str">
+        <f>IF(Input!H45="","",VLOOKUP(Input!H45,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H29" s="10" t="str">
-        <f>IF(Input!H45="","",VLOOKUP(Input!H45,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I29" s="10" t="str">
         <f>IF(Input!B45="","",Input!B45)</f>
         <v/>
       </c>
-      <c r="J29" s="19">
+      <c r="I29" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="81"/>
+      <c r="L29" s="82"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>29</v>
       </c>
@@ -8312,24 +8419,25 @@
         <f>IF(Input!C46="","",Input!C46 &amp;"_"&amp;Input!D46 &amp;"_"&amp;Input!E46&amp;"_"&amp;Input!H46&amp;"_rep"&amp;Input!F46&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23" t="str">
+      <c r="F30" s="23" t="str">
         <f>IF(Input!I46="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
         <v/>
       </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(Input!H46="","",VLOOKUP(Input!H46,Methods!B:C,2,FALSE))</f>
+        <v/>
+      </c>
       <c r="H30" s="10" t="str">
-        <f>IF(Input!H46="","",VLOOKUP(Input!H46,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I30" s="10" t="str">
         <f>IF(Input!B46="","",Input!B46)</f>
         <v/>
       </c>
-      <c r="J30" s="19">
+      <c r="I30" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>30</v>
       </c>
@@ -8344,32 +8452,32 @@
         <f>IF(Input!C47="","",Input!C47 &amp;"_"&amp;Input!D47 &amp;"_"&amp;Input!E47&amp;"_"&amp;Input!H47&amp;"_rep"&amp;Input!F47&amp;Input!$J$4)</f>
         <v/>
       </c>
-      <c r="F31" s="23"/>
+      <c r="F31" s="23" t="str">
+        <f>IF(Input!I47="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
+        <v/>
+      </c>
       <c r="G31" s="23" t="str">
-        <f>IF(Input!I47="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
+        <f>IF(Input!H47="","",VLOOKUP(Input!H47,Methods!B:C,2,FALSE))</f>
         <v/>
       </c>
       <c r="H31" s="23" t="str">
-        <f>IF(Input!H47="","",VLOOKUP(Input!H47,Methods!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="I31" s="23" t="str">
         <f>IF(Input!B47="","",Input!B47)</f>
         <v/>
       </c>
-      <c r="J31" s="24">
+      <c r="I31" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="18"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8670,40 +8778,40 @@
       <c r="H2" s="66"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">

--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F37E44-5DA0-4B3D-B6F8-EAE7664DB6CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E51F6E-787D-4083-9D5F-09D1C9E633E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="22920" windowHeight="6252" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="804" yWindow="756" windowWidth="22308" windowHeight="5352" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Instructions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="198">
   <si>
     <t>Species</t>
   </si>
@@ -931,48 +931,6 @@
   </si>
   <si>
     <t>prerun3</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Mass Spec</t>
-  </si>
-  <si>
-    <t>C:\Xcalibur\methods\30_min_BSA.meth</t>
-  </si>
-  <si>
-    <t>EW1017</t>
-  </si>
-  <si>
-    <t>3-11-19</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>M1_1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>M1_3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>M3_1</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>M3_2</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1484,27 +1442,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
@@ -1516,12 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1532,24 +1463,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1562,7 +1475,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,27 +1529,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,230 +1897,230 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
@@ -2184,17 +2145,17 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2623,6 +2584,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="A14:J14"/>
@@ -2639,8 +2602,6 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3014,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,16 +2993,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="26" t="s">
         <v>81</v>
       </c>
@@ -3050,134 +3011,120 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="74" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="75" t="s">
-        <v>199</v>
-      </c>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="80" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="81" t="s">
-        <v>200</v>
-      </c>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="76" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="77" t="s">
-        <v>198</v>
-      </c>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="82" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="83" t="s">
-        <v>202</v>
-      </c>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="78" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="79" t="s">
-        <v>203</v>
-      </c>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="55" t="s">
-        <v>201</v>
-      </c>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>6</v>
-      </c>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="D10" s="8"/>
@@ -3188,17 +3135,13 @@
       <c r="I10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="28">
-        <v>2</v>
-      </c>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="32">
-        <v>1</v>
-      </c>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3276,10 +3219,10 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="58" t="s">
         <v>189</v>
       </c>
       <c r="E16" t="s">
@@ -3291,22 +3234,22 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="92" t="s">
+      <c r="L16" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="76" t="s">
         <v>109</v>
       </c>
       <c r="N16" s="34"/>
@@ -3333,128 +3276,76 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="112" t="str">
+        <f>IF(OR(D18="",$C$2=""), "", $C$2)</f>
+        <v/>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="40"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
       <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="112" t="str">
+        <f t="shared" ref="C19:C47" si="0">IF(OR(D19="",$C$2=""), "", $C$2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="40"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="40"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="40">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="40"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3462,15 +3353,18 @@
         <v>5</v>
       </c>
       <c r="B22" s="40"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="59"/>
       <c r="E22" s="40"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3478,15 +3372,18 @@
         <v>6</v>
       </c>
       <c r="B23" s="40"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="C23" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D23" s="59"/>
       <c r="E23" s="40"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -3494,15 +3391,18 @@
         <v>7</v>
       </c>
       <c r="B24" s="40"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D24" s="59"/>
       <c r="E24" s="40"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3510,15 +3410,18 @@
         <v>8</v>
       </c>
       <c r="B25" s="40"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D25" s="59"/>
       <c r="E25" s="40"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
       <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -3526,15 +3429,18 @@
         <v>9</v>
       </c>
       <c r="B26" s="40"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="C26" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D26" s="59"/>
       <c r="E26" s="40"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
       <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3542,15 +3448,18 @@
         <v>10</v>
       </c>
       <c r="B27" s="40"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+      <c r="C27" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D27" s="59"/>
       <c r="E27" s="40"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
       <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3558,15 +3467,18 @@
         <v>11</v>
       </c>
       <c r="B28" s="40"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+      <c r="C28" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D28" s="59"/>
       <c r="E28" s="40"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3574,15 +3486,18 @@
         <v>12</v>
       </c>
       <c r="B29" s="40"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+      <c r="C29" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D29" s="59"/>
       <c r="E29" s="40"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3590,15 +3505,18 @@
         <v>13</v>
       </c>
       <c r="B30" s="40"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
+      <c r="C30" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D30" s="59"/>
       <c r="E30" s="40"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
       <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3606,15 +3524,18 @@
         <v>14</v>
       </c>
       <c r="B31" s="40"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
+      <c r="C31" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D31" s="59"/>
       <c r="E31" s="40"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
       <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3622,15 +3543,18 @@
         <v>15</v>
       </c>
       <c r="B32" s="40"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
+      <c r="C32" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="59"/>
       <c r="E32" s="40"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
       <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -3638,15 +3562,18 @@
         <v>16</v>
       </c>
       <c r="B33" s="40"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
+      <c r="C33" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D33" s="59"/>
       <c r="E33" s="40"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
       <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -3654,15 +3581,18 @@
         <v>17</v>
       </c>
       <c r="B34" s="40"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="C34" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D34" s="59"/>
       <c r="E34" s="40"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3670,15 +3600,18 @@
         <v>18</v>
       </c>
       <c r="B35" s="40"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
+      <c r="C35" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" s="59"/>
       <c r="E35" s="40"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
       <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3686,15 +3619,18 @@
         <v>19</v>
       </c>
       <c r="B36" s="40"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
+      <c r="C36" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D36" s="59"/>
       <c r="E36" s="40"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
       <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3702,15 +3638,18 @@
         <v>20</v>
       </c>
       <c r="B37" s="40"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
+      <c r="C37" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D37" s="59"/>
       <c r="E37" s="40"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -3718,15 +3657,18 @@
         <v>21</v>
       </c>
       <c r="B38" s="40"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
+      <c r="C38" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D38" s="59"/>
       <c r="E38" s="40"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
       <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3734,15 +3676,18 @@
         <v>22</v>
       </c>
       <c r="B39" s="40"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="C39" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D39" s="59"/>
       <c r="E39" s="40"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
       <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3750,15 +3695,18 @@
         <v>23</v>
       </c>
       <c r="B40" s="40"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
+      <c r="C40" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D40" s="59"/>
       <c r="E40" s="40"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
       <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3766,15 +3714,18 @@
         <v>24</v>
       </c>
       <c r="B41" s="40"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D41" s="59"/>
       <c r="E41" s="40"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
       <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3782,15 +3733,18 @@
         <v>25</v>
       </c>
       <c r="B42" s="40"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
+      <c r="C42" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D42" s="59"/>
       <c r="E42" s="40"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3798,15 +3752,18 @@
         <v>26</v>
       </c>
       <c r="B43" s="40"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
+      <c r="C43" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D43" s="59"/>
       <c r="E43" s="40"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
       <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3814,15 +3771,18 @@
         <v>27</v>
       </c>
       <c r="B44" s="40"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
+      <c r="C44" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D44" s="59"/>
       <c r="E44" s="40"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
       <c r="N44" s="34"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3830,15 +3790,18 @@
         <v>28</v>
       </c>
       <c r="B45" s="40"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
+      <c r="C45" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D45" s="59"/>
       <c r="E45" s="40"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
       <c r="N45" s="34"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3846,15 +3809,18 @@
         <v>29</v>
       </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
+      <c r="C46" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D46" s="59"/>
       <c r="E46" s="40"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
       <c r="N46" s="34"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3862,349 +3828,352 @@
         <v>30</v>
       </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
+      <c r="C47" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D47" s="59"/>
       <c r="E47" s="40"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
       <c r="N47" s="34"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="40"/>
       <c r="I48" s="40"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="I49" s="40"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="I50" s="40"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
       <c r="I51" s="40"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="I52" s="40"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="I53" s="40"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="I54" s="40"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
       <c r="I55" s="40"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="I56" s="40"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="I57" s="40"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="I58" s="40"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="I59" s="40"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="I60" s="40"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
+      <c r="C61" s="114"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="I61" s="40"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="I62" s="40"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
+      <c r="C63" s="114"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="I63" s="40"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
+      <c r="C64" s="114"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="I64" s="40"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
       <c r="I65" s="40"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="I66" s="40"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="I67" s="40"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
+      <c r="C68" s="114"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
+      <c r="C69" s="114"/>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="I70" s="40"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="I71" s="40"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="I72" s="40"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
+      <c r="C73" s="114"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="I73" s="40"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
+      <c r="C74" s="114"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="I74" s="40"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
       <c r="I75" s="40"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
+      <c r="C76" s="114"/>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
       <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="114"/>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
       <c r="I77" s="40"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
+      <c r="C78" s="114"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
+      <c r="C80" s="114"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="I80" s="40"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
+      <c r="C81" s="114"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="I81" s="40"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
+      <c r="C82" s="114"/>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
       <c r="I82" s="40"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
+      <c r="C83" s="114"/>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
       <c r="I83" s="40"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
+      <c r="C84" s="114"/>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="I84" s="40"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="C85" s="114"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
       <c r="I85" s="40"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="C86" s="114"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
       <c r="I86" s="40"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="C87" s="114"/>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
       <c r="I87" s="40"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
+      <c r="C88" s="114"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="I88" s="40"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
+      <c r="C89" s="114"/>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
       <c r="I89" s="40"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
+      <c r="C90" s="114"/>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
       <c r="I90" s="40"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
+      <c r="C91" s="114"/>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
       <c r="I91" s="40"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
+      <c r="C92" s="114"/>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="I92" s="40"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
+      <c r="C93" s="114"/>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
       <c r="I93" s="40"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
       <c r="I94" s="40"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
+      <c r="C95" s="114"/>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
       <c r="I95" s="40"/>
@@ -7653,9 +7622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
-    </sheetView>
+    <sheetView zoomScale="68" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7666,8 +7633,8 @@
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="59.44140625" customWidth="1"/>
     <col min="10" max="10" width="9.109375"/>
-    <col min="11" max="11" width="16.33203125" style="106" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="106" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="85" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7677,13 +7644,13 @@
       <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="80" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
@@ -7692,10 +7659,10 @@
       <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="82" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7703,34 +7670,34 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="9" t="str">
         <f>IF(Input!B18="","",$B$2)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="16" t="str">
         <f>IF(Input!C$18="","",Input!C18 &amp;"_"&amp;Input!D18 &amp;"_"&amp;Input!E18&amp;"_"&amp;Input!H18&amp;"_rep"&amp;Input!F18&amp;Input!$J$4)</f>
-        <v>EW1017_M1_1_0_Standard_rep1O1</v>
+        <v/>
       </c>
       <c r="F2" s="21" t="str">
         <f>IF(Input!D18="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
-        <v>C:\Xcalibur\data\EW1017_3-11-19</v>
+        <v/>
       </c>
       <c r="G2" s="16" t="str">
         <f>IF(Input!H18="","",VLOOKUP(Input!H18,Methods!B:C,2,FALSE))</f>
-        <v>C:\Xcalibur\methods\Standard_2_Hour.meth</v>
+        <v/>
       </c>
       <c r="H2" s="16" t="str">
         <f>IF(Input!B18="","",Input!B18)</f>
-        <v>B1</v>
+        <v/>
       </c>
       <c r="I2" s="17">
         <v>2</v>
       </c>
       <c r="K2" s="57"/>
-      <c r="L2" s="111"/>
+      <c r="L2" s="90"/>
       <c r="M2" t="s">
         <v>92</v>
       </c>
@@ -7739,100 +7706,100 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="9" t="str">
         <f>IF(Input!B19="","",$B$3)</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="D3" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>IF(Input!C19="","",Input!C19 &amp;"_"&amp;Input!D19 &amp;"_"&amp;Input!E19&amp;"_"&amp;Input!H19&amp;"_rep"&amp;Input!F19&amp;Input!$J$4)</f>
-        <v>EW1017_M1_3_0_Standard_rep1O1</v>
+        <v/>
       </c>
       <c r="F3" s="22" t="str">
         <f>IF(Input!D19="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
-        <v>C:\Xcalibur\data\EW1017_3-11-19</v>
+        <v/>
       </c>
       <c r="G3" s="10" t="str">
         <f>IF(Input!H19="","",VLOOKUP(Input!H19,Methods!B:C,2,FALSE))</f>
-        <v>C:\Xcalibur\methods\Standard_2_Hour.meth</v>
+        <v/>
       </c>
       <c r="H3" s="10" t="str">
         <f>IF(Input!B19="","",Input!B19)</f>
-        <v>B2</v>
+        <v/>
       </c>
       <c r="I3" s="19">
         <v>2</v>
       </c>
       <c r="K3" s="57"/>
-      <c r="L3" s="111"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="9" t="str">
         <f>IF(Input!B20="","",$B$4)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="D4" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="23" t="str">
         <f>IF(Input!C20="","",Input!C20 &amp;"_"&amp;Input!D20 &amp;"_"&amp;Input!E20&amp;"_"&amp;Input!H20&amp;"_rep"&amp;Input!F20&amp;Input!$J$4)</f>
-        <v>EW1017_M3_1_0_Standard_rep1O1</v>
+        <v/>
       </c>
       <c r="F4" s="22" t="str">
         <f>IF(Input!D20="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
-        <v>C:\Xcalibur\data\EW1017_3-11-19</v>
+        <v/>
       </c>
       <c r="G4" s="10" t="str">
         <f>IF(Input!H20="","",VLOOKUP(Input!H20,Methods!B:C,2,FALSE))</f>
-        <v>C:\Xcalibur\methods\Standard_2_Hour.meth</v>
+        <v/>
       </c>
       <c r="H4" s="10" t="str">
         <f>IF(Input!B20="","",Input!B20)</f>
-        <v>B3</v>
+        <v/>
       </c>
       <c r="I4" s="19">
         <v>2</v>
       </c>
       <c r="K4" s="57"/>
-      <c r="L4" s="111"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="9" t="str">
         <f>IF(Input!B21="","",$B$5)</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="D5" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="23" t="str">
         <f>IF(Input!C21="","",Input!C21 &amp;"_"&amp;Input!D21 &amp;"_"&amp;Input!E21&amp;"_"&amp;Input!H21&amp;"_rep"&amp;Input!F21&amp;Input!$J$4)</f>
-        <v>EW1017_M3_2_0_Standard_rep1O1</v>
+        <v/>
       </c>
       <c r="F5" s="22" t="str">
         <f>IF(Input!D21="","","C:\Xcalibur\data\" &amp;Input!$J$5&amp; "_"&amp;Input!$J$6)</f>
-        <v>C:\Xcalibur\data\EW1017_3-11-19</v>
+        <v/>
       </c>
       <c r="G5" s="10" t="str">
         <f>IF(Input!H21="","",VLOOKUP(Input!H21,Methods!B:C,2,FALSE))</f>
-        <v>C:\Xcalibur\methods\Standard_2_Hour.meth</v>
+        <v/>
       </c>
       <c r="H5" s="10" t="str">
         <f>IF(Input!B21="","",Input!B21)</f>
-        <v>B4</v>
+        <v/>
       </c>
       <c r="I5" s="19">
         <v>2</v>
       </c>
       <c r="K5" s="57"/>
-      <c r="L5" s="111"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
@@ -7848,7 +7815,7 @@
       <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="105" t="str">
+      <c r="E6" s="84" t="str">
         <f>IF(Input!C22="","",Input!C22 &amp;"_"&amp;Input!D22 &amp;"_"&amp;Input!E22&amp;"_"&amp;Input!H22&amp;"_rep"&amp;Input!F22&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -7868,10 +7835,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="57"/>
-      <c r="L6" s="111"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="97"/>
+      <c r="A7" s="79"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -7902,7 +7869,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="57"/>
-      <c r="L7" s="111"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -7935,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="57"/>
-      <c r="L8" s="111"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9">
@@ -7968,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="57"/>
-      <c r="L9" s="111"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -8004,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="57"/>
-      <c r="L10" s="111"/>
+      <c r="L10" s="90"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -8040,7 +8007,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="57"/>
-      <c r="L11" s="111"/>
+      <c r="L11" s="90"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
@@ -8053,7 +8020,7 @@
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="105" t="str">
+      <c r="E12" s="84" t="str">
         <f>IF(Input!C28="","",Input!C28 &amp;"_"&amp;Input!D28 &amp;"_"&amp;Input!E28&amp;"_"&amp;Input!H28&amp;"_rep"&amp;Input!F28&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8073,7 +8040,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="57"/>
-      <c r="L12" s="111"/>
+      <c r="L12" s="90"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13">
@@ -8106,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="57"/>
-      <c r="L13" s="111"/>
+      <c r="L13" s="90"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14">
@@ -8139,7 +8106,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="57"/>
-      <c r="L14" s="111"/>
+      <c r="L14" s="90"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15">
@@ -8172,7 +8139,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="57"/>
-      <c r="L15" s="111"/>
+      <c r="L15" s="90"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16">
@@ -8205,7 +8172,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="57"/>
-      <c r="L16" s="111"/>
+      <c r="L16" s="90"/>
     </row>
     <row r="17" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
@@ -8238,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="57"/>
-      <c r="L17" s="111"/>
+      <c r="L17" s="90"/>
     </row>
     <row r="18" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18">
@@ -8251,7 +8218,7 @@
       <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="105" t="str">
+      <c r="E18" s="84" t="str">
         <f>IF(Input!C34="","",Input!C34 &amp;"_"&amp;Input!D34 &amp;"_"&amp;Input!E34&amp;"_"&amp;Input!H34&amp;"_rep"&amp;Input!F34&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8271,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="57"/>
-      <c r="L18" s="111"/>
+      <c r="L18" s="90"/>
     </row>
     <row r="19" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19">
@@ -8304,7 +8271,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="57"/>
-      <c r="L19" s="111"/>
+      <c r="L19" s="90"/>
     </row>
     <row r="20" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
@@ -8337,7 +8304,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="57"/>
-      <c r="L20" s="111"/>
+      <c r="L20" s="90"/>
     </row>
     <row r="21" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21">
@@ -8370,7 +8337,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="57"/>
-      <c r="L21" s="111"/>
+      <c r="L21" s="90"/>
     </row>
     <row r="22" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22">
@@ -8403,7 +8370,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="57"/>
-      <c r="L22" s="111"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23">
@@ -8436,7 +8403,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="57"/>
-      <c r="L23" s="111"/>
+      <c r="L23" s="90"/>
     </row>
     <row r="24" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24">
@@ -8469,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="57"/>
-      <c r="L24" s="111"/>
+      <c r="L24" s="90"/>
     </row>
     <row r="25" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25">
@@ -8502,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="57"/>
-      <c r="L25" s="111"/>
+      <c r="L25" s="90"/>
     </row>
     <row r="26" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
@@ -8535,7 +8502,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="57"/>
-      <c r="L26" s="111"/>
+      <c r="L26" s="90"/>
     </row>
     <row r="27" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27">
@@ -8568,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="57"/>
-      <c r="L27" s="111"/>
+      <c r="L27" s="90"/>
     </row>
     <row r="28" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28">
@@ -8581,7 +8548,7 @@
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="84" t="str">
         <f>IF(Input!C44="","",Input!C44 &amp;"_"&amp;Input!D44 &amp;"_"&amp;Input!E44&amp;"_"&amp;Input!H44&amp;"_rep"&amp;Input!F44&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8601,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="57"/>
-      <c r="L28" s="111"/>
+      <c r="L28" s="90"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8635,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="57"/>
-      <c r="L29" s="111"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30">
@@ -8668,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="57"/>
-      <c r="L30" s="111"/>
+      <c r="L30" s="90"/>
     </row>
     <row r="31" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B31">
@@ -8701,30 +8668,30 @@
         <v>2</v>
       </c>
       <c r="K31" s="57"/>
-      <c r="L31" s="111"/>
+      <c r="L31" s="90"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="110" t="s">
+      <c r="J33" s="85"/>
+      <c r="K33" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="L33" s="110" t="s">
+      <c r="L33" s="89" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8735,69 +8702,69 @@
       <c r="B34" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="9" t="str">
         <f>IF(INT(RIGHT($B$34,1))&lt;=Input!$J$10,INT(RIGHT($B$34,1))/10,"")</f>
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="D34" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="105" t="str">
+      <c r="E34" s="84" t="str">
         <f>IF(C34="","",Input!$J$5&amp;"_QC_prerun1")</f>
-        <v>EW1017_QC_prerun1</v>
-      </c>
-      <c r="F34" s="105" t="str">
-        <f>IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G34" s="105" t="str">
+        <v/>
+      </c>
+      <c r="F34" s="84" t="str">
+        <f t="shared" ref="F34:F66" si="0">IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v/>
+      </c>
+      <c r="G34" s="84" t="str">
         <f>IF(C34="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H34" s="105" t="str">
+        <v/>
+      </c>
+      <c r="H34" s="84" t="str">
         <f>IF(C34="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v/>
       </c>
       <c r="I34" s="20">
         <v>0.5</v>
       </c>
-      <c r="J34" s="106"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="9" t="str">
         <f>IF(INT(RIGHT($B$35,1))&lt;=Input!$J$10,INT(RIGHT($B$35,1))/10,"")</f>
-        <v>0.2</v>
+        <v/>
       </c>
       <c r="D35" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="105" t="str">
+      <c r="E35" s="84" t="str">
         <f>IF(C35="","",Input!$J$5&amp;"_QC_prerun2")</f>
-        <v>EW1017_QC_prerun2</v>
-      </c>
-      <c r="F35" s="105" t="str">
-        <f>IF(C35="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G35" s="105" t="str">
+        <v/>
+      </c>
+      <c r="F35" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="84" t="str">
         <f>IF(C35="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H35" s="105" t="str">
+        <v/>
+      </c>
+      <c r="H35" s="84" t="str">
         <f>IF(C35="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v/>
       </c>
       <c r="I35" s="20">
         <v>0.5</v>
       </c>
-      <c r="J35" s="106"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
@@ -8810,239 +8777,239 @@
       <c r="D36" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="105" t="str">
+      <c r="E36" s="84" t="str">
         <f>IF(C36="","",Input!$J$5&amp;"_QC_prerun")</f>
         <v/>
       </c>
-      <c r="F36" s="105" t="str">
-        <f>IF(C36="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G36" s="105" t="str">
+      <c r="F36" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G36" s="84" t="str">
         <f>IF(C36="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H36" s="105" t="str">
+      <c r="H36" s="84" t="str">
         <f>IF(C36="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I36" s="20">
         <v>0.5</v>
       </c>
-      <c r="J36" s="106"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1.4000000000000001</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="9" t="e">
         <f>IF(AND($B$37-0.4&lt;=MAX($L$37:$L$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
-        <v>1.4000000000000001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="105" t="str">
+      <c r="E37" s="84" t="e">
         <f>IF(C37="","",Input!$J$5&amp;"_QC"&amp;$K$37)</f>
-        <v>EW1017_QC1</v>
-      </c>
-      <c r="F37" s="105" t="str">
-        <f>IF(C37="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G37" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="84" t="e">
         <f>IF(C37="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H37" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="84" t="e">
         <f>IF(C37="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I37" s="20">
         <v>0.5</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="e">
         <f>IF(AND($B$37-0.4&lt;=MAX($L$37:$L$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="K37" s="110">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="89">
         <v>1</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="89" t="str">
         <f>IF(Input!B18="","",Input!A18 +1)</f>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2.4000000000000004</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="9" t="e">
         <f>IF(AND($B$38-0.4&lt;=MAX($L$37:$L$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
-        <v>2.4000000000000004</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="105" t="str">
+      <c r="E38" s="84" t="e">
         <f>IF(C38="","",Input!$J$5&amp;"_QC"&amp;$K$38)</f>
-        <v>EW1017_QC2</v>
-      </c>
-      <c r="F38" s="105" t="str">
-        <f>IF(C38="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G38" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="84" t="e">
         <f>IF(C38="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H38" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="84" t="e">
         <f>IF(C38="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I38" s="20">
         <v>0.5</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="e">
         <f>IF(AND($B$38-0.4&lt;=MAX($L$37:$L$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="K38" s="110">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="89" t="e">
         <f>IF(J37="",K37,K37+1)</f>
-        <v>2</v>
-      </c>
-      <c r="L38" s="110">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="89" t="str">
         <f>IF(Input!B19="","",Input!A19 +1)</f>
-        <v>3</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3.4000000000000004</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="9" t="e">
         <f>IF(AND($B$39-0.4&lt;=MAX($L$37:$L$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
-        <v>3.4000000000000004</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="105" t="str">
+      <c r="E39" s="84" t="e">
         <f>IF(C39="","",Input!$J$5&amp;"_QC"&amp;$K$39)</f>
-        <v>EW1017_QC3</v>
-      </c>
-      <c r="F39" s="105" t="str">
-        <f>IF(C39="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G39" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="84" t="e">
         <f>IF(C39="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H39" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="84" t="e">
         <f>IF(C39="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I39" s="20">
         <v>0.5</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="e">
         <f>IF(AND($B$39-0.4&lt;=MAX($L$37:$L$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="K39" s="110">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="89" t="e">
         <f>IF(J38="",K38,K38+1)</f>
-        <v>3</v>
-      </c>
-      <c r="L39" s="110">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="89" t="str">
         <f>IF(Input!B20="","",Input!A20 +1)</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>4.3999999999999995</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="9" t="e">
         <f>IF(AND($B$40-0.4&lt;=MAX($L$37:$L$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
-        <v>4.3999999999999995</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="105" t="str">
+      <c r="E40" s="84" t="e">
         <f>IF(C40="","",Input!$J$5&amp;"_QC"&amp;$K$40)</f>
-        <v>EW1017_QC4</v>
-      </c>
-      <c r="F40" s="105" t="str">
-        <f>IF(C40="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G40" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="84" t="e">
         <f>IF(C40="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H40" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="84" t="e">
         <f>IF(C40="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I40" s="20">
         <v>0.5</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="e">
         <f>IF(AND($B$40-0.4&lt;=MAX($L$37:$L$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="K40" s="110">
-        <f t="shared" ref="K40:K66" si="0">IF(J39="",K39,K39+1)</f>
-        <v>4</v>
-      </c>
-      <c r="L40" s="110">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="89" t="e">
+        <f t="shared" ref="K40:K66" si="1">IF(J39="",K39,K39+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="89" t="str">
         <f>IF(Input!B21="","",Input!A21 +1)</f>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>5.3999999999999995</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="9" t="e">
         <f>IF(AND($B$41-0.4&lt;=MAX($L$37:$L$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
-        <v>5.3999999999999995</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="105" t="str">
+      <c r="E41" s="84" t="e">
         <f>IF(C41="","",Input!$J$5&amp;"_QC"&amp;$K$41)</f>
-        <v>EW1017_QC5</v>
-      </c>
-      <c r="F41" s="105" t="str">
-        <f>IF(C41="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v>C:\Xcalibur\data\DiagnosticBSA</v>
-      </c>
-      <c r="G41" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="84" t="e">
         <f>IF(C41="","",Input!$J$8)</f>
-        <v>C:\Xcalibur\methods\30_min_BSA.meth</v>
-      </c>
-      <c r="H41" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="84" t="e">
         <f>IF(C41="","",Input!$J$9)</f>
-        <v>A1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I41" s="20">
         <v>0.5</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="e">
         <f>IF(AND($B$41-0.4&lt;=MAX($L$37:$L$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="K41" s="110">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L41" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="89" t="str">
         <f>IF(Input!B22="","",Input!A22 +1)</f>
         <v/>
       </c>
@@ -9051,41 +9018,41 @@
       <c r="B42">
         <v>6.3999999999999995</v>
       </c>
-      <c r="C42" s="9" t="str">
+      <c r="C42" s="9" t="e">
         <f>IF(AND($B$42-0.4&lt;=MAX($L$37:$L$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="105" t="str">
+      <c r="E42" s="84" t="e">
         <f>IF(C42="","",Input!$J$5&amp;"_QC"&amp;$K$42)</f>
-        <v/>
-      </c>
-      <c r="F42" s="105" t="str">
-        <f>IF(C42="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G42" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="84" t="e">
         <f>IF(C42="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H42" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="84" t="e">
         <f>IF(C42="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I42" s="20">
         <v>0.5</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" t="e">
         <f>IF(AND($B$42-0.4&lt;=MAX($L$37:$L$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
-        <v/>
-      </c>
-      <c r="K42" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L42" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="89" t="str">
         <f>IF(Input!B23="","",Input!A23 +1)</f>
         <v/>
       </c>
@@ -9094,41 +9061,41 @@
       <c r="B43">
         <v>7.3999999999999995</v>
       </c>
-      <c r="C43" s="9" t="str">
+      <c r="C43" s="9" t="e">
         <f>IF(AND($B$43-0.4&lt;=MAX($L$37:$L$66),($B$43-0.4)/Input!$J$11=INT(($B43-0.4)/Input!$J$11)),$B$43,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="105" t="str">
+      <c r="E43" s="84" t="e">
         <f>IF(C43="","",Input!$J$5&amp;"_QC"&amp;$K$43)</f>
-        <v/>
-      </c>
-      <c r="F43" s="105" t="str">
-        <f>IF(C43="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G43" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="84" t="e">
         <f>IF(C43="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H43" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="84" t="e">
         <f>IF(C43="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I43" s="20">
         <v>0.5</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" t="e">
         <f>IF(AND($B$43-0.4&lt;=MAX($L$37:$L$66),($B$43-0.4)/Input!$J$11=INT(($B$43-0.4)/Input!$J$11)),$B$43,"")</f>
-        <v/>
-      </c>
-      <c r="K43" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L43" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="89" t="str">
         <f>IF(Input!B24="","",Input!A24 +1)</f>
         <v/>
       </c>
@@ -9137,41 +9104,41 @@
       <c r="B44">
         <v>8.3999999999999986</v>
       </c>
-      <c r="C44" s="9" t="str">
+      <c r="C44" s="9" t="e">
         <f>IF(AND($B$44-0.4&lt;=MAX($L$37:$L$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="105" t="str">
+      <c r="E44" s="84" t="e">
         <f>IF(C44="","",Input!$J$5&amp;"_QC"&amp;$K$44)</f>
-        <v/>
-      </c>
-      <c r="F44" s="105" t="str">
-        <f>IF(C44="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G44" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="84" t="e">
         <f>IF(C44="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H44" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="84" t="e">
         <f>IF(C44="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I44" s="20">
         <v>0.5</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" t="e">
         <f>IF(AND($B$44-0.4&lt;=MAX($L$37:$L$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
-        <v/>
-      </c>
-      <c r="K44" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L44" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="89" t="str">
         <f>IF(Input!B25="","",Input!A25 +1)</f>
         <v/>
       </c>
@@ -9180,41 +9147,41 @@
       <c r="B45">
         <v>9.3999999999999986</v>
       </c>
-      <c r="C45" s="9" t="str">
+      <c r="C45" s="9" t="e">
         <f>IF(AND($B$45-0.4&lt;=MAX($L$37:$L$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="105" t="str">
+      <c r="E45" s="84" t="e">
         <f>IF(C45="","",Input!$J$5&amp;"_QC"&amp;$K$45)</f>
-        <v/>
-      </c>
-      <c r="F45" s="105" t="str">
-        <f>IF(C45="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G45" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="84" t="e">
         <f>IF(C45="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H45" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="84" t="e">
         <f>IF(C45="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I45" s="20">
         <v>0.5</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" t="e">
         <f>IF(AND($B$45-0.4&lt;=MAX($L$37:$L$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
-        <v/>
-      </c>
-      <c r="K45" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L45" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="89" t="str">
         <f>IF(Input!B26="","",Input!A26 +1)</f>
         <v/>
       </c>
@@ -9223,41 +9190,41 @@
       <c r="B46">
         <v>10.399999999999999</v>
       </c>
-      <c r="C46" s="9" t="str">
+      <c r="C46" s="9" t="e">
         <f>IF(AND($B$46-0.4&lt;=MAX($L$37:$L$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="105" t="str">
+      <c r="E46" s="84" t="e">
         <f>IF(C46="","",Input!$J$5&amp;"_QC"&amp;$K$46)</f>
-        <v/>
-      </c>
-      <c r="F46" s="105" t="str">
-        <f>IF(C46="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G46" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="84" t="e">
         <f>IF(C46="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H46" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="84" t="e">
         <f>IF(C46="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I46" s="20">
         <v>0.5</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" t="e">
         <f>IF(AND($B$46-0.4&lt;=MAX($L$37:$L$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
-        <v/>
-      </c>
-      <c r="K46" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L46" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="89" t="str">
         <f>IF(Input!B27="","",Input!A27 +1)</f>
         <v/>
       </c>
@@ -9266,41 +9233,41 @@
       <c r="B47">
         <v>11.399999999999999</v>
       </c>
-      <c r="C47" s="9" t="str">
+      <c r="C47" s="9" t="e">
         <f>IF(AND($B$47-0.4&lt;=MAX($L$37:$L$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="105" t="str">
+      <c r="E47" s="84" t="e">
         <f>IF(C47="","",Input!$J$5&amp;"_QC"&amp;$K$47)</f>
-        <v/>
-      </c>
-      <c r="F47" s="105" t="str">
-        <f>IF(C47="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G47" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="84" t="e">
         <f>IF(C47="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H47" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="84" t="e">
         <f>IF(C47="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I47" s="20">
         <v>0.5</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" t="e">
         <f>IF(AND($B$47-0.4&lt;=MAX($L$37:$L$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
-        <v/>
-      </c>
-      <c r="K47" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L47" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="89" t="str">
         <f>IF(Input!B28="","",Input!A28 +1)</f>
         <v/>
       </c>
@@ -9309,41 +9276,41 @@
       <c r="B48">
         <v>12.399999999999999</v>
       </c>
-      <c r="C48" s="9" t="str">
+      <c r="C48" s="9" t="e">
         <f>IF(AND($B$48-0.4&lt;=MAX($L$37:$L$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="105" t="str">
+      <c r="E48" s="84" t="e">
         <f>IF(C48="","",Input!$J$5&amp;"_QC"&amp;$K$48)</f>
-        <v/>
-      </c>
-      <c r="F48" s="105" t="str">
-        <f>IF(C48="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G48" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="84" t="e">
         <f>IF(C48="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H48" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="84" t="e">
         <f>IF(C48="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I48" s="20">
         <v>0.5</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" t="e">
         <f>IF(AND($B$48-0.4&lt;=MAX($L$37:$L$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
-        <v/>
-      </c>
-      <c r="K48" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L48" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="89" t="str">
         <f>IF(Input!B29="","",Input!A29 +1)</f>
         <v/>
       </c>
@@ -9352,41 +9319,41 @@
       <c r="B49">
         <v>13.399999999999999</v>
       </c>
-      <c r="C49" s="9" t="str">
+      <c r="C49" s="9" t="e">
         <f>IF(AND($B$49-0.4&lt;=MAX($L$37:$L$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="105" t="str">
+      <c r="E49" s="84" t="e">
         <f>IF(C49="","",Input!$J$5&amp;"_QC"&amp;$K$49)</f>
-        <v/>
-      </c>
-      <c r="F49" s="105" t="str">
-        <f>IF(C49="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G49" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="84" t="e">
         <f>IF(C49="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H49" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="84" t="e">
         <f>IF(C49="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I49" s="20">
         <v>0.5</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" t="e">
         <f>IF(AND($B$49-0.4&lt;=MAX($L$37:$L$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
-        <v/>
-      </c>
-      <c r="K49" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L49" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="89" t="str">
         <f>IF(Input!B30="","",Input!A30 +1)</f>
         <v/>
       </c>
@@ -9395,41 +9362,41 @@
       <c r="B50">
         <v>14.399999999999999</v>
       </c>
-      <c r="C50" s="9" t="str">
+      <c r="C50" s="9" t="e">
         <f>IF(AND($B$50-0.4&lt;=MAX($L$37:$L$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="105" t="str">
+      <c r="E50" s="84" t="e">
         <f>IF(C50="","",Input!$J$5&amp;"_QC"&amp;$K$50)</f>
-        <v/>
-      </c>
-      <c r="F50" s="105" t="str">
-        <f>IF(C50="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G50" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="84" t="e">
         <f>IF(C50="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H50" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="84" t="e">
         <f>IF(C50="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I50" s="20">
         <v>0.5</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" t="e">
         <f>IF(AND($B$50-0.4&lt;=MAX($L$37:$L$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
-        <v/>
-      </c>
-      <c r="K50" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L50" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" s="89" t="str">
         <f>IF(Input!B31="","",Input!A31 +1)</f>
         <v/>
       </c>
@@ -9438,41 +9405,41 @@
       <c r="B51">
         <v>15.399999999999999</v>
       </c>
-      <c r="C51" s="9" t="str">
+      <c r="C51" s="9" t="e">
         <f>IF(AND($B$51-0.4&lt;=MAX($L$37:$L$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="105" t="str">
+      <c r="E51" s="84" t="e">
         <f>IF(C51="","",Input!$J$5&amp;"_QC"&amp;$K$51)</f>
-        <v/>
-      </c>
-      <c r="F51" s="105" t="str">
-        <f>IF(C51="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G51" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="84" t="e">
         <f>IF(C51="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H51" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="84" t="e">
         <f>IF(C51="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I51" s="20">
         <v>0.5</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" t="e">
         <f>IF(AND($B$51-0.4&lt;=MAX($L$37:$L$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
-        <v/>
-      </c>
-      <c r="K51" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L51" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="89" t="str">
         <f>IF(Input!B32="","",Input!A32 +1)</f>
         <v/>
       </c>
@@ -9481,41 +9448,41 @@
       <c r="B52">
         <v>16.400000000000002</v>
       </c>
-      <c r="C52" s="9" t="str">
+      <c r="C52" s="9" t="e">
         <f>IF(AND($B$52-0.4&lt;=MAX($L$37:$L$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="105" t="str">
+      <c r="E52" s="84" t="e">
         <f>IF(C52="","",Input!$J$5&amp;"_QC"&amp;$K$52)</f>
-        <v/>
-      </c>
-      <c r="F52" s="105" t="str">
-        <f>IF(C52="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G52" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="84" t="e">
         <f>IF(C52="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H52" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="84" t="e">
         <f>IF(C52="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I52" s="20">
         <v>0.5</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" t="e">
         <f>IF(AND($B$52-0.4&lt;=MAX($L$37:$L$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
-        <v/>
-      </c>
-      <c r="K52" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L52" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="89" t="str">
         <f>IF(Input!B33="","",Input!A33 +1)</f>
         <v/>
       </c>
@@ -9524,41 +9491,41 @@
       <c r="B53">
         <v>17.400000000000002</v>
       </c>
-      <c r="C53" s="9" t="str">
+      <c r="C53" s="9" t="e">
         <f>IF(AND($B$53-0.4&lt;=MAX($L$37:$L$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="105" t="str">
+      <c r="E53" s="84" t="e">
         <f>IF(C53="","",Input!$J$5&amp;"_QC"&amp;$K$53)</f>
-        <v/>
-      </c>
-      <c r="F53" s="105" t="str">
-        <f>IF(C53="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G53" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="84" t="e">
         <f>IF(C53="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H53" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="84" t="e">
         <f>IF(C53="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I53" s="20">
         <v>0.5</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" t="e">
         <f>IF(AND($B$53-0.4&lt;=MAX($L$37:$L$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
-        <v/>
-      </c>
-      <c r="K53" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L53" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="89" t="str">
         <f>IF(Input!B34="","",Input!A34 +1)</f>
         <v/>
       </c>
@@ -9567,41 +9534,41 @@
       <c r="B54">
         <v>18.399999999999999</v>
       </c>
-      <c r="C54" s="9" t="str">
+      <c r="C54" s="9" t="e">
         <f>IF(AND($B$54-0.4&lt;=MAX($L$37:$L$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="105" t="str">
+      <c r="E54" s="84" t="e">
         <f>IF(C54="","",Input!$J$5&amp;"_QC"&amp;$K$54)</f>
-        <v/>
-      </c>
-      <c r="F54" s="105" t="str">
-        <f>IF(C54="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G54" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="84" t="e">
         <f>IF(C54="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H54" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="84" t="e">
         <f>IF(C54="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I54" s="20">
         <v>0.5</v>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" t="e">
         <f>IF(AND($B$54-0.4&lt;=MAX($L$37:$L$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
-        <v/>
-      </c>
-      <c r="K54" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L54" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="89" t="str">
         <f>IF(Input!B35="","",Input!A35 +1)</f>
         <v/>
       </c>
@@ -9610,41 +9577,41 @@
       <c r="B55">
         <v>19.399999999999999</v>
       </c>
-      <c r="C55" s="9" t="str">
+      <c r="C55" s="9" t="e">
         <f>IF(AND($B$55-0.4&lt;=MAX($L$37:$L$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="105" t="str">
+      <c r="E55" s="84" t="e">
         <f>IF(C55="","",Input!$J$5&amp;"_QC"&amp;$K$55)</f>
-        <v/>
-      </c>
-      <c r="F55" s="105" t="str">
-        <f>IF(C55="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G55" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="84" t="e">
         <f>IF(C55="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H55" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="84" t="e">
         <f>IF(C55="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I55" s="20">
         <v>0.5</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" t="e">
         <f>IF(AND($B$55-0.4&lt;=MAX($L$37:$L$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
-        <v/>
-      </c>
-      <c r="K55" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L55" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" s="89" t="str">
         <f>IF(Input!B36="","",Input!A36 +1)</f>
         <v/>
       </c>
@@ -9653,41 +9620,41 @@
       <c r="B56">
         <v>20.399999999999999</v>
       </c>
-      <c r="C56" s="9" t="str">
+      <c r="C56" s="9" t="e">
         <f>IF(AND($B$56-0.4&lt;=MAX($L$37:$L$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="105" t="str">
+      <c r="E56" s="84" t="e">
         <f>IF(C56="","",Input!$J$5&amp;"_QC"&amp;$K$56)</f>
-        <v/>
-      </c>
-      <c r="F56" s="105" t="str">
-        <f>IF(C56="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G56" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="84" t="e">
         <f>IF(C56="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H56" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="84" t="e">
         <f>IF(C56="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I56" s="20">
         <v>0.5</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" t="e">
         <f>IF(AND($B$56-0.4&lt;=MAX($L$37:$L$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
-        <v/>
-      </c>
-      <c r="K56" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L56" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="89" t="str">
         <f>IF(Input!B37="","",Input!A37 +1)</f>
         <v/>
       </c>
@@ -9696,41 +9663,41 @@
       <c r="B57">
         <v>21.4</v>
       </c>
-      <c r="C57" s="9" t="str">
+      <c r="C57" s="9" t="e">
         <f>IF(AND($B$57-0.4&lt;=MAX($L$37:$L$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="105" t="str">
+      <c r="E57" s="84" t="e">
         <f>IF(C57="","",Input!$J$5&amp;"_QC"&amp;$K$57)</f>
-        <v/>
-      </c>
-      <c r="F57" s="105" t="str">
-        <f>IF(C57="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G57" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="84" t="e">
         <f>IF(C57="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H57" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="84" t="e">
         <f>IF(C57="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I57" s="20">
         <v>0.5</v>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" t="e">
         <f>IF(AND($B$57-0.4&lt;=MAX($L$37:$L$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
-        <v/>
-      </c>
-      <c r="K57" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L57" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" s="89" t="str">
         <f>IF(Input!B38="","",Input!A38 +1)</f>
         <v/>
       </c>
@@ -9739,41 +9706,41 @@
       <c r="B58">
         <v>22.4</v>
       </c>
-      <c r="C58" s="9" t="str">
+      <c r="C58" s="9" t="e">
         <f>IF(AND($B$58-0.4&lt;=MAX($L$37:$L$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="105" t="str">
+      <c r="E58" s="84" t="e">
         <f>IF(C58="","",Input!$J$5&amp;"_QC"&amp;$K$58)</f>
-        <v/>
-      </c>
-      <c r="F58" s="105" t="str">
-        <f>IF(C58="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G58" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="84" t="e">
         <f>IF(C58="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H58" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="84" t="e">
         <f>IF(C58="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I58" s="20">
         <v>0.5</v>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" t="e">
         <f>IF(AND($B$58-0.4&lt;=MAX($L$37:$L$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
-        <v/>
-      </c>
-      <c r="K58" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L58" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="89" t="str">
         <f>IF(Input!B39="","",Input!A39 +1)</f>
         <v/>
       </c>
@@ -9782,41 +9749,41 @@
       <c r="B59">
         <v>23.4</v>
       </c>
-      <c r="C59" s="9" t="str">
+      <c r="C59" s="9" t="e">
         <f>IF(AND($B$59-0.4&lt;=MAX($L$37:$L$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E59" s="105" t="str">
+      <c r="E59" s="84" t="e">
         <f>IF(C59="","",Input!$J$5&amp;"_QC"&amp;$K$59)</f>
-        <v/>
-      </c>
-      <c r="F59" s="105" t="str">
-        <f>IF(C59="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G59" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="84" t="e">
         <f>IF(C59="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H59" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="84" t="e">
         <f>IF(C59="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I59" s="20">
         <v>0.5</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" t="e">
         <f>IF(AND($B$59-0.4&lt;=MAX($L$37:$L$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
-        <v/>
-      </c>
-      <c r="K59" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L59" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="89" t="str">
         <f>IF(Input!B40="","",Input!A40 +1)</f>
         <v/>
       </c>
@@ -9825,41 +9792,41 @@
       <c r="B60">
         <v>24.4</v>
       </c>
-      <c r="C60" s="9" t="str">
+      <c r="C60" s="9" t="e">
         <f>IF(AND($B$60-0.4&lt;=MAX($L$37:$L$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="105" t="str">
+      <c r="E60" s="84" t="e">
         <f>IF(C60="","",Input!$J$5&amp;"_QC"&amp;$K$60)</f>
-        <v/>
-      </c>
-      <c r="F60" s="105" t="str">
-        <f>IF(C60="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G60" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="84" t="e">
         <f>IF(C60="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H60" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="84" t="e">
         <f>IF(C60="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I60" s="20">
         <v>0.5</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" t="e">
         <f>IF(AND($B$60-0.4&lt;=MAX($L$37:$L$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
-        <v/>
-      </c>
-      <c r="K60" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L60" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="89" t="str">
         <f>IF(Input!B41="","",Input!A41 +1)</f>
         <v/>
       </c>
@@ -9868,41 +9835,41 @@
       <c r="B61">
         <v>25.4</v>
       </c>
-      <c r="C61" s="9" t="str">
+      <c r="C61" s="9" t="e">
         <f>IF(AND($B$61-0.4&lt;=MAX($L$37:$L$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="105" t="str">
+      <c r="E61" s="84" t="e">
         <f>IF(C61="","",Input!$J$5&amp;"_QC"&amp;$K$61)</f>
-        <v/>
-      </c>
-      <c r="F61" s="105" t="str">
-        <f>IF(C61="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G61" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="84" t="e">
         <f>IF(C61="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H61" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="84" t="e">
         <f>IF(C61="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I61" s="20">
         <v>0.5</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" t="e">
         <f>IF(AND($B$61-0.4&lt;=MAX($L$37:$L$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
-        <v/>
-      </c>
-      <c r="K61" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L61" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="89" t="str">
         <f>IF(Input!B42="","",Input!A42 +1)</f>
         <v/>
       </c>
@@ -9911,41 +9878,41 @@
       <c r="B62">
         <v>26.4</v>
       </c>
-      <c r="C62" s="9" t="str">
+      <c r="C62" s="9" t="e">
         <f>IF(AND($B$62-0.4&lt;=MAX($L$37:$L$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="105" t="str">
+      <c r="E62" s="84" t="e">
         <f>IF(C62="","",Input!$J$5&amp;"_QC"&amp;$K$62)</f>
-        <v/>
-      </c>
-      <c r="F62" s="105" t="str">
-        <f>IF(C62="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G62" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62" s="84" t="e">
         <f>IF(C62="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H62" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="84" t="e">
         <f>IF(C62="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I62" s="20">
         <v>0.5</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" t="e">
         <f>IF(AND($B$62-0.4&lt;=MAX($L$37:$L$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
-        <v/>
-      </c>
-      <c r="K62" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L62" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="89" t="str">
         <f>IF(Input!B43="","",Input!A43 +1)</f>
         <v/>
       </c>
@@ -9954,41 +9921,41 @@
       <c r="B63">
         <v>27.4</v>
       </c>
-      <c r="C63" s="9" t="str">
+      <c r="C63" s="9" t="e">
         <f>IF(AND($B$63-0.4&lt;=MAX($L$37:$L$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="105" t="str">
+      <c r="E63" s="84" t="e">
         <f>IF(C63="","",Input!$J$5&amp;"_QC"&amp;$K$63)</f>
-        <v/>
-      </c>
-      <c r="F63" s="105" t="str">
-        <f>IF(C63="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G63" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="84" t="e">
         <f>IF(C63="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H63" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="84" t="e">
         <f>IF(C63="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I63" s="20">
         <v>0.5</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" t="e">
         <f>IF(AND($B$63-0.4&lt;=MAX($L$37:$L$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
-        <v/>
-      </c>
-      <c r="K63" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L63" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="89" t="str">
         <f>IF(Input!B44="","",Input!A44 +1)</f>
         <v/>
       </c>
@@ -9997,41 +9964,41 @@
       <c r="B64">
         <v>28.4</v>
       </c>
-      <c r="C64" s="9" t="str">
+      <c r="C64" s="9" t="e">
         <f>IF(AND($B$64-0.4&lt;=MAX($L$37:$L$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B64,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="105" t="str">
+      <c r="E64" s="84" t="e">
         <f>IF(C64="","",Input!$J$5&amp;"_QC"&amp;$K$64)</f>
-        <v/>
-      </c>
-      <c r="F64" s="105" t="str">
-        <f>IF(C64="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G64" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="84" t="e">
         <f>IF(C64="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H64" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="84" t="e">
         <f>IF(C64="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I64" s="20">
         <v>0.5</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" t="e">
         <f>IF(AND($B$64-0.4&lt;=MAX($L$37:$L$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B$64,"")</f>
-        <v/>
-      </c>
-      <c r="K64" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L64" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="89" t="str">
         <f>IF(Input!B45="","",Input!A45 +1)</f>
         <v/>
       </c>
@@ -10040,41 +10007,41 @@
       <c r="B65">
         <v>29.4</v>
       </c>
-      <c r="C65" s="9" t="str">
+      <c r="C65" s="9" t="e">
         <f>IF(AND($B$65-0.4&lt;=MAX($L$37:$L$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E65" s="105" t="str">
+      <c r="E65" s="84" t="e">
         <f>IF(C65="","",Input!$J$5&amp;"_QC"&amp;$K$65)</f>
-        <v/>
-      </c>
-      <c r="F65" s="105" t="str">
-        <f>IF(C65="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G65" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="84" t="e">
         <f>IF(C65="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H65" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="84" t="e">
         <f>IF(C65="","",Input!$J$9)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I65" s="20">
         <v>0.5</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" t="e">
         <f>IF(AND($B$65-0.4&lt;=MAX($L$37:$L$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
-        <v/>
-      </c>
-      <c r="K65" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L65" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="89" t="str">
         <f>IF(Input!B46="","",Input!A46 +1)</f>
         <v/>
       </c>
@@ -10083,41 +10050,41 @@
       <c r="B66">
         <v>30.4</v>
       </c>
-      <c r="C66" s="9" t="str">
+      <c r="C66" s="9" t="e">
         <f>IF(AND($B$66-0.4&lt;=MAX($L$37:$L$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
-        <v/>
-      </c>
-      <c r="D66" s="107" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D66" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="E66" s="105" t="str">
+      <c r="E66" s="87" t="e">
         <f>IF(C66="","",Input!$J$5&amp;"_QC"&amp;$K$66)</f>
-        <v/>
-      </c>
-      <c r="F66" s="108" t="str">
-        <f>IF(C66="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G66" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="87" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="87" t="e">
         <f>IF(C66="","",Input!$J$8)</f>
-        <v/>
-      </c>
-      <c r="H66" s="105" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="87" t="e">
         <f>IF(C66="","",Input!$J$9)</f>
-        <v/>
-      </c>
-      <c r="I66" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="88">
         <v>0.5</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" t="e">
         <f>IF(AND($B$66-0.4&lt;=MAX($L$37:$L$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
-        <v/>
-      </c>
-      <c r="K66" s="110">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L66" s="110" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="89" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="89" t="str">
         <f>IF(Input!B47="","",Input!A47 +1)</f>
         <v/>
       </c>
@@ -10132,7 +10099,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10384,7 +10351,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10397,64 +10364,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -10502,10 +10469,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="66"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="4"/>
       <c r="H11" s="5"/>
     </row>
@@ -10513,10 +10480,10 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="66"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="4"/>
       <c r="H12" s="5"/>
     </row>
@@ -10524,10 +10491,10 @@
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="4"/>
       <c r="H13" s="5"/>
     </row>
@@ -10535,10 +10502,10 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="66"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="4"/>
       <c r="H14" s="5"/>
     </row>
@@ -10546,10 +10513,10 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="66"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="4"/>
       <c r="H15" s="5"/>
     </row>
@@ -10557,10 +10524,10 @@
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="66"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="4"/>
       <c r="H16" s="5"/>
     </row>
@@ -10568,10 +10535,10 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="66"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="4"/>
       <c r="H17" s="5"/>
     </row>
@@ -10579,10 +10546,10 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="4"/>
       <c r="H18" s="5"/>
     </row>
@@ -10590,10 +10557,10 @@
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="4"/>
       <c r="H19" s="5"/>
     </row>
@@ -10601,10 +10568,10 @@
       <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="4"/>
       <c r="H20" s="5"/>
     </row>
@@ -10612,10 +10579,10 @@
       <c r="A21" s="4">
         <v>11</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="66"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="4"/>
       <c r="H21" s="5"/>
     </row>
@@ -10623,10 +10590,10 @@
       <c r="A22" s="4">
         <v>12</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="66"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="4"/>
       <c r="H22" s="5"/>
     </row>
@@ -10634,10 +10601,10 @@
       <c r="A23" s="4">
         <v>13</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="66"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="4"/>
       <c r="H23" s="5"/>
     </row>
@@ -10645,10 +10612,10 @@
       <c r="A24" s="4">
         <v>14</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="66"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="4"/>
       <c r="H24" s="5"/>
     </row>
@@ -10656,10 +10623,10 @@
       <c r="A25" s="4">
         <v>15</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="66"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="4"/>
       <c r="H25" s="5"/>
     </row>
@@ -10667,10 +10634,10 @@
       <c r="A26" s="4">
         <v>16</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="66"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="4"/>
       <c r="H26" s="5"/>
     </row>
@@ -10678,10 +10645,10 @@
       <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="66"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="4"/>
       <c r="H27" s="5"/>
     </row>
@@ -10689,10 +10656,10 @@
       <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="66"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
     </row>
@@ -10700,10 +10667,10 @@
       <c r="A29" s="4">
         <v>19</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="66"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="4"/>
       <c r="H29" s="5"/>
     </row>
@@ -10711,10 +10678,10 @@
       <c r="A30" s="4">
         <v>20</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="66"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
     </row>
@@ -10722,10 +10689,10 @@
       <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="66"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
     </row>
@@ -10733,10 +10700,10 @@
       <c r="A32" s="4">
         <v>22</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="66"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
     </row>
@@ -10744,10 +10711,10 @@
       <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="66"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
     </row>
@@ -10755,10 +10722,10 @@
       <c r="A34" s="4">
         <v>24</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="66"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="59"/>
       <c r="F34" s="4"/>
       <c r="H34" s="5"/>
     </row>
@@ -10766,10 +10733,10 @@
       <c r="A35" s="4">
         <v>25</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="66"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="4"/>
       <c r="H35" s="5"/>
     </row>
@@ -10777,10 +10744,10 @@
       <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="66"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="4"/>
       <c r="H36" s="5"/>
     </row>
@@ -10788,10 +10755,10 @@
       <c r="A37" s="4">
         <v>27</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="66"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="59"/>
       <c r="F37" s="4"/>
       <c r="H37" s="5"/>
     </row>
@@ -10799,10 +10766,10 @@
       <c r="A38" s="4">
         <v>28</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="66"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="59"/>
       <c r="F38" s="4"/>
       <c r="H38" s="5"/>
     </row>
@@ -10810,10 +10777,10 @@
       <c r="A39" s="4">
         <v>29</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="66"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="4"/>
       <c r="H39" s="5"/>
     </row>
@@ -10821,10 +10788,10 @@
       <c r="A40" s="4">
         <v>30</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="66"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="59"/>
       <c r="F40" s="4"/>
       <c r="H40" s="5"/>
     </row>

--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E51F6E-787D-4083-9D5F-09D1C9E633E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687155D-B018-40BC-8201-8AB58207DBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="804" yWindow="756" windowWidth="22308" windowHeight="5352" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Instructions" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="201">
   <si>
     <t>Species</t>
   </si>
@@ -595,9 +595,6 @@
     <t>TMT standard ID run</t>
   </si>
   <si>
-    <t>IF(Input!C34="","","C:\Xcalibur\data\" &amp;Input!$J$4&amp; "_"&amp;Input!$J$5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purpose of Experiment: </t>
   </si>
   <si>
@@ -931,6 +928,18 @@
   </si>
   <si>
     <t>prerun3</t>
+  </si>
+  <si>
+    <t>IF(Input!C18="","","C:\Xcalibur\data\" &amp;Input!$J$4&amp; "_"&amp;Input!$J$5)</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>IF(Input!C18="","","\")</t>
+  </si>
+  <si>
+    <t>.raw</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,8 +1097,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1345,7 +1360,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -1359,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1441,7 +1493,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
@@ -1477,8 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1486,7 +1535,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1550,9 +1601,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1897,234 +1957,234 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="A7" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -2138,44 +2198,44 @@
     </row>
     <row r="20" spans="1:10" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="B21" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2183,12 +2243,12 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2196,15 +2256,15 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -2216,7 +2276,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -2228,7 +2288,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
       <c r="B31" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -2240,7 +2300,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
       <c r="B32" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -2251,10 +2311,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -2265,10 +2325,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -2279,10 +2339,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
@@ -2303,15 +2363,15 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K38" s="44"/>
       <c r="L38" s="44"/>
@@ -2323,7 +2383,7 @@
     </row>
     <row r="39" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="49"/>
@@ -2338,7 +2398,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
@@ -2365,7 +2425,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
@@ -2377,10 +2437,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
@@ -2392,10 +2452,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
@@ -2407,10 +2467,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
@@ -2422,10 +2482,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -2437,10 +2497,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2448,15 +2508,15 @@
     </row>
     <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
         <v>154</v>
-      </c>
-      <c r="B52" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2464,15 +2524,15 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2480,7 +2540,7 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2488,12 +2548,12 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
@@ -2515,51 +2575,51 @@
     </row>
     <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A60" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="8"/>
     </row>
@@ -2570,20 +2630,22 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A16:J16"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
@@ -2600,8 +2662,6 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2624,7 +2684,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="8"/>
@@ -2703,7 +2763,7 @@
     </row>
     <row r="9" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2749,7 +2809,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2993,16 +3053,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
+      <c r="A1" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="26" t="s">
         <v>81</v>
       </c>
@@ -3011,116 +3071,116 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="71" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="71"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="72"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="68"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="73" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="69" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="54" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
+      <c r="A9" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="29" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3205,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3175,7 +3235,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>18</v>
@@ -3193,22 +3253,22 @@
         <v>22</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="N15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" s="7"/>
     </row>
@@ -3219,11 +3279,11 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>189</v>
+      <c r="C16" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>188</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -3234,23 +3294,23 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="78" t="s">
+      <c r="I16" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="76" t="s">
+      <c r="K16" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="76" t="s">
         <v>109</v>
+      </c>
+      <c r="M16" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
@@ -3277,18 +3337,18 @@
         <v>1</v>
       </c>
       <c r="B18" s="40"/>
-      <c r="C18" s="112" t="str">
-        <f>IF(OR(D18="",$C$2=""), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="D18" s="59"/>
+      <c r="C18" s="87" t="str">
+        <f>IF(OR(D19="",$C$2=""), "", $C$2)</f>
+        <v/>
+      </c>
+      <c r="D18" s="58"/>
       <c r="E18" s="40"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3296,18 +3356,18 @@
         <v>2</v>
       </c>
       <c r="B19" s="40"/>
-      <c r="C19" s="112" t="str">
-        <f t="shared" ref="C19:C47" si="0">IF(OR(D19="",$C$2=""), "", $C$2)</f>
-        <v/>
-      </c>
-      <c r="D19" s="59"/>
+      <c r="C19" s="87" t="str">
+        <f>IF(OR(D19="",$C$2=""), "", $C$2)</f>
+        <v/>
+      </c>
+      <c r="D19" s="58"/>
       <c r="E19" s="40"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
       <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3315,18 +3375,18 @@
         <v>3</v>
       </c>
       <c r="B20" s="40"/>
-      <c r="C20" s="112" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="59"/>
+      <c r="C20" s="87" t="str">
+        <f t="shared" ref="C19:C47" si="0">IF(OR(D20="",$C$2=""), "", $C$2)</f>
+        <v/>
+      </c>
+      <c r="D20" s="58"/>
       <c r="E20" s="40"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3334,18 +3394,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="40"/>
-      <c r="C21" s="112" t="str">
+      <c r="C21" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="40"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3353,18 +3413,18 @@
         <v>5</v>
       </c>
       <c r="B22" s="40"/>
-      <c r="C22" s="112" t="str">
+      <c r="C22" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="40"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3372,18 +3432,18 @@
         <v>6</v>
       </c>
       <c r="B23" s="40"/>
-      <c r="C23" s="112" t="str">
+      <c r="C23" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="40"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -3391,18 +3451,18 @@
         <v>7</v>
       </c>
       <c r="B24" s="40"/>
-      <c r="C24" s="112" t="str">
+      <c r="C24" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="40"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3410,18 +3470,18 @@
         <v>8</v>
       </c>
       <c r="B25" s="40"/>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -3429,18 +3489,18 @@
         <v>9</v>
       </c>
       <c r="B26" s="40"/>
-      <c r="C26" s="112" t="str">
+      <c r="C26" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="40"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
       <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3448,18 +3508,18 @@
         <v>10</v>
       </c>
       <c r="B27" s="40"/>
-      <c r="C27" s="112" t="str">
+      <c r="C27" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="40"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
       <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3467,18 +3527,18 @@
         <v>11</v>
       </c>
       <c r="B28" s="40"/>
-      <c r="C28" s="112" t="str">
+      <c r="C28" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="40"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3486,18 +3546,18 @@
         <v>12</v>
       </c>
       <c r="B29" s="40"/>
-      <c r="C29" s="112" t="str">
+      <c r="C29" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="40"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3505,18 +3565,18 @@
         <v>13</v>
       </c>
       <c r="B30" s="40"/>
-      <c r="C30" s="112" t="str">
+      <c r="C30" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="40"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3524,18 +3584,18 @@
         <v>14</v>
       </c>
       <c r="B31" s="40"/>
-      <c r="C31" s="112" t="str">
+      <c r="C31" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="40"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3543,18 +3603,18 @@
         <v>15</v>
       </c>
       <c r="B32" s="40"/>
-      <c r="C32" s="112" t="str">
+      <c r="C32" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="40"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
       <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -3562,18 +3622,18 @@
         <v>16</v>
       </c>
       <c r="B33" s="40"/>
-      <c r="C33" s="112" t="str">
+      <c r="C33" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="40"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
       <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -3581,18 +3641,18 @@
         <v>17</v>
       </c>
       <c r="B34" s="40"/>
-      <c r="C34" s="112" t="str">
+      <c r="C34" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="40"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -3600,18 +3660,18 @@
         <v>18</v>
       </c>
       <c r="B35" s="40"/>
-      <c r="C35" s="112" t="str">
+      <c r="C35" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="40"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
       <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -3619,18 +3679,18 @@
         <v>19</v>
       </c>
       <c r="B36" s="40"/>
-      <c r="C36" s="112" t="str">
+      <c r="C36" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="40"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
       <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -3638,18 +3698,18 @@
         <v>20</v>
       </c>
       <c r="B37" s="40"/>
-      <c r="C37" s="112" t="str">
+      <c r="C37" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="40"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
       <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -3657,18 +3717,18 @@
         <v>21</v>
       </c>
       <c r="B38" s="40"/>
-      <c r="C38" s="112" t="str">
+      <c r="C38" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="40"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
       <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3676,18 +3736,18 @@
         <v>22</v>
       </c>
       <c r="B39" s="40"/>
-      <c r="C39" s="112" t="str">
+      <c r="C39" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="40"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
       <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3695,18 +3755,18 @@
         <v>23</v>
       </c>
       <c r="B40" s="40"/>
-      <c r="C40" s="112" t="str">
+      <c r="C40" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="59"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="40"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
       <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3714,18 +3774,18 @@
         <v>24</v>
       </c>
       <c r="B41" s="40"/>
-      <c r="C41" s="112" t="str">
+      <c r="C41" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="40"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
       <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3733,18 +3793,18 @@
         <v>25</v>
       </c>
       <c r="B42" s="40"/>
-      <c r="C42" s="112" t="str">
+      <c r="C42" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="40"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3752,18 +3812,18 @@
         <v>26</v>
       </c>
       <c r="B43" s="40"/>
-      <c r="C43" s="112" t="str">
+      <c r="C43" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D43" s="59"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="40"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
       <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -3771,18 +3831,18 @@
         <v>27</v>
       </c>
       <c r="B44" s="40"/>
-      <c r="C44" s="112" t="str">
+      <c r="C44" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="40"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
       <c r="N44" s="34"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3790,18 +3850,18 @@
         <v>28</v>
       </c>
       <c r="B45" s="40"/>
-      <c r="C45" s="112" t="str">
+      <c r="C45" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="59"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="40"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
       <c r="N45" s="34"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3809,18 +3869,18 @@
         <v>29</v>
       </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="112" t="str">
+      <c r="C46" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="40"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
       <c r="N46" s="34"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3828,352 +3888,352 @@
         <v>30</v>
       </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="112" t="str">
+      <c r="C47" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="59"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="40"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
       <c r="N47" s="34"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="64"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="40"/>
       <c r="I48" s="40"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="40"/>
-      <c r="C49" s="114"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="I49" s="40"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="40"/>
-      <c r="C50" s="114"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="I50" s="40"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
-      <c r="C51" s="114"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
       <c r="I51" s="40"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="40"/>
-      <c r="C52" s="114"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="I52" s="40"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="40"/>
-      <c r="C53" s="114"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="I53" s="40"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="40"/>
-      <c r="C54" s="114"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="I54" s="40"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="40"/>
-      <c r="C55" s="114"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
       <c r="I55" s="40"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="40"/>
-      <c r="C56" s="114"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="I56" s="40"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="40"/>
-      <c r="C57" s="114"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="I57" s="40"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="40"/>
-      <c r="C58" s="114"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="I58" s="40"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="40"/>
-      <c r="C59" s="114"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="I59" s="40"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="40"/>
-      <c r="C60" s="114"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="I60" s="40"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="40"/>
-      <c r="C61" s="114"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="I61" s="40"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="40"/>
-      <c r="C62" s="114"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="I62" s="40"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
-      <c r="C63" s="114"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="I63" s="40"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
-      <c r="C64" s="114"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="I64" s="40"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
-      <c r="C65" s="114"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
       <c r="I65" s="40"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
-      <c r="C66" s="114"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="I66" s="40"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
-      <c r="C67" s="114"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="I67" s="40"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="40"/>
-      <c r="C68" s="114"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="40"/>
-      <c r="C69" s="114"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="40"/>
-      <c r="C70" s="114"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="I70" s="40"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="40"/>
-      <c r="C71" s="114"/>
+      <c r="C71" s="89"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="I71" s="40"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="40"/>
-      <c r="C72" s="114"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="I72" s="40"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="40"/>
-      <c r="C73" s="114"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="I73" s="40"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="40"/>
-      <c r="C74" s="114"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="I74" s="40"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="40"/>
-      <c r="C75" s="114"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
       <c r="I75" s="40"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="40"/>
-      <c r="C76" s="114"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
       <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="40"/>
-      <c r="C77" s="114"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
       <c r="I77" s="40"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="40"/>
-      <c r="C78" s="114"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="40"/>
-      <c r="C79" s="114"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="40"/>
-      <c r="C80" s="114"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="I80" s="40"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="40"/>
-      <c r="C81" s="114"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="I81" s="40"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="40"/>
-      <c r="C82" s="114"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
       <c r="I82" s="40"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="40"/>
-      <c r="C83" s="114"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
       <c r="I83" s="40"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="40"/>
-      <c r="C84" s="114"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="I84" s="40"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="40"/>
-      <c r="C85" s="114"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
       <c r="I85" s="40"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="40"/>
-      <c r="C86" s="114"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
       <c r="I86" s="40"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="40"/>
-      <c r="C87" s="114"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
       <c r="I87" s="40"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="40"/>
-      <c r="C88" s="114"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="I88" s="40"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="40"/>
-      <c r="C89" s="114"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
       <c r="I89" s="40"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="40"/>
-      <c r="C90" s="114"/>
+      <c r="C90" s="89"/>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
       <c r="I90" s="40"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="40"/>
-      <c r="C91" s="114"/>
+      <c r="C91" s="89"/>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
       <c r="I91" s="40"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="40"/>
-      <c r="C92" s="114"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="I92" s="40"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="40"/>
-      <c r="C93" s="114"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
       <c r="I93" s="40"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="40"/>
-      <c r="C94" s="114"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
       <c r="I94" s="40"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="40"/>
-      <c r="C95" s="114"/>
+      <c r="C95" s="89"/>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
       <c r="I95" s="40"/>
@@ -7620,9 +7680,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7632,41 +7694,46 @@
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="59.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.109375"/>
-    <col min="11" max="11" width="16.33203125" style="85" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="85" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="111" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="111" customWidth="1"/>
+    <col min="12" max="12" width="18" style="111" customWidth="1"/>
+    <col min="13" max="13" width="9.109375"/>
+    <col min="14" max="14" width="8.88671875" style="82" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="79" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="82"/>
+      <c r="K1" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7696,13 +7763,20 @@
       <c r="I2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="90"/>
-      <c r="M2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="82"/>
+      <c r="K2" s="121" t="str">
+        <f>IF(Input!C18="","","\")</f>
+        <v/>
+      </c>
+      <c r="L2" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="N2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7732,10 +7806,20 @@
       <c r="I3" s="19">
         <v>2</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="82"/>
+      <c r="K3" s="114" t="str">
+        <f>IF(Input!C19="","","\")</f>
+        <v/>
+      </c>
+      <c r="L3" s="115" t="str">
+        <f>IF(E3="","",L$2)</f>
+        <v/>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -7765,10 +7849,17 @@
       <c r="I4" s="19">
         <v>2</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="82"/>
+      <c r="K4" s="114" t="str">
+        <f>IF(Input!C20="","","\")</f>
+        <v/>
+      </c>
+      <c r="L4" s="115" t="str">
+        <f t="shared" ref="L4:L31" si="0">IF(E4="","",L$2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -7798,12 +7889,19 @@
       <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="90"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="82"/>
+      <c r="K5" s="114" t="str">
+        <f>IF(Input!C21="","","\")</f>
+        <v/>
+      </c>
+      <c r="L5" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7815,7 +7913,7 @@
       <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="84" t="str">
+      <c r="E6" s="81" t="str">
         <f>IF(Input!C22="","",Input!C22 &amp;"_"&amp;Input!D22 &amp;"_"&amp;Input!E22&amp;"_"&amp;Input!H22&amp;"_rep"&amp;Input!F22&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -7834,11 +7932,18 @@
       <c r="I6" s="19">
         <v>2</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="90"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="114" t="str">
+        <f>IF(Input!C22="","","\")</f>
+        <v/>
+      </c>
+      <c r="L6" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -7868,10 +7973,17 @@
       <c r="I7" s="19">
         <v>2</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="90"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="82"/>
+      <c r="K7" s="114" t="str">
+        <f>IF(Input!C23="","","\")</f>
+        <v/>
+      </c>
+      <c r="L7" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
@@ -7901,10 +8013,17 @@
       <c r="I8" s="19">
         <v>2</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="90"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="82"/>
+      <c r="K8" s="114" t="str">
+        <f>IF(Input!C24="","","\")</f>
+        <v/>
+      </c>
+      <c r="L8" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -7934,12 +8053,20 @@
       <c r="I9" s="19">
         <v>2</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="90"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="82"/>
+      <c r="K9" s="114" t="str">
+        <f>IF(Input!C25="","","\")</f>
+        <v/>
+      </c>
+      <c r="L9" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" s="86"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -7970,12 +8097,19 @@
       <c r="I10" s="19">
         <v>2</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="90"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="82"/>
+      <c r="K10" s="114" t="str">
+        <f>IF(Input!C26="","","\")</f>
+        <v/>
+      </c>
+      <c r="L10" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -8006,10 +8140,17 @@
       <c r="I11" s="19">
         <v>2</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="90"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="82"/>
+      <c r="K11" s="114" t="str">
+        <f>IF(Input!C27="","","\")</f>
+        <v/>
+      </c>
+      <c r="L11" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>11</v>
       </c>
@@ -8020,7 +8161,7 @@
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="84" t="str">
+      <c r="E12" s="81" t="str">
         <f>IF(Input!C28="","",Input!C28 &amp;"_"&amp;Input!D28 &amp;"_"&amp;Input!E28&amp;"_"&amp;Input!H28&amp;"_rep"&amp;Input!F28&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8039,10 +8180,17 @@
       <c r="I12" s="19">
         <v>2</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="90"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="82"/>
+      <c r="K12" s="114" t="str">
+        <f>IF(Input!C28="","","\")</f>
+        <v/>
+      </c>
+      <c r="L12" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>12</v>
       </c>
@@ -8072,10 +8220,17 @@
       <c r="I13" s="19">
         <v>2</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="90"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="82"/>
+      <c r="K13" s="114" t="str">
+        <f>IF(Input!C29="","","\")</f>
+        <v/>
+      </c>
+      <c r="L13" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13</v>
       </c>
@@ -8105,10 +8260,17 @@
       <c r="I14" s="19">
         <v>2</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="90"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="82"/>
+      <c r="K14" s="114" t="str">
+        <f>IF(Input!C30="","","\")</f>
+        <v/>
+      </c>
+      <c r="L14" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>14</v>
       </c>
@@ -8138,10 +8300,17 @@
       <c r="I15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="90"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="82"/>
+      <c r="K15" s="114" t="str">
+        <f>IF(Input!C31="","","\")</f>
+        <v/>
+      </c>
+      <c r="L15" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>15</v>
       </c>
@@ -8171,10 +8340,17 @@
       <c r="I16" s="19">
         <v>2</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="90"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="82"/>
+      <c r="K16" s="114" t="str">
+        <f>IF(Input!C32="","","\")</f>
+        <v/>
+      </c>
+      <c r="L16" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -8204,10 +8380,17 @@
       <c r="I17" s="19">
         <v>2</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="90"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="82"/>
+      <c r="K17" s="114" t="str">
+        <f>IF(Input!C33="","","\")</f>
+        <v/>
+      </c>
+      <c r="L17" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -8218,7 +8401,7 @@
       <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="84" t="str">
+      <c r="E18" s="81" t="str">
         <f>IF(Input!C34="","",Input!C34 &amp;"_"&amp;Input!D34 &amp;"_"&amp;Input!E34&amp;"_"&amp;Input!H34&amp;"_rep"&amp;Input!F34&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8237,10 +8420,17 @@
       <c r="I18" s="19">
         <v>2</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="90"/>
-    </row>
-    <row r="19" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="82"/>
+      <c r="K18" s="114" t="str">
+        <f>IF(Input!C34="","","\")</f>
+        <v/>
+      </c>
+      <c r="L18" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -8270,10 +8460,17 @@
       <c r="I19" s="19">
         <v>2</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="90"/>
-    </row>
-    <row r="20" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="82"/>
+      <c r="K19" s="114" t="str">
+        <f>IF(Input!C35="","","\")</f>
+        <v/>
+      </c>
+      <c r="L19" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -8303,10 +8500,17 @@
       <c r="I20" s="19">
         <v>2</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="90"/>
-    </row>
-    <row r="21" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="82"/>
+      <c r="K20" s="114" t="str">
+        <f>IF(Input!C36="","","\")</f>
+        <v/>
+      </c>
+      <c r="L20" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -8336,10 +8540,17 @@
       <c r="I21" s="19">
         <v>2</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="90"/>
-    </row>
-    <row r="22" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="82"/>
+      <c r="K21" s="114" t="str">
+        <f>IF(Input!C37="","","\")</f>
+        <v/>
+      </c>
+      <c r="L21" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -8369,10 +8580,17 @@
       <c r="I22" s="19">
         <v>2</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="90"/>
-    </row>
-    <row r="23" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="82"/>
+      <c r="K22" s="114" t="str">
+        <f>IF(Input!C38="","","\")</f>
+        <v/>
+      </c>
+      <c r="L22" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -8402,10 +8620,17 @@
       <c r="I23" s="19">
         <v>2</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="90"/>
-    </row>
-    <row r="24" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="82"/>
+      <c r="K23" s="114" t="str">
+        <f>IF(Input!C39="","","\")</f>
+        <v/>
+      </c>
+      <c r="L23" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -8435,10 +8660,17 @@
       <c r="I24" s="19">
         <v>2</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="90"/>
-    </row>
-    <row r="25" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="82"/>
+      <c r="K24" s="114" t="str">
+        <f>IF(Input!C40="","","\")</f>
+        <v/>
+      </c>
+      <c r="L24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -8468,10 +8700,17 @@
       <c r="I25" s="19">
         <v>2</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="90"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="82"/>
+      <c r="K25" s="114" t="str">
+        <f>IF(Input!C41="","","\")</f>
+        <v/>
+      </c>
+      <c r="L25" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -8501,10 +8740,17 @@
       <c r="I26" s="19">
         <v>2</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="90"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="82"/>
+      <c r="K26" s="114" t="str">
+        <f>IF(Input!C42="","","\")</f>
+        <v/>
+      </c>
+      <c r="L26" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
@@ -8534,10 +8780,17 @@
       <c r="I27" s="19">
         <v>2</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="90"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="82"/>
+      <c r="K27" s="114" t="str">
+        <f>IF(Input!C43="","","\")</f>
+        <v/>
+      </c>
+      <c r="L27" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>27</v>
       </c>
@@ -8548,7 +8801,7 @@
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="84" t="str">
+      <c r="E28" s="81" t="str">
         <f>IF(Input!C44="","",Input!C44 &amp;"_"&amp;Input!D44 &amp;"_"&amp;Input!E44&amp;"_"&amp;Input!H44&amp;"_rep"&amp;Input!F44&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8567,11 +8820,18 @@
       <c r="I28" s="19">
         <v>2</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="90"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="82"/>
+      <c r="K28" s="114" t="str">
+        <f>IF(Input!C44="","","\")</f>
+        <v/>
+      </c>
+      <c r="L28" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>28</v>
       </c>
@@ -8601,10 +8861,17 @@
       <c r="I29" s="19">
         <v>2</v>
       </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="90"/>
-    </row>
-    <row r="30" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="82"/>
+      <c r="K29" s="114" t="str">
+        <f>IF(Input!C45="","","\")</f>
+        <v/>
+      </c>
+      <c r="L29" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>29</v>
       </c>
@@ -8634,10 +8901,17 @@
       <c r="I30" s="19">
         <v>2</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="90"/>
-    </row>
-    <row r="31" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="82"/>
+      <c r="K30" s="114" t="str">
+        <f>IF(Input!C46="","","\")</f>
+        <v/>
+      </c>
+      <c r="L30" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>30</v>
       </c>
@@ -8667,1430 +8941,1740 @@
       <c r="I31" s="24">
         <v>2</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="90"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J31" s="118"/>
+      <c r="K31" s="114" t="str">
+        <f>IF(Input!C47="","","\")</f>
+        <v/>
+      </c>
+      <c r="L31" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J32" s="82"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="116"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="89" t="s">
+      <c r="J33" s="82"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="L33" s="89" t="s">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
       </c>
       <c r="C34" s="9" t="str">
         <f>IF(INT(RIGHT($B$34,1))&lt;=Input!$J$10,INT(RIGHT($B$34,1))/10,"")</f>
         <v/>
       </c>
       <c r="D34" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="84" t="str">
+        <v>193</v>
+      </c>
+      <c r="E34" s="81" t="str">
         <f>IF(C34="","",Input!$J$5&amp;"_QC_prerun1")</f>
         <v/>
       </c>
-      <c r="F34" s="84" t="str">
-        <f t="shared" ref="F34:F66" si="0">IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
-        <v/>
-      </c>
-      <c r="G34" s="84" t="str">
+      <c r="F34" s="81" t="str">
+        <f>IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v/>
+      </c>
+      <c r="G34" s="81" t="str">
         <f>IF(C34="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H34" s="84" t="str">
+      <c r="H34" s="81" t="str">
         <f>IF(C34="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I34" s="20">
         <v>0.5</v>
       </c>
-      <c r="J34" s="85"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J34" s="82"/>
+      <c r="K34" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="116" t="str">
+        <f>IF(E34="","",L$2)</f>
+        <v/>
+      </c>
+      <c r="M34" s="82"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="9" t="str">
         <f>IF(INT(RIGHT($B$35,1))&lt;=Input!$J$10,INT(RIGHT($B$35,1))/10,"")</f>
         <v/>
       </c>
       <c r="D35" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="84" t="str">
+        <v>193</v>
+      </c>
+      <c r="E35" s="81" t="str">
         <f>IF(C35="","",Input!$J$5&amp;"_QC_prerun2")</f>
         <v/>
       </c>
-      <c r="F35" s="84" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="84" t="str">
+      <c r="F35" s="81" t="str">
+        <f>IF(C35="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v/>
+      </c>
+      <c r="G35" s="81" t="str">
         <f>IF(C35="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H35" s="84" t="str">
+      <c r="H35" s="81" t="str">
         <f>IF(C35="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I35" s="20">
         <v>0.5</v>
       </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J35" s="82"/>
+      <c r="K35" s="112" t="str">
+        <f>IF(E35="","",K$34)</f>
+        <v/>
+      </c>
+      <c r="L35" s="116" t="str">
+        <f t="shared" ref="L35:L65" si="1">IF(E35="","",L$2)</f>
+        <v/>
+      </c>
+      <c r="M35" s="82"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" s="9" t="str">
         <f>IF(INT(RIGHT($B$36,1))&lt;=Input!$J$10,INT(RIGHT($B$36,1))/10,"")</f>
         <v/>
       </c>
       <c r="D36" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="84" t="str">
+        <v>193</v>
+      </c>
+      <c r="E36" s="81" t="str">
         <f>IF(C36="","",Input!$J$5&amp;"_QC_prerun")</f>
         <v/>
       </c>
-      <c r="F36" s="84" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G36" s="84" t="str">
+      <c r="F36" s="81" t="str">
+        <f>IF(C36="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v/>
+      </c>
+      <c r="G36" s="81" t="str">
         <f>IF(C36="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H36" s="84" t="str">
+      <c r="H36" s="81" t="str">
         <f>IF(C36="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I36" s="20">
         <v>0.5</v>
       </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J36" s="82"/>
+      <c r="K36" s="112" t="str">
+        <f t="shared" ref="K36:K66" si="2">IF(E36="","",K$34)</f>
+        <v/>
+      </c>
+      <c r="L36" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" s="82"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1.4000000000000001</v>
       </c>
       <c r="C37" s="9" t="e">
-        <f>IF(AND($B$37-0.4&lt;=MAX($L$37:$L$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
+        <f>IF(AND($B$37-0.4&lt;=MAX($O$37:$O$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="84" t="e">
-        <f>IF(C37="","",Input!$J$5&amp;"_QC"&amp;$K$37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E37" s="81" t="e">
+        <f>IF(C37="","",Input!$J$5&amp;"_QC"&amp;$N$37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="81" t="e">
+        <f>IF(C37="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="81" t="e">
         <f>IF(C37="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="84" t="e">
+      <c r="H37" s="81" t="e">
         <f>IF(C37="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="20">
         <v>0.5</v>
       </c>
-      <c r="J37" t="e">
-        <f>IF(AND($B$37-0.4&lt;=MAX($L$37:$L$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="89">
+      <c r="J37" s="82"/>
+      <c r="K37" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="116" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" t="e">
+        <f>IF(AND($B$37-0.4&lt;=MAX($O$37:$O$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="86">
         <v>1</v>
       </c>
-      <c r="L37" s="89" t="str">
+      <c r="O37" s="86" t="str">
         <f>IF(Input!B18="","",Input!A18 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2.4000000000000004</v>
       </c>
       <c r="C38" s="9" t="e">
-        <f>IF(AND($B$38-0.4&lt;=MAX($L$37:$L$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
+        <f>IF(AND($B$38-0.4&lt;=MAX($O$37:$O$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="84" t="e">
-        <f>IF(C38="","",Input!$J$5&amp;"_QC"&amp;$K$38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E38" s="81" t="e">
+        <f>IF(C38="","",Input!$J$5&amp;"_QC"&amp;$N$38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="81" t="e">
+        <f>IF(C38="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="81" t="e">
         <f>IF(C38="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="84" t="e">
+      <c r="H38" s="81" t="e">
         <f>IF(C38="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="20">
         <v>0.5</v>
       </c>
-      <c r="J38" t="e">
-        <f>IF(AND($B$38-0.4&lt;=MAX($L$37:$L$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="89" t="e">
-        <f>IF(J37="",K37,K37+1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="89" t="str">
+      <c r="J38" s="82"/>
+      <c r="K38" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="116" t="e">
+        <f>IF(E38="","",L$2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" t="e">
+        <f>IF(AND($B$38-0.4&lt;=MAX($O$37:$O$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="86" t="e">
+        <f>IF(M37="",N37,N37+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="86" t="str">
         <f>IF(Input!B19="","",Input!A19 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3.4000000000000004</v>
       </c>
       <c r="C39" s="9" t="e">
-        <f>IF(AND($B$39-0.4&lt;=MAX($L$37:$L$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
+        <f>IF(AND($B$39-0.4&lt;=MAX($O$37:$O$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="84" t="e">
-        <f>IF(C39="","",Input!$J$5&amp;"_QC"&amp;$K$39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E39" s="81" t="e">
+        <f>IF(C39="","",Input!$J$5&amp;"_QC"&amp;$N$39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="81" t="e">
+        <f>IF(C39="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="81" t="e">
         <f>IF(C39="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="84" t="e">
+      <c r="H39" s="81" t="e">
         <f>IF(C39="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="20">
         <v>0.5</v>
       </c>
-      <c r="J39" t="e">
-        <f>IF(AND($B$39-0.4&lt;=MAX($L$37:$L$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="89" t="e">
-        <f>IF(J38="",K38,K38+1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="89" t="str">
+      <c r="J39" s="82"/>
+      <c r="K39" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="116" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" t="e">
+        <f>IF(AND($B$39-0.4&lt;=MAX($O$37:$O$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="86" t="e">
+        <f>IF(M38="",N38,N38+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="86" t="str">
         <f>IF(Input!B20="","",Input!A20 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>4.3999999999999995</v>
       </c>
       <c r="C40" s="9" t="e">
-        <f>IF(AND($B$40-0.4&lt;=MAX($L$37:$L$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
+        <f>IF(AND($B$40-0.4&lt;=MAX($O$37:$O$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="84" t="e">
-        <f>IF(C40="","",Input!$J$5&amp;"_QC"&amp;$K$40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E40" s="81" t="e">
+        <f>IF(C40="","",Input!$J$5&amp;"_QC"&amp;$N$40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="81" t="e">
+        <f>IF(C40="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="81" t="e">
         <f>IF(C40="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="84" t="e">
+      <c r="H40" s="81" t="e">
         <f>IF(C40="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="20">
         <v>0.5</v>
       </c>
-      <c r="J40" t="e">
-        <f>IF(AND($B$40-0.4&lt;=MAX($L$37:$L$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="89" t="e">
-        <f t="shared" ref="K40:K66" si="1">IF(J39="",K39,K39+1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="89" t="str">
+      <c r="J40" s="82"/>
+      <c r="K40" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="116" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
+        <f>IF(AND($B$40-0.4&lt;=MAX($O$37:$O$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="86" t="e">
+        <f>IF(M39="",N39,N39+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="86" t="str">
         <f>IF(Input!B21="","",Input!A21 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>5.3999999999999995</v>
       </c>
       <c r="C41" s="9" t="e">
-        <f>IF(AND($B$41-0.4&lt;=MAX($L$37:$L$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
+        <f>IF(AND($B$41-0.4&lt;=MAX($O$37:$O$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="84" t="e">
-        <f>IF(C41="","",Input!$J$5&amp;"_QC"&amp;$K$41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E41" s="81" t="e">
+        <f>IF(C41="","",Input!$J$5&amp;"_QC"&amp;$N$41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="81" t="e">
+        <f>IF(C41="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="81" t="e">
         <f>IF(C41="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="84" t="e">
+      <c r="H41" s="81" t="e">
         <f>IF(C41="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="20">
         <v>0.5</v>
       </c>
-      <c r="J41" t="e">
-        <f>IF(AND($B$41-0.4&lt;=MAX($L$37:$L$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="89" t="e">
+      <c r="J41" s="82"/>
+      <c r="K41" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="89" t="str">
+      <c r="M41" t="e">
+        <f>IF(AND($B$41-0.4&lt;=MAX($O$37:$O$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="86" t="e">
+        <f>IF(M40="",N40,N40+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="86" t="str">
         <f>IF(Input!B22="","",Input!A22 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>6.3999999999999995</v>
       </c>
       <c r="C42" s="9" t="e">
-        <f>IF(AND($B$42-0.4&lt;=MAX($L$37:$L$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
+        <f>IF(AND($B$42-0.4&lt;=MAX($O$37:$O$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="84" t="e">
-        <f>IF(C42="","",Input!$J$5&amp;"_QC"&amp;$K$42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E42" s="81" t="e">
+        <f>IF(C42="","",Input!$J$5&amp;"_QC"&amp;$N$42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="81" t="e">
+        <f>IF(C42="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="81" t="e">
         <f>IF(C42="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="84" t="e">
+      <c r="H42" s="81" t="e">
         <f>IF(C42="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="20">
         <v>0.5</v>
       </c>
-      <c r="J42" t="e">
-        <f>IF(AND($B$42-0.4&lt;=MAX($L$37:$L$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="89" t="e">
+      <c r="J42" s="82"/>
+      <c r="K42" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="89" t="str">
+      <c r="M42" t="e">
+        <f>IF(AND($B$42-0.4&lt;=MAX($O$37:$O$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="86" t="e">
+        <f>IF(M41="",N41,N41+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="86" t="str">
         <f>IF(Input!B23="","",Input!A23 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>7.3999999999999995</v>
       </c>
       <c r="C43" s="9" t="e">
-        <f>IF(AND($B$43-0.4&lt;=MAX($L$37:$L$66),($B$43-0.4)/Input!$J$11=INT(($B43-0.4)/Input!$J$11)),$B$43,"")</f>
+        <f>IF(AND($B$43-0.4&lt;=MAX($O$37:$O$66),($B$43-0.4)/Input!$J$11=INT(($B43-0.4)/Input!$J$11)),$B$43,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="84" t="e">
-        <f>IF(C43="","",Input!$J$5&amp;"_QC"&amp;$K$43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E43" s="81" t="e">
+        <f>IF(C43="","",Input!$J$5&amp;"_QC"&amp;$N$43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="81" t="e">
+        <f>IF(C43="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="81" t="e">
         <f>IF(C43="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="84" t="e">
+      <c r="H43" s="81" t="e">
         <f>IF(C43="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="20">
         <v>0.5</v>
       </c>
-      <c r="J43" t="e">
-        <f>IF(AND($B$43-0.4&lt;=MAX($L$37:$L$66),($B$43-0.4)/Input!$J$11=INT(($B$43-0.4)/Input!$J$11)),$B$43,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="89" t="e">
+      <c r="J43" s="82"/>
+      <c r="K43" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L43" s="89" t="str">
+      <c r="M43" t="e">
+        <f>IF(AND($B$43-0.4&lt;=MAX($O$37:$O$66),($B$43-0.4)/Input!$J$11=INT(($B$43-0.4)/Input!$J$11)),$B$43,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="86" t="e">
+        <f>IF(M42="",N42,N42+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="86" t="str">
         <f>IF(Input!B24="","",Input!A24 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>8.3999999999999986</v>
       </c>
       <c r="C44" s="9" t="e">
-        <f>IF(AND($B$44-0.4&lt;=MAX($L$37:$L$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
+        <f>IF(AND($B$44-0.4&lt;=MAX($O$37:$O$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="84" t="e">
-        <f>IF(C44="","",Input!$J$5&amp;"_QC"&amp;$K$44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E44" s="81" t="e">
+        <f>IF(C44="","",Input!$J$5&amp;"_QC"&amp;$N$44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="81" t="e">
+        <f>IF(C44="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="81" t="e">
         <f>IF(C44="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="84" t="e">
+      <c r="H44" s="81" t="e">
         <f>IF(C44="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="20">
         <v>0.5</v>
       </c>
-      <c r="J44" t="e">
-        <f>IF(AND($B$44-0.4&lt;=MAX($L$37:$L$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="89" t="e">
+      <c r="J44" s="82"/>
+      <c r="K44" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="89" t="str">
+      <c r="M44" t="e">
+        <f>IF(AND($B$44-0.4&lt;=MAX($O$37:$O$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="86" t="e">
+        <f>IF(M43="",N43,N43+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="86" t="str">
         <f>IF(Input!B25="","",Input!A25 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>9.3999999999999986</v>
       </c>
       <c r="C45" s="9" t="e">
-        <f>IF(AND($B$45-0.4&lt;=MAX($L$37:$L$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
+        <f>IF(AND($B$45-0.4&lt;=MAX($O$37:$O$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="84" t="e">
-        <f>IF(C45="","",Input!$J$5&amp;"_QC"&amp;$K$45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E45" s="81" t="e">
+        <f>IF(C45="","",Input!$J$5&amp;"_QC"&amp;$N$45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="81" t="e">
+        <f>IF(C45="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="81" t="e">
         <f>IF(C45="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="84" t="e">
+      <c r="H45" s="81" t="e">
         <f>IF(C45="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="20">
         <v>0.5</v>
       </c>
-      <c r="J45" t="e">
-        <f>IF(AND($B$45-0.4&lt;=MAX($L$37:$L$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="89" t="e">
+      <c r="J45" s="82"/>
+      <c r="K45" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="89" t="str">
+      <c r="M45" t="e">
+        <f>IF(AND($B$45-0.4&lt;=MAX($O$37:$O$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="86" t="e">
+        <f>IF(M44="",N44,N44+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="86" t="str">
         <f>IF(Input!B26="","",Input!A26 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>10.399999999999999</v>
       </c>
       <c r="C46" s="9" t="e">
-        <f>IF(AND($B$46-0.4&lt;=MAX($L$37:$L$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
+        <f>IF(AND($B$46-0.4&lt;=MAX($O$37:$O$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="84" t="e">
-        <f>IF(C46="","",Input!$J$5&amp;"_QC"&amp;$K$46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E46" s="81" t="e">
+        <f>IF(C46="","",Input!$J$5&amp;"_QC"&amp;$N$46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="81" t="e">
+        <f>IF(C46="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="81" t="e">
         <f>IF(C46="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="84" t="e">
+      <c r="H46" s="81" t="e">
         <f>IF(C46="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="20">
         <v>0.5</v>
       </c>
-      <c r="J46" t="e">
-        <f>IF(AND($B$46-0.4&lt;=MAX($L$37:$L$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="89" t="e">
+      <c r="J46" s="82"/>
+      <c r="K46" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="89" t="str">
+      <c r="M46" t="e">
+        <f>IF(AND($B$46-0.4&lt;=MAX($O$37:$O$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="86" t="e">
+        <f>IF(M45="",N45,N45+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="86" t="str">
         <f>IF(Input!B27="","",Input!A27 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>11.399999999999999</v>
       </c>
       <c r="C47" s="9" t="e">
-        <f>IF(AND($B$47-0.4&lt;=MAX($L$37:$L$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
+        <f>IF(AND($B$47-0.4&lt;=MAX($O$37:$O$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="84" t="e">
-        <f>IF(C47="","",Input!$J$5&amp;"_QC"&amp;$K$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E47" s="81" t="e">
+        <f>IF(C47="","",Input!$J$5&amp;"_QC"&amp;$N$47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="81" t="e">
+        <f>IF(C47="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="81" t="e">
         <f>IF(C47="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="84" t="e">
+      <c r="H47" s="81" t="e">
         <f>IF(C47="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="20">
         <v>0.5</v>
       </c>
-      <c r="J47" t="e">
-        <f>IF(AND($B$47-0.4&lt;=MAX($L$37:$L$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="89" t="e">
+      <c r="J47" s="82"/>
+      <c r="K47" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="89" t="str">
+      <c r="M47" t="e">
+        <f>IF(AND($B$47-0.4&lt;=MAX($O$37:$O$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="86" t="e">
+        <f>IF(M46="",N46,N46+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="86" t="str">
         <f>IF(Input!B28="","",Input!A28 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>12.399999999999999</v>
       </c>
       <c r="C48" s="9" t="e">
-        <f>IF(AND($B$48-0.4&lt;=MAX($L$37:$L$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
+        <f>IF(AND($B$48-0.4&lt;=MAX($O$37:$O$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="84" t="e">
-        <f>IF(C48="","",Input!$J$5&amp;"_QC"&amp;$K$48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E48" s="81" t="e">
+        <f>IF(C48="","",Input!$J$5&amp;"_QC"&amp;$N$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="81" t="e">
+        <f>IF(C48="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="81" t="e">
         <f>IF(C48="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="84" t="e">
+      <c r="H48" s="81" t="e">
         <f>IF(C48="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="20">
         <v>0.5</v>
       </c>
-      <c r="J48" t="e">
-        <f>IF(AND($B$48-0.4&lt;=MAX($L$37:$L$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="89" t="e">
+      <c r="J48" s="82"/>
+      <c r="K48" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="89" t="str">
+      <c r="M48" t="e">
+        <f>IF(AND($B$48-0.4&lt;=MAX($O$37:$O$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="86" t="e">
+        <f>IF(M47="",N47,N47+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="86" t="str">
         <f>IF(Input!B29="","",Input!A29 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>13.399999999999999</v>
       </c>
       <c r="C49" s="9" t="e">
-        <f>IF(AND($B$49-0.4&lt;=MAX($L$37:$L$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
+        <f>IF(AND($B$49-0.4&lt;=MAX($O$37:$O$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="84" t="e">
-        <f>IF(C49="","",Input!$J$5&amp;"_QC"&amp;$K$49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E49" s="81" t="e">
+        <f>IF(C49="","",Input!$J$5&amp;"_QC"&amp;$N$49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="81" t="e">
+        <f>IF(C49="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="81" t="e">
         <f>IF(C49="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="84" t="e">
+      <c r="H49" s="81" t="e">
         <f>IF(C49="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I49" s="20">
         <v>0.5</v>
       </c>
-      <c r="J49" t="e">
-        <f>IF(AND($B$49-0.4&lt;=MAX($L$37:$L$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="89" t="e">
+      <c r="J49" s="82"/>
+      <c r="K49" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="89" t="str">
+      <c r="M49" t="e">
+        <f>IF(AND($B$49-0.4&lt;=MAX($O$37:$O$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="86" t="e">
+        <f>IF(M48="",N48,N48+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" s="86" t="str">
         <f>IF(Input!B30="","",Input!A30 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>14.399999999999999</v>
       </c>
       <c r="C50" s="9" t="e">
-        <f>IF(AND($B$50-0.4&lt;=MAX($L$37:$L$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
+        <f>IF(AND($B$50-0.4&lt;=MAX($O$37:$O$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="84" t="e">
-        <f>IF(C50="","",Input!$J$5&amp;"_QC"&amp;$K$50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E50" s="81" t="e">
+        <f>IF(C50="","",Input!$J$5&amp;"_QC"&amp;$N$50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="81" t="e">
+        <f>IF(C50="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="81" t="e">
         <f>IF(C50="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="84" t="e">
+      <c r="H50" s="81" t="e">
         <f>IF(C50="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I50" s="20">
         <v>0.5</v>
       </c>
-      <c r="J50" t="e">
-        <f>IF(AND($B$50-0.4&lt;=MAX($L$37:$L$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="89" t="e">
+      <c r="J50" s="82"/>
+      <c r="K50" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="89" t="str">
+      <c r="M50" t="e">
+        <f>IF(AND($B$50-0.4&lt;=MAX($O$37:$O$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="86" t="e">
+        <f>IF(M49="",N49,N49+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="86" t="str">
         <f>IF(Input!B31="","",Input!A31 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>15.399999999999999</v>
       </c>
       <c r="C51" s="9" t="e">
-        <f>IF(AND($B$51-0.4&lt;=MAX($L$37:$L$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
+        <f>IF(AND($B$51-0.4&lt;=MAX($O$37:$O$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="84" t="e">
-        <f>IF(C51="","",Input!$J$5&amp;"_QC"&amp;$K$51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E51" s="81" t="e">
+        <f>IF(C51="","",Input!$J$5&amp;"_QC"&amp;$N$51)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="81" t="e">
+        <f>IF(C51="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="81" t="e">
         <f>IF(C51="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="84" t="e">
+      <c r="H51" s="81" t="e">
         <f>IF(C51="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I51" s="20">
         <v>0.5</v>
       </c>
-      <c r="J51" t="e">
-        <f>IF(AND($B$51-0.4&lt;=MAX($L$37:$L$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="89" t="e">
+      <c r="J51" s="82"/>
+      <c r="K51" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="89" t="str">
+      <c r="M51" t="e">
+        <f>IF(AND($B$51-0.4&lt;=MAX($O$37:$O$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="86" t="e">
+        <f>IF(M50="",N50,N50+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="86" t="str">
         <f>IF(Input!B32="","",Input!A32 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>16.400000000000002</v>
       </c>
       <c r="C52" s="9" t="e">
-        <f>IF(AND($B$52-0.4&lt;=MAX($L$37:$L$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
+        <f>IF(AND($B$52-0.4&lt;=MAX($O$37:$O$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="84" t="e">
-        <f>IF(C52="","",Input!$J$5&amp;"_QC"&amp;$K$52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E52" s="81" t="e">
+        <f>IF(C52="","",Input!$J$5&amp;"_QC"&amp;$N$52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="81" t="e">
+        <f>IF(C52="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="81" t="e">
         <f>IF(C52="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="84" t="e">
+      <c r="H52" s="81" t="e">
         <f>IF(C52="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="20">
         <v>0.5</v>
       </c>
-      <c r="J52" t="e">
-        <f>IF(AND($B$52-0.4&lt;=MAX($L$37:$L$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="89" t="e">
+      <c r="J52" s="82"/>
+      <c r="K52" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="89" t="str">
+      <c r="M52" t="e">
+        <f>IF(AND($B$52-0.4&lt;=MAX($O$37:$O$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N52" s="86" t="e">
+        <f>IF(M51="",N51,N51+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="86" t="str">
         <f>IF(Input!B33="","",Input!A33 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>17.400000000000002</v>
       </c>
       <c r="C53" s="9" t="e">
-        <f>IF(AND($B$53-0.4&lt;=MAX($L$37:$L$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
+        <f>IF(AND($B$53-0.4&lt;=MAX($O$37:$O$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="84" t="e">
-        <f>IF(C53="","",Input!$J$5&amp;"_QC"&amp;$K$53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E53" s="81" t="e">
+        <f>IF(C53="","",Input!$J$5&amp;"_QC"&amp;$N$53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="81" t="e">
+        <f>IF(C53="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="81" t="e">
         <f>IF(C53="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="84" t="e">
+      <c r="H53" s="81" t="e">
         <f>IF(C53="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="20">
         <v>0.5</v>
       </c>
-      <c r="J53" t="e">
-        <f>IF(AND($B$53-0.4&lt;=MAX($L$37:$L$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="89" t="e">
+      <c r="J53" s="82"/>
+      <c r="K53" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="89" t="str">
+      <c r="M53" t="e">
+        <f>IF(AND($B$53-0.4&lt;=MAX($O$37:$O$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" s="86" t="e">
+        <f>IF(M52="",N52,N52+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="86" t="str">
         <f>IF(Input!B34="","",Input!A34 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>18.399999999999999</v>
       </c>
       <c r="C54" s="9" t="e">
-        <f>IF(AND($B$54-0.4&lt;=MAX($L$37:$L$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
+        <f>IF(AND($B$54-0.4&lt;=MAX($O$37:$O$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="84" t="e">
-        <f>IF(C54="","",Input!$J$5&amp;"_QC"&amp;$K$54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E54" s="81" t="e">
+        <f>IF(C54="","",Input!$J$5&amp;"_QC"&amp;$N$54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="81" t="e">
+        <f>IF(C54="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="81" t="e">
         <f>IF(C54="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="84" t="e">
+      <c r="H54" s="81" t="e">
         <f>IF(C54="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="20">
         <v>0.5</v>
       </c>
-      <c r="J54" t="e">
-        <f>IF(AND($B$54-0.4&lt;=MAX($L$37:$L$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K54" s="89" t="e">
+      <c r="J54" s="82"/>
+      <c r="K54" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="89" t="str">
+      <c r="M54" t="e">
+        <f>IF(AND($B$54-0.4&lt;=MAX($O$37:$O$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N54" s="86" t="e">
+        <f>IF(M53="",N53,N53+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="86" t="str">
         <f>IF(Input!B35="","",Input!A35 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>19.399999999999999</v>
       </c>
       <c r="C55" s="9" t="e">
-        <f>IF(AND($B$55-0.4&lt;=MAX($L$37:$L$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
+        <f>IF(AND($B$55-0.4&lt;=MAX($O$37:$O$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="84" t="e">
-        <f>IF(C55="","",Input!$J$5&amp;"_QC"&amp;$K$55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G55" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E55" s="81" t="e">
+        <f>IF(C55="","",Input!$J$5&amp;"_QC"&amp;$N$55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="81" t="e">
+        <f>IF(C55="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="81" t="e">
         <f>IF(C55="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="84" t="e">
+      <c r="H55" s="81" t="e">
         <f>IF(C55="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="20">
         <v>0.5</v>
       </c>
-      <c r="J55" t="e">
-        <f>IF(AND($B$55-0.4&lt;=MAX($L$37:$L$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="89" t="e">
+      <c r="J55" s="82"/>
+      <c r="K55" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="89" t="str">
+      <c r="M55" t="e">
+        <f>IF(AND($B$55-0.4&lt;=MAX($O$37:$O$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N55" s="86" t="e">
+        <f>IF(M54="",N54,N54+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="86" t="str">
         <f>IF(Input!B36="","",Input!A36 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>20.399999999999999</v>
       </c>
       <c r="C56" s="9" t="e">
-        <f>IF(AND($B$56-0.4&lt;=MAX($L$37:$L$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
+        <f>IF(AND($B$56-0.4&lt;=MAX($O$37:$O$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="84" t="e">
-        <f>IF(C56="","",Input!$J$5&amp;"_QC"&amp;$K$56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E56" s="81" t="e">
+        <f>IF(C56="","",Input!$J$5&amp;"_QC"&amp;$N$56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" s="81" t="e">
+        <f>IF(C56="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="81" t="e">
         <f>IF(C56="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="84" t="e">
+      <c r="H56" s="81" t="e">
         <f>IF(C56="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="20">
         <v>0.5</v>
       </c>
-      <c r="J56" t="e">
-        <f>IF(AND($B$56-0.4&lt;=MAX($L$37:$L$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" s="89" t="e">
+      <c r="J56" s="82"/>
+      <c r="K56" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="89" t="str">
+      <c r="M56" t="e">
+        <f>IF(AND($B$56-0.4&lt;=MAX($O$37:$O$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="86" t="e">
+        <f>IF(M55="",N55,N55+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="86" t="str">
         <f>IF(Input!B37="","",Input!A37 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>21.4</v>
       </c>
       <c r="C57" s="9" t="e">
-        <f>IF(AND($B$57-0.4&lt;=MAX($L$37:$L$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
+        <f>IF(AND($B$57-0.4&lt;=MAX($O$37:$O$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="84" t="e">
-        <f>IF(C57="","",Input!$J$5&amp;"_QC"&amp;$K$57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E57" s="81" t="e">
+        <f>IF(C57="","",Input!$J$5&amp;"_QC"&amp;$N$57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="81" t="e">
+        <f>IF(C57="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="81" t="e">
         <f>IF(C57="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="84" t="e">
+      <c r="H57" s="81" t="e">
         <f>IF(C57="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="20">
         <v>0.5</v>
       </c>
-      <c r="J57" t="e">
-        <f>IF(AND($B$57-0.4&lt;=MAX($L$37:$L$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="89" t="e">
+      <c r="J57" s="82"/>
+      <c r="K57" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L57" s="89" t="str">
+      <c r="M57" t="e">
+        <f>IF(AND($B$57-0.4&lt;=MAX($O$37:$O$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="86" t="e">
+        <f>IF(M56="",N56,N56+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="86" t="str">
         <f>IF(Input!B38="","",Input!A38 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>22.4</v>
       </c>
       <c r="C58" s="9" t="e">
-        <f>IF(AND($B$58-0.4&lt;=MAX($L$37:$L$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
+        <f>IF(AND($B$58-0.4&lt;=MAX($O$37:$O$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="84" t="e">
-        <f>IF(C58="","",Input!$J$5&amp;"_QC"&amp;$K$58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E58" s="81" t="e">
+        <f>IF(C58="","",Input!$J$5&amp;"_QC"&amp;$N$58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="81" t="e">
+        <f>IF(C58="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="81" t="e">
         <f>IF(C58="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="84" t="e">
+      <c r="H58" s="81" t="e">
         <f>IF(C58="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="20">
         <v>0.5</v>
       </c>
-      <c r="J58" t="e">
-        <f>IF(AND($B$58-0.4&lt;=MAX($L$37:$L$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="89" t="e">
+      <c r="J58" s="82"/>
+      <c r="K58" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L58" s="89" t="str">
+      <c r="M58" t="e">
+        <f>IF(AND($B$58-0.4&lt;=MAX($O$37:$O$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="86" t="e">
+        <f>IF(M57="",N57,N57+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="86" t="str">
         <f>IF(Input!B39="","",Input!A39 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>23.4</v>
       </c>
       <c r="C59" s="9" t="e">
-        <f>IF(AND($B$59-0.4&lt;=MAX($L$37:$L$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
+        <f>IF(AND($B$59-0.4&lt;=MAX($O$37:$O$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="84" t="e">
-        <f>IF(C59="","",Input!$J$5&amp;"_QC"&amp;$K$59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G59" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E59" s="81" t="e">
+        <f>IF(C59="","",Input!$J$5&amp;"_QC"&amp;$N$59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F59" s="81" t="e">
+        <f>IF(C59="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="81" t="e">
         <f>IF(C59="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="84" t="e">
+      <c r="H59" s="81" t="e">
         <f>IF(C59="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I59" s="20">
         <v>0.5</v>
       </c>
-      <c r="J59" t="e">
-        <f>IF(AND($B$59-0.4&lt;=MAX($L$37:$L$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="89" t="e">
+      <c r="J59" s="82"/>
+      <c r="K59" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L59" s="89" t="str">
+      <c r="M59" t="e">
+        <f>IF(AND($B$59-0.4&lt;=MAX($O$37:$O$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="86" t="e">
+        <f>IF(M58="",N58,N58+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="86" t="str">
         <f>IF(Input!B40="","",Input!A40 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>24.4</v>
       </c>
       <c r="C60" s="9" t="e">
-        <f>IF(AND($B$60-0.4&lt;=MAX($L$37:$L$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
+        <f>IF(AND($B$60-0.4&lt;=MAX($O$37:$O$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="84" t="e">
-        <f>IF(C60="","",Input!$J$5&amp;"_QC"&amp;$K$60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E60" s="81" t="e">
+        <f>IF(C60="","",Input!$J$5&amp;"_QC"&amp;$N$60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F60" s="81" t="e">
+        <f>IF(C60="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="81" t="e">
         <f>IF(C60="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="84" t="e">
+      <c r="H60" s="81" t="e">
         <f>IF(C60="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" s="20">
         <v>0.5</v>
       </c>
-      <c r="J60" t="e">
-        <f>IF(AND($B$60-0.4&lt;=MAX($L$37:$L$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="89" t="e">
+      <c r="J60" s="82"/>
+      <c r="K60" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L60" s="89" t="str">
+      <c r="M60" t="e">
+        <f>IF(AND($B$60-0.4&lt;=MAX($O$37:$O$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="86" t="e">
+        <f>IF(M59="",N59,N59+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="86" t="str">
         <f>IF(Input!B41="","",Input!A41 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>25.4</v>
       </c>
       <c r="C61" s="9" t="e">
-        <f>IF(AND($B$61-0.4&lt;=MAX($L$37:$L$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
+        <f>IF(AND($B$61-0.4&lt;=MAX($O$37:$O$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="84" t="e">
-        <f>IF(C61="","",Input!$J$5&amp;"_QC"&amp;$K$61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G61" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E61" s="81" t="e">
+        <f>IF(C61="","",Input!$J$5&amp;"_QC"&amp;$N$61)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F61" s="81" t="e">
+        <f>IF(C61="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="81" t="e">
         <f>IF(C61="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="84" t="e">
+      <c r="H61" s="81" t="e">
         <f>IF(C61="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="20">
         <v>0.5</v>
       </c>
-      <c r="J61" t="e">
-        <f>IF(AND($B$61-0.4&lt;=MAX($L$37:$L$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="89" t="e">
+      <c r="J61" s="82"/>
+      <c r="K61" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="89" t="str">
+      <c r="M61" t="e">
+        <f>IF(AND($B$61-0.4&lt;=MAX($O$37:$O$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="86" t="e">
+        <f>IF(M60="",N60,N60+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="86" t="str">
         <f>IF(Input!B42="","",Input!A42 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>26.4</v>
       </c>
       <c r="C62" s="9" t="e">
-        <f>IF(AND($B$62-0.4&lt;=MAX($L$37:$L$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
+        <f>IF(AND($B$62-0.4&lt;=MAX($O$37:$O$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="84" t="e">
-        <f>IF(C62="","",Input!$J$5&amp;"_QC"&amp;$K$62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E62" s="81" t="e">
+        <f>IF(C62="","",Input!$J$5&amp;"_QC"&amp;$N$62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F62" s="81" t="e">
+        <f>IF(C62="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62" s="81" t="e">
         <f>IF(C62="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="84" t="e">
+      <c r="H62" s="81" t="e">
         <f>IF(C62="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="20">
         <v>0.5</v>
       </c>
-      <c r="J62" t="e">
-        <f>IF(AND($B$62-0.4&lt;=MAX($L$37:$L$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="89" t="e">
+      <c r="J62" s="82"/>
+      <c r="K62" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L62" s="89" t="str">
+      <c r="M62" t="e">
+        <f>IF(AND($B$62-0.4&lt;=MAX($O$37:$O$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="86" t="e">
+        <f>IF(M61="",N61,N61+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="86" t="str">
         <f>IF(Input!B43="","",Input!A43 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>27.4</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f>IF(AND($B$63-0.4&lt;=MAX($L$37:$L$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
+        <f>IF(AND($B$63-0.4&lt;=MAX($O$37:$O$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="84" t="e">
-        <f>IF(C63="","",Input!$J$5&amp;"_QC"&amp;$K$63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E63" s="81" t="e">
+        <f>IF(C63="","",Input!$J$5&amp;"_QC"&amp;$N$63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="81" t="e">
+        <f>IF(C63="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="81" t="e">
         <f>IF(C63="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="84" t="e">
+      <c r="H63" s="81" t="e">
         <f>IF(C63="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I63" s="20">
         <v>0.5</v>
       </c>
-      <c r="J63" t="e">
-        <f>IF(AND($B$63-0.4&lt;=MAX($L$37:$L$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="89" t="e">
+      <c r="J63" s="82"/>
+      <c r="K63" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L63" s="89" t="str">
+      <c r="M63" t="e">
+        <f>IF(AND($B$63-0.4&lt;=MAX($O$37:$O$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N63" s="86" t="e">
+        <f>IF(M62="",N62,N62+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="86" t="str">
         <f>IF(Input!B44="","",Input!A44 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>28.4</v>
       </c>
       <c r="C64" s="9" t="e">
-        <f>IF(AND($B$64-0.4&lt;=MAX($L$37:$L$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B64,"")</f>
+        <f>IF(AND($B$64-0.4&lt;=MAX($O$37:$O$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B64,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="84" t="e">
-        <f>IF(C64="","",Input!$J$5&amp;"_QC"&amp;$K$64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E64" s="81" t="e">
+        <f>IF(C64="","",Input!$J$5&amp;"_QC"&amp;$N$64)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="81" t="e">
+        <f>IF(C64="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="81" t="e">
         <f>IF(C64="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="84" t="e">
+      <c r="H64" s="81" t="e">
         <f>IF(C64="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="20">
         <v>0.5</v>
       </c>
-      <c r="J64" t="e">
-        <f>IF(AND($B$64-0.4&lt;=MAX($L$37:$L$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B$64,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="89" t="e">
+      <c r="J64" s="82"/>
+      <c r="K64" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L64" s="89" t="str">
+      <c r="M64" t="e">
+        <f>IF(AND($B$64-0.4&lt;=MAX($O$37:$O$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B$64,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="86" t="e">
+        <f>IF(M63="",N63,N63+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="86" t="str">
         <f>IF(Input!B45="","",Input!A45 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>29.4</v>
       </c>
       <c r="C65" s="9" t="e">
-        <f>IF(AND($B$65-0.4&lt;=MAX($L$37:$L$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
+        <f>IF(AND($B$65-0.4&lt;=MAX($O$37:$O$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="84" t="e">
-        <f>IF(C65="","",Input!$J$5&amp;"_QC"&amp;$K$65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="84" t="e">
+        <v>193</v>
+      </c>
+      <c r="E65" s="81" t="e">
+        <f>IF(C65="","",Input!$J$5&amp;"_QC"&amp;$N$65)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="81" t="e">
+        <f>IF(C65="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="81" t="e">
         <f>IF(C65="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="84" t="e">
+      <c r="H65" s="81" t="e">
         <f>IF(C65="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I65" s="20">
         <v>0.5</v>
       </c>
-      <c r="J65" t="e">
-        <f>IF(AND($B$65-0.4&lt;=MAX($L$37:$L$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="89" t="e">
+      <c r="J65" s="82"/>
+      <c r="K65" s="112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L65" s="89" t="str">
+      <c r="M65" t="e">
+        <f>IF(AND($B$65-0.4&lt;=MAX($O$37:$O$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="86" t="e">
+        <f>IF(M64="",N64,N64+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="86" t="str">
         <f>IF(Input!B46="","",Input!A46 +1)</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>30.4</v>
       </c>
       <c r="C66" s="9" t="e">
-        <f>IF(AND($B$66-0.4&lt;=MAX($L$37:$L$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D66" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="87" t="e">
-        <f>IF(C66="","",Input!$J$5&amp;"_QC"&amp;$K$66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="87" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G66" s="87" t="e">
+        <f>IF(AND($B$66-0.4&lt;=MAX($O$37:$O$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D66" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="84" t="e">
+        <f>IF(C66="","",Input!$J$5&amp;"_QC"&amp;$N$66)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F66" s="84" t="e">
+        <f>IF(C66="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="84" t="e">
         <f>IF(C66="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="87" t="e">
+      <c r="H66" s="84" t="e">
         <f>IF(C66="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="88">
+      <c r="I66" s="85">
         <v>0.5</v>
       </c>
-      <c r="J66" t="e">
-        <f>IF(AND($B$66-0.4&lt;=MAX($L$37:$L$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="89" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L66" s="89" t="str">
+      <c r="J66" s="118"/>
+      <c r="K66" s="113" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="117" t="e">
+        <f>IF(E66="","",L$2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" t="e">
+        <f>IF(AND($B$66-0.4&lt;=MAX($O$37:$O$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="86" t="e">
+        <f>IF(M65="",N65,N65+1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="86" t="str">
         <f>IF(Input!B47="","",Input!A47 +1)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10312,32 +10896,32 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>C:\Xcalibur\methods\Standard_2_Hour_load10uL</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>C:\Xcalibur\methods\Flush_method_75min</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -10364,64 +10948,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
+      <c r="A1" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="A2" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
+      <c r="A4" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="A5" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="A6" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -10438,19 +11022,19 @@
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10469,10 +11053,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="59"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="4"/>
       <c r="H11" s="5"/>
     </row>
@@ -10480,10 +11064,10 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="59"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="4"/>
       <c r="H12" s="5"/>
     </row>
@@ -10491,10 +11075,10 @@
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="59"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="4"/>
       <c r="H13" s="5"/>
     </row>
@@ -10502,10 +11086,10 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="4"/>
       <c r="H14" s="5"/>
     </row>
@@ -10513,10 +11097,10 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="4"/>
       <c r="H15" s="5"/>
     </row>
@@ -10524,10 +11108,10 @@
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="4"/>
       <c r="H16" s="5"/>
     </row>
@@ -10535,10 +11119,10 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="59"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="4"/>
       <c r="H17" s="5"/>
     </row>
@@ -10546,10 +11130,10 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="4"/>
       <c r="H18" s="5"/>
     </row>
@@ -10557,10 +11141,10 @@
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="59"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="4"/>
       <c r="H19" s="5"/>
     </row>
@@ -10568,10 +11152,10 @@
       <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="4"/>
       <c r="H20" s="5"/>
     </row>
@@ -10579,10 +11163,10 @@
       <c r="A21" s="4">
         <v>11</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="59"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="4"/>
       <c r="H21" s="5"/>
     </row>
@@ -10590,10 +11174,10 @@
       <c r="A22" s="4">
         <v>12</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="59"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="4"/>
       <c r="H22" s="5"/>
     </row>
@@ -10601,10 +11185,10 @@
       <c r="A23" s="4">
         <v>13</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="4"/>
       <c r="H23" s="5"/>
     </row>
@@ -10612,10 +11196,10 @@
       <c r="A24" s="4">
         <v>14</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="4"/>
       <c r="H24" s="5"/>
     </row>
@@ -10623,10 +11207,10 @@
       <c r="A25" s="4">
         <v>15</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="59"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="4"/>
       <c r="H25" s="5"/>
     </row>
@@ -10634,10 +11218,10 @@
       <c r="A26" s="4">
         <v>16</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="59"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="4"/>
       <c r="H26" s="5"/>
     </row>
@@ -10645,10 +11229,10 @@
       <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="59"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="4"/>
       <c r="H27" s="5"/>
     </row>
@@ -10656,10 +11240,10 @@
       <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="59"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
     </row>
@@ -10667,10 +11251,10 @@
       <c r="A29" s="4">
         <v>19</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="59"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="4"/>
       <c r="H29" s="5"/>
     </row>
@@ -10678,10 +11262,10 @@
       <c r="A30" s="4">
         <v>20</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
     </row>
@@ -10689,10 +11273,10 @@
       <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
     </row>
@@ -10700,10 +11284,10 @@
       <c r="A32" s="4">
         <v>22</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
     </row>
@@ -10711,10 +11295,10 @@
       <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="59"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
     </row>
@@ -10722,10 +11306,10 @@
       <c r="A34" s="4">
         <v>24</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="59"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="4"/>
       <c r="H34" s="5"/>
     </row>
@@ -10733,10 +11317,10 @@
       <c r="A35" s="4">
         <v>25</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="59"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="4"/>
       <c r="H35" s="5"/>
     </row>
@@ -10744,10 +11328,10 @@
       <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="59"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="4"/>
       <c r="H36" s="5"/>
     </row>
@@ -10755,10 +11339,10 @@
       <c r="A37" s="4">
         <v>27</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="59"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="4"/>
       <c r="H37" s="5"/>
     </row>
@@ -10766,10 +11350,10 @@
       <c r="A38" s="4">
         <v>28</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="59"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="4"/>
       <c r="H38" s="5"/>
     </row>
@@ -10777,10 +11361,10 @@
       <c r="A39" s="4">
         <v>29</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="59"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="4"/>
       <c r="H39" s="5"/>
     </row>
@@ -10788,10 +11372,10 @@
       <c r="A40" s="4">
         <v>30</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="59"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="4"/>
       <c r="H40" s="5"/>
     </row>

--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687155D-B018-40BC-8201-8AB58207DBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA14121-2878-49E0-87BA-8E15527C321C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4668" yWindow="756" windowWidth="17388" windowHeight="9636" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Instructions" sheetId="5" r:id="rId1"/>
@@ -1538,6 +1538,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1601,18 +1613,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,230 +1957,230 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
@@ -2205,17 +2205,17 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2644,11 +2644,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A6:J6"/>
@@ -2662,6 +2657,11 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3036,7 +3036,7 @@
   <dimension ref="A1:O1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,16 +3053,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="26" t="s">
         <v>81</v>
       </c>
@@ -3071,116 +3071,116 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="70" t="s">
         <v>104</v>
       </c>
       <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="66" t="s">
         <v>105</v>
       </c>
       <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
       <c r="I5" s="72" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
       <c r="I6" s="68" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="54" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="29" t="s">
         <v>5</v>
       </c>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="87" t="str">
-        <f t="shared" ref="C19:C47" si="0">IF(OR(D20="",$C$2=""), "", $C$2)</f>
+        <f t="shared" ref="C20:C47" si="0">IF(OR(D20="",$C$2=""), "", $C$2)</f>
         <v/>
       </c>
       <c r="D20" s="58"/>
@@ -7683,7 +7683,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7695,9 +7695,9 @@
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="59.44140625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="111" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="111" customWidth="1"/>
-    <col min="12" max="12" width="18" style="111" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="90" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="90" customWidth="1"/>
+    <col min="12" max="12" width="18" style="90" customWidth="1"/>
     <col min="13" max="13" width="9.109375"/>
     <col min="14" max="14" width="8.88671875" style="82" customWidth="1"/>
     <col min="15" max="15" width="14.21875" style="82" customWidth="1"/>
@@ -7726,10 +7726,10 @@
         <v>52</v>
       </c>
       <c r="J1" s="82"/>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="L1" s="99" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7764,11 +7764,11 @@
         <v>2</v>
       </c>
       <c r="J2" s="82"/>
-      <c r="K2" s="121" t="str">
+      <c r="K2" s="100" t="str">
         <f>IF(Input!C18="","","\")</f>
         <v/>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="L2" s="101" t="s">
         <v>200</v>
       </c>
       <c r="N2" t="s">
@@ -7807,11 +7807,11 @@
         <v>2</v>
       </c>
       <c r="J3" s="82"/>
-      <c r="K3" s="114" t="str">
+      <c r="K3" s="93" t="str">
         <f>IF(Input!C19="","","\")</f>
         <v/>
       </c>
-      <c r="L3" s="115" t="str">
+      <c r="L3" s="94" t="str">
         <f>IF(E3="","",L$2)</f>
         <v/>
       </c>
@@ -7850,11 +7850,11 @@
         <v>2</v>
       </c>
       <c r="J4" s="82"/>
-      <c r="K4" s="114" t="str">
+      <c r="K4" s="93" t="str">
         <f>IF(Input!C20="","","\")</f>
         <v/>
       </c>
-      <c r="L4" s="115" t="str">
+      <c r="L4" s="94" t="str">
         <f t="shared" ref="L4:L31" si="0">IF(E4="","",L$2)</f>
         <v/>
       </c>
@@ -7890,11 +7890,11 @@
         <v>2</v>
       </c>
       <c r="J5" s="82"/>
-      <c r="K5" s="114" t="str">
+      <c r="K5" s="93" t="str">
         <f>IF(Input!C21="","","\")</f>
         <v/>
       </c>
-      <c r="L5" s="115" t="str">
+      <c r="L5" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7933,11 +7933,11 @@
         <v>2</v>
       </c>
       <c r="J6" s="82"/>
-      <c r="K6" s="114" t="str">
+      <c r="K6" s="93" t="str">
         <f>IF(Input!C22="","","\")</f>
         <v/>
       </c>
-      <c r="L6" s="115" t="str">
+      <c r="L6" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7974,11 +7974,11 @@
         <v>2</v>
       </c>
       <c r="J7" s="82"/>
-      <c r="K7" s="114" t="str">
+      <c r="K7" s="93" t="str">
         <f>IF(Input!C23="","","\")</f>
         <v/>
       </c>
-      <c r="L7" s="115" t="str">
+      <c r="L7" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8014,11 +8014,11 @@
         <v>2</v>
       </c>
       <c r="J8" s="82"/>
-      <c r="K8" s="114" t="str">
+      <c r="K8" s="93" t="str">
         <f>IF(Input!C24="","","\")</f>
         <v/>
       </c>
-      <c r="L8" s="115" t="str">
+      <c r="L8" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8054,11 +8054,11 @@
         <v>2</v>
       </c>
       <c r="J9" s="82"/>
-      <c r="K9" s="114" t="str">
+      <c r="K9" s="93" t="str">
         <f>IF(Input!C25="","","\")</f>
         <v/>
       </c>
-      <c r="L9" s="115" t="str">
+      <c r="L9" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8098,11 +8098,11 @@
         <v>2</v>
       </c>
       <c r="J10" s="82"/>
-      <c r="K10" s="114" t="str">
+      <c r="K10" s="93" t="str">
         <f>IF(Input!C26="","","\")</f>
         <v/>
       </c>
-      <c r="L10" s="115" t="str">
+      <c r="L10" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8141,11 +8141,11 @@
         <v>2</v>
       </c>
       <c r="J11" s="82"/>
-      <c r="K11" s="114" t="str">
+      <c r="K11" s="93" t="str">
         <f>IF(Input!C27="","","\")</f>
         <v/>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8181,11 +8181,11 @@
         <v>2</v>
       </c>
       <c r="J12" s="82"/>
-      <c r="K12" s="114" t="str">
+      <c r="K12" s="93" t="str">
         <f>IF(Input!C28="","","\")</f>
         <v/>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8221,11 +8221,11 @@
         <v>2</v>
       </c>
       <c r="J13" s="82"/>
-      <c r="K13" s="114" t="str">
+      <c r="K13" s="93" t="str">
         <f>IF(Input!C29="","","\")</f>
         <v/>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8261,11 +8261,11 @@
         <v>2</v>
       </c>
       <c r="J14" s="82"/>
-      <c r="K14" s="114" t="str">
+      <c r="K14" s="93" t="str">
         <f>IF(Input!C30="","","\")</f>
         <v/>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8301,11 +8301,11 @@
         <v>2</v>
       </c>
       <c r="J15" s="82"/>
-      <c r="K15" s="114" t="str">
+      <c r="K15" s="93" t="str">
         <f>IF(Input!C31="","","\")</f>
         <v/>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8341,11 +8341,11 @@
         <v>2</v>
       </c>
       <c r="J16" s="82"/>
-      <c r="K16" s="114" t="str">
+      <c r="K16" s="93" t="str">
         <f>IF(Input!C32="","","\")</f>
         <v/>
       </c>
-      <c r="L16" s="115" t="str">
+      <c r="L16" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8381,11 +8381,11 @@
         <v>2</v>
       </c>
       <c r="J17" s="82"/>
-      <c r="K17" s="114" t="str">
+      <c r="K17" s="93" t="str">
         <f>IF(Input!C33="","","\")</f>
         <v/>
       </c>
-      <c r="L17" s="115" t="str">
+      <c r="L17" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8421,11 +8421,11 @@
         <v>2</v>
       </c>
       <c r="J18" s="82"/>
-      <c r="K18" s="114" t="str">
+      <c r="K18" s="93" t="str">
         <f>IF(Input!C34="","","\")</f>
         <v/>
       </c>
-      <c r="L18" s="115" t="str">
+      <c r="L18" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8461,11 +8461,11 @@
         <v>2</v>
       </c>
       <c r="J19" s="82"/>
-      <c r="K19" s="114" t="str">
+      <c r="K19" s="93" t="str">
         <f>IF(Input!C35="","","\")</f>
         <v/>
       </c>
-      <c r="L19" s="115" t="str">
+      <c r="L19" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8501,11 +8501,11 @@
         <v>2</v>
       </c>
       <c r="J20" s="82"/>
-      <c r="K20" s="114" t="str">
+      <c r="K20" s="93" t="str">
         <f>IF(Input!C36="","","\")</f>
         <v/>
       </c>
-      <c r="L20" s="115" t="str">
+      <c r="L20" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8541,11 +8541,11 @@
         <v>2</v>
       </c>
       <c r="J21" s="82"/>
-      <c r="K21" s="114" t="str">
+      <c r="K21" s="93" t="str">
         <f>IF(Input!C37="","","\")</f>
         <v/>
       </c>
-      <c r="L21" s="115" t="str">
+      <c r="L21" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8581,11 +8581,11 @@
         <v>2</v>
       </c>
       <c r="J22" s="82"/>
-      <c r="K22" s="114" t="str">
+      <c r="K22" s="93" t="str">
         <f>IF(Input!C38="","","\")</f>
         <v/>
       </c>
-      <c r="L22" s="115" t="str">
+      <c r="L22" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8621,11 +8621,11 @@
         <v>2</v>
       </c>
       <c r="J23" s="82"/>
-      <c r="K23" s="114" t="str">
+      <c r="K23" s="93" t="str">
         <f>IF(Input!C39="","","\")</f>
         <v/>
       </c>
-      <c r="L23" s="115" t="str">
+      <c r="L23" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8661,11 +8661,11 @@
         <v>2</v>
       </c>
       <c r="J24" s="82"/>
-      <c r="K24" s="114" t="str">
+      <c r="K24" s="93" t="str">
         <f>IF(Input!C40="","","\")</f>
         <v/>
       </c>
-      <c r="L24" s="115" t="str">
+      <c r="L24" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8701,11 +8701,11 @@
         <v>2</v>
       </c>
       <c r="J25" s="82"/>
-      <c r="K25" s="114" t="str">
+      <c r="K25" s="93" t="str">
         <f>IF(Input!C41="","","\")</f>
         <v/>
       </c>
-      <c r="L25" s="115" t="str">
+      <c r="L25" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8741,11 +8741,11 @@
         <v>2</v>
       </c>
       <c r="J26" s="82"/>
-      <c r="K26" s="114" t="str">
+      <c r="K26" s="93" t="str">
         <f>IF(Input!C42="","","\")</f>
         <v/>
       </c>
-      <c r="L26" s="115" t="str">
+      <c r="L26" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8781,11 +8781,11 @@
         <v>2</v>
       </c>
       <c r="J27" s="82"/>
-      <c r="K27" s="114" t="str">
+      <c r="K27" s="93" t="str">
         <f>IF(Input!C43="","","\")</f>
         <v/>
       </c>
-      <c r="L27" s="115" t="str">
+      <c r="L27" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8821,11 +8821,11 @@
         <v>2</v>
       </c>
       <c r="J28" s="82"/>
-      <c r="K28" s="114" t="str">
+      <c r="K28" s="93" t="str">
         <f>IF(Input!C44="","","\")</f>
         <v/>
       </c>
-      <c r="L28" s="115" t="str">
+      <c r="L28" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8862,11 +8862,11 @@
         <v>2</v>
       </c>
       <c r="J29" s="82"/>
-      <c r="K29" s="114" t="str">
+      <c r="K29" s="93" t="str">
         <f>IF(Input!C45="","","\")</f>
         <v/>
       </c>
-      <c r="L29" s="115" t="str">
+      <c r="L29" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8902,11 +8902,11 @@
         <v>2</v>
       </c>
       <c r="J30" s="82"/>
-      <c r="K30" s="114" t="str">
+      <c r="K30" s="93" t="str">
         <f>IF(Input!C46="","","\")</f>
         <v/>
       </c>
-      <c r="L30" s="115" t="str">
+      <c r="L30" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8941,12 +8941,12 @@
       <c r="I31" s="24">
         <v>2</v>
       </c>
-      <c r="J31" s="118"/>
-      <c r="K31" s="114" t="str">
+      <c r="J31" s="97"/>
+      <c r="K31" s="93" t="str">
         <f>IF(Input!C47="","","\")</f>
         <v/>
       </c>
-      <c r="L31" s="115" t="str">
+      <c r="L31" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8960,8 +8960,8 @@
       <c r="H32" s="81"/>
       <c r="I32" s="20"/>
       <c r="J32" s="82"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="116"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="95"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
@@ -8972,8 +8972,8 @@
       <c r="H33" s="81"/>
       <c r="I33" s="20"/>
       <c r="J33" s="82"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="116"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="95"/>
       <c r="M33" s="82"/>
       <c r="N33" s="86" t="s">
         <v>191</v>
@@ -9001,7 +9001,7 @@
         <v/>
       </c>
       <c r="F34" s="81" t="str">
-        <f>IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" ref="F34:F66" si="1">IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
         <v/>
       </c>
       <c r="G34" s="81" t="str">
@@ -9016,10 +9016,10 @@
         <v>0.5</v>
       </c>
       <c r="J34" s="82"/>
-      <c r="K34" s="112" t="s">
+      <c r="K34" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="L34" s="116" t="str">
+      <c r="L34" s="95" t="str">
         <f>IF(E34="","",L$2)</f>
         <v/>
       </c>
@@ -9043,7 +9043,7 @@
         <v/>
       </c>
       <c r="F35" s="81" t="str">
-        <f>IF(C35="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G35" s="81" t="str">
@@ -9058,12 +9058,12 @@
         <v>0.5</v>
       </c>
       <c r="J35" s="82"/>
-      <c r="K35" s="112" t="str">
+      <c r="K35" s="91" t="str">
         <f>IF(E35="","",K$34)</f>
         <v/>
       </c>
-      <c r="L35" s="116" t="str">
-        <f t="shared" ref="L35:L65" si="1">IF(E35="","",L$2)</f>
+      <c r="L35" s="95" t="str">
+        <f t="shared" ref="L35:L65" si="2">IF(E35="","",L$2)</f>
         <v/>
       </c>
       <c r="M35" s="82"/>
@@ -9086,7 +9086,7 @@
         <v/>
       </c>
       <c r="F36" s="81" t="str">
-        <f>IF(C36="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G36" s="81" t="str">
@@ -9101,12 +9101,12 @@
         <v>0.5</v>
       </c>
       <c r="J36" s="82"/>
-      <c r="K36" s="112" t="str">
-        <f t="shared" ref="K36:K66" si="2">IF(E36="","",K$34)</f>
-        <v/>
-      </c>
-      <c r="L36" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="K36" s="91" t="str">
+        <f t="shared" ref="K36:K66" si="3">IF(E36="","",K$34)</f>
+        <v/>
+      </c>
+      <c r="L36" s="95" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M36" s="82"/>
@@ -9129,7 +9129,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="81" t="e">
-        <f>IF(C37="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="81" t="e">
@@ -9144,12 +9144,12 @@
         <v>0.5</v>
       </c>
       <c r="J37" s="82"/>
-      <c r="K37" s="112" t="e">
+      <c r="K37" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" t="e">
@@ -9180,7 +9180,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="81" t="e">
-        <f>IF(C38="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="81" t="e">
@@ -9195,11 +9195,11 @@
         <v>0.5</v>
       </c>
       <c r="J38" s="82"/>
-      <c r="K38" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="116" t="e">
+      <c r="K38" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="95" t="e">
         <f>IF(E38="","",L$2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="86" t="e">
-        <f>IF(M37="",N37,N37+1)</f>
+        <f t="shared" ref="N38:N66" si="4">IF(M37="",N37,N37+1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="86" t="str">
@@ -9232,7 +9232,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="81" t="e">
-        <f>IF(C39="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="81" t="e">
@@ -9247,12 +9247,12 @@
         <v>0.5</v>
       </c>
       <c r="J39" s="82"/>
-      <c r="K39" s="112" t="e">
+      <c r="K39" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" t="e">
@@ -9260,7 +9260,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="86" t="e">
-        <f>IF(M38="",N38,N38+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="86" t="str">
@@ -9284,7 +9284,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="81" t="e">
-        <f>IF(C40="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="81" t="e">
@@ -9299,12 +9299,12 @@
         <v>0.5</v>
       </c>
       <c r="J40" s="82"/>
-      <c r="K40" s="112" t="e">
+      <c r="K40" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" t="e">
@@ -9312,7 +9312,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="86" t="e">
-        <f>IF(M39="",N39,N39+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="86" t="str">
@@ -9336,7 +9336,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="81" t="e">
-        <f>IF(C41="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="81" t="e">
@@ -9351,12 +9351,12 @@
         <v>0.5</v>
       </c>
       <c r="J41" s="82"/>
-      <c r="K41" s="112" t="e">
+      <c r="K41" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" t="e">
@@ -9364,7 +9364,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="86" t="e">
-        <f>IF(M40="",N40,N40+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="86" t="str">
@@ -9388,7 +9388,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="81" t="e">
-        <f>IF(C42="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42" s="81" t="e">
@@ -9403,12 +9403,12 @@
         <v>0.5</v>
       </c>
       <c r="J42" s="82"/>
-      <c r="K42" s="112" t="e">
+      <c r="K42" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" t="e">
@@ -9416,7 +9416,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="86" t="e">
-        <f>IF(M41="",N41,N41+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="86" t="str">
@@ -9440,7 +9440,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F43" s="81" t="e">
-        <f>IF(C43="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G43" s="81" t="e">
@@ -9455,12 +9455,12 @@
         <v>0.5</v>
       </c>
       <c r="J43" s="82"/>
-      <c r="K43" s="112" t="e">
+      <c r="K43" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" t="e">
@@ -9468,7 +9468,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="86" t="e">
-        <f>IF(M42="",N42,N42+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="86" t="str">
@@ -9492,7 +9492,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="81" t="e">
-        <f>IF(C44="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" s="81" t="e">
@@ -9507,12 +9507,12 @@
         <v>0.5</v>
       </c>
       <c r="J44" s="82"/>
-      <c r="K44" s="112" t="e">
+      <c r="K44" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" t="e">
@@ -9520,7 +9520,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="86" t="e">
-        <f>IF(M43="",N43,N43+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="86" t="str">
@@ -9544,7 +9544,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F45" s="81" t="e">
-        <f>IF(C45="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" s="81" t="e">
@@ -9559,12 +9559,12 @@
         <v>0.5</v>
       </c>
       <c r="J45" s="82"/>
-      <c r="K45" s="112" t="e">
+      <c r="K45" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" t="e">
@@ -9572,7 +9572,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="86" t="e">
-        <f>IF(M44="",N44,N44+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="86" t="str">
@@ -9596,7 +9596,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F46" s="81" t="e">
-        <f>IF(C46="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G46" s="81" t="e">
@@ -9611,12 +9611,12 @@
         <v>0.5</v>
       </c>
       <c r="J46" s="82"/>
-      <c r="K46" s="112" t="e">
+      <c r="K46" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" t="e">
@@ -9624,7 +9624,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="86" t="e">
-        <f>IF(M45="",N45,N45+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="86" t="str">
@@ -9648,7 +9648,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F47" s="81" t="e">
-        <f>IF(C47="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G47" s="81" t="e">
@@ -9663,12 +9663,12 @@
         <v>0.5</v>
       </c>
       <c r="J47" s="82"/>
-      <c r="K47" s="112" t="e">
+      <c r="K47" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" t="e">
@@ -9676,7 +9676,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="86" t="e">
-        <f>IF(M46="",N46,N46+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="86" t="str">
@@ -9700,7 +9700,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F48" s="81" t="e">
-        <f>IF(C48="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G48" s="81" t="e">
@@ -9715,12 +9715,12 @@
         <v>0.5</v>
       </c>
       <c r="J48" s="82"/>
-      <c r="K48" s="112" t="e">
+      <c r="K48" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M48" t="e">
@@ -9728,7 +9728,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N48" s="86" t="e">
-        <f>IF(M47="",N47,N47+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="86" t="str">
@@ -9752,7 +9752,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F49" s="81" t="e">
-        <f>IF(C49="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G49" s="81" t="e">
@@ -9767,12 +9767,12 @@
         <v>0.5</v>
       </c>
       <c r="J49" s="82"/>
-      <c r="K49" s="112" t="e">
+      <c r="K49" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L49" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M49" t="e">
@@ -9780,7 +9780,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="86" t="e">
-        <f>IF(M48="",N48,N48+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="86" t="str">
@@ -9804,7 +9804,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F50" s="81" t="e">
-        <f>IF(C50="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G50" s="81" t="e">
@@ -9819,12 +9819,12 @@
         <v>0.5</v>
       </c>
       <c r="J50" s="82"/>
-      <c r="K50" s="112" t="e">
+      <c r="K50" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M50" t="e">
@@ -9832,7 +9832,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N50" s="86" t="e">
-        <f>IF(M49="",N49,N49+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="86" t="str">
@@ -9856,7 +9856,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="81" t="e">
-        <f>IF(C51="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G51" s="81" t="e">
@@ -9871,12 +9871,12 @@
         <v>0.5</v>
       </c>
       <c r="J51" s="82"/>
-      <c r="K51" s="112" t="e">
+      <c r="K51" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L51" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M51" t="e">
@@ -9884,7 +9884,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N51" s="86" t="e">
-        <f>IF(M50="",N50,N50+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="86" t="str">
@@ -9908,7 +9908,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="81" t="e">
-        <f>IF(C52="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G52" s="81" t="e">
@@ -9923,12 +9923,12 @@
         <v>0.5</v>
       </c>
       <c r="J52" s="82"/>
-      <c r="K52" s="112" t="e">
+      <c r="K52" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" t="e">
@@ -9936,7 +9936,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="86" t="e">
-        <f>IF(M51="",N51,N51+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="86" t="str">
@@ -9960,7 +9960,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="81" t="e">
-        <f>IF(C53="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G53" s="81" t="e">
@@ -9975,12 +9975,12 @@
         <v>0.5</v>
       </c>
       <c r="J53" s="82"/>
-      <c r="K53" s="112" t="e">
+      <c r="K53" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" t="e">
@@ -9988,7 +9988,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="86" t="e">
-        <f>IF(M52="",N52,N52+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="86" t="str">
@@ -10012,7 +10012,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="81" t="e">
-        <f>IF(C54="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G54" s="81" t="e">
@@ -10027,12 +10027,12 @@
         <v>0.5</v>
       </c>
       <c r="J54" s="82"/>
-      <c r="K54" s="112" t="e">
+      <c r="K54" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" t="e">
@@ -10040,7 +10040,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="86" t="e">
-        <f>IF(M53="",N53,N53+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="86" t="str">
@@ -10064,7 +10064,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F55" s="81" t="e">
-        <f>IF(C55="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="81" t="e">
@@ -10079,12 +10079,12 @@
         <v>0.5</v>
       </c>
       <c r="J55" s="82"/>
-      <c r="K55" s="112" t="e">
+      <c r="K55" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L55" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" t="e">
@@ -10092,7 +10092,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N55" s="86" t="e">
-        <f>IF(M54="",N54,N54+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O55" s="86" t="str">
@@ -10116,7 +10116,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F56" s="81" t="e">
-        <f>IF(C56="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="81" t="e">
@@ -10131,12 +10131,12 @@
         <v>0.5</v>
       </c>
       <c r="J56" s="82"/>
-      <c r="K56" s="112" t="e">
+      <c r="K56" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M56" t="e">
@@ -10144,7 +10144,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N56" s="86" t="e">
-        <f>IF(M55="",N55,N55+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="86" t="str">
@@ -10168,7 +10168,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F57" s="81" t="e">
-        <f>IF(C57="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G57" s="81" t="e">
@@ -10183,12 +10183,12 @@
         <v>0.5</v>
       </c>
       <c r="J57" s="82"/>
-      <c r="K57" s="112" t="e">
+      <c r="K57" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M57" t="e">
@@ -10196,7 +10196,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N57" s="86" t="e">
-        <f>IF(M56="",N56,N56+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O57" s="86" t="str">
@@ -10220,7 +10220,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F58" s="81" t="e">
-        <f>IF(C58="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G58" s="81" t="e">
@@ -10235,12 +10235,12 @@
         <v>0.5</v>
       </c>
       <c r="J58" s="82"/>
-      <c r="K58" s="112" t="e">
+      <c r="K58" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L58" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" t="e">
@@ -10248,7 +10248,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="86" t="e">
-        <f>IF(M57="",N57,N57+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O58" s="86" t="str">
@@ -10272,7 +10272,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F59" s="81" t="e">
-        <f>IF(C59="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G59" s="81" t="e">
@@ -10287,12 +10287,12 @@
         <v>0.5</v>
       </c>
       <c r="J59" s="82"/>
-      <c r="K59" s="112" t="e">
+      <c r="K59" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L59" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" t="e">
@@ -10300,7 +10300,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="86" t="e">
-        <f>IF(M58="",N58,N58+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O59" s="86" t="str">
@@ -10324,7 +10324,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F60" s="81" t="e">
-        <f>IF(C60="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G60" s="81" t="e">
@@ -10339,12 +10339,12 @@
         <v>0.5</v>
       </c>
       <c r="J60" s="82"/>
-      <c r="K60" s="112" t="e">
+      <c r="K60" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L60" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" t="e">
@@ -10352,7 +10352,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="86" t="e">
-        <f>IF(M59="",N59,N59+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O60" s="86" t="str">
@@ -10376,7 +10376,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="81" t="e">
-        <f>IF(C61="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="81" t="e">
@@ -10391,12 +10391,12 @@
         <v>0.5</v>
       </c>
       <c r="J61" s="82"/>
-      <c r="K61" s="112" t="e">
+      <c r="K61" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L61" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" t="e">
@@ -10404,7 +10404,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="86" t="e">
-        <f>IF(M60="",N60,N60+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="86" t="str">
@@ -10428,7 +10428,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="81" t="e">
-        <f>IF(C62="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="81" t="e">
@@ -10443,12 +10443,12 @@
         <v>0.5</v>
       </c>
       <c r="J62" s="82"/>
-      <c r="K62" s="112" t="e">
+      <c r="K62" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" t="e">
@@ -10456,7 +10456,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="86" t="e">
-        <f>IF(M61="",N61,N61+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="86" t="str">
@@ -10480,7 +10480,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="81" t="e">
-        <f>IF(C63="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="81" t="e">
@@ -10495,12 +10495,12 @@
         <v>0.5</v>
       </c>
       <c r="J63" s="82"/>
-      <c r="K63" s="112" t="e">
+      <c r="K63" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" t="e">
@@ -10508,7 +10508,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="86" t="e">
-        <f>IF(M62="",N62,N62+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="86" t="str">
@@ -10532,7 +10532,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F64" s="81" t="e">
-        <f>IF(C64="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G64" s="81" t="e">
@@ -10547,12 +10547,12 @@
         <v>0.5</v>
       </c>
       <c r="J64" s="82"/>
-      <c r="K64" s="112" t="e">
+      <c r="K64" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L64" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M64" t="e">
@@ -10560,7 +10560,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N64" s="86" t="e">
-        <f>IF(M63="",N63,N63+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O64" s="86" t="str">
@@ -10584,7 +10584,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F65" s="81" t="e">
-        <f>IF(C65="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G65" s="81" t="e">
@@ -10599,12 +10599,12 @@
         <v>0.5</v>
       </c>
       <c r="J65" s="82"/>
-      <c r="K65" s="112" t="e">
+      <c r="K65" s="91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="95" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L65" s="116" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" t="e">
@@ -10612,7 +10612,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N65" s="86" t="e">
-        <f>IF(M64="",N64,N64+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O65" s="86" t="str">
@@ -10636,7 +10636,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F66" s="84" t="e">
-        <f>IF(C66="","","C:\Xcalibur\data\DiagnosticBSA")</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G66" s="84" t="e">
@@ -10650,12 +10650,12 @@
       <c r="I66" s="85">
         <v>0.5</v>
       </c>
-      <c r="J66" s="118"/>
-      <c r="K66" s="113" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L66" s="117" t="e">
+      <c r="J66" s="97"/>
+      <c r="K66" s="92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="96" t="e">
         <f>IF(E66="","",L$2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N66" s="86" t="e">
-        <f>IF(M65="",N65,N65+1)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O66" s="86" t="str">
@@ -10948,64 +10948,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">

--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA14121-2878-49E0-87BA-8E15527C321C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175287B2-2033-47CA-A10F-D0B4B67EA549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4668" yWindow="756" windowWidth="17388" windowHeight="9636" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="3648" windowWidth="23016" windowHeight="8700" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Instructions" sheetId="5" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,12 +1087,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1104,7 +1098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1407,11 +1401,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1495,7 +1600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1503,7 +1607,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1514,15 +1617,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1535,21 +1629,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1610,9 +1702,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,230 +2083,230 @@
       <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
@@ -2205,17 +2331,17 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2644,6 +2770,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A6:J6"/>
@@ -2660,8 +2788,6 @@
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3036,7 +3162,7 @@
   <dimension ref="A1:O1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3049,20 +3175,21 @@
     <col min="9" max="9" width="31.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.44140625" customWidth="1"/>
     <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
       <c r="I1" s="26" t="s">
         <v>81</v>
       </c>
@@ -3071,116 +3198,116 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="64" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="65"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="70" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="71"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="66" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="72" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="68" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="69"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="54" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="29" t="s">
         <v>5</v>
       </c>
@@ -3294,22 +3421,22 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="76" t="s">
+      <c r="L16" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="72" t="s">
         <v>108</v>
       </c>
       <c r="N16" s="34"/>
@@ -3336,904 +3463,972 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="87" t="str">
+      <c r="B18" s="116"/>
+      <c r="C18" s="117" t="str">
         <f>IF(OR(D19="",$C$2=""), "", $C$2)</f>
         <v/>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="40"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="34"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="124"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="87" t="str">
+      <c r="B19" s="125"/>
+      <c r="C19" s="126" t="str">
         <f>IF(OR(D19="",$C$2=""), "", $C$2)</f>
         <v/>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="40"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="34"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="87" t="str">
+      <c r="B20" s="125"/>
+      <c r="C20" s="126" t="str">
         <f t="shared" ref="C20:C47" si="0">IF(OR(D20="",$C$2=""), "", $C$2)</f>
         <v/>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="40"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="34"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="87" t="str">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="40"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="34"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="87" t="str">
+      <c r="B22" s="125"/>
+      <c r="C22" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="40"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="34"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="87" t="str">
+      <c r="B23" s="125"/>
+      <c r="C23" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="40"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="34"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="87" t="str">
+      <c r="B24" s="125"/>
+      <c r="C24" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="40"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="34"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="87" t="str">
+      <c r="B25" s="125"/>
+      <c r="C25" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="40"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="34"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>9</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="87" t="str">
+      <c r="B26" s="125"/>
+      <c r="C26" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="40"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="34"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="133"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>10</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="87" t="str">
+      <c r="B27" s="125"/>
+      <c r="C27" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="40"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="34"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="133"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>11</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="87" t="str">
+      <c r="B28" s="125"/>
+      <c r="C28" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="40"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="34"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="133"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="87" t="str">
+      <c r="B29" s="125"/>
+      <c r="C29" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="40"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="34"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="133"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>13</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="87" t="str">
+      <c r="B30" s="125"/>
+      <c r="C30" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="40"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="34"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="133"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>14</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="87" t="str">
+      <c r="B31" s="125"/>
+      <c r="C31" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="40"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="34"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="133"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>15</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="87" t="str">
+      <c r="B32" s="125"/>
+      <c r="C32" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="40"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="34"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="133"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>16</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="87" t="str">
+      <c r="B33" s="125"/>
+      <c r="C33" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="40"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="34"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="133"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>17</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="87" t="str">
+      <c r="B34" s="125"/>
+      <c r="C34" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="40"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="34"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="133"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>18</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="87" t="str">
+      <c r="B35" s="125"/>
+      <c r="C35" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="40"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="34"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="133"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>19</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="87" t="str">
+      <c r="B36" s="125"/>
+      <c r="C36" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="40"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="34"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="133"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>20</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="87" t="str">
+      <c r="B37" s="125"/>
+      <c r="C37" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="40"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="34"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="133"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>21</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="87" t="str">
+      <c r="B38" s="125"/>
+      <c r="C38" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="40"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="34"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="133"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>22</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="87" t="str">
+      <c r="B39" s="125"/>
+      <c r="C39" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="40"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="34"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="133"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>23</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="87" t="str">
+      <c r="B40" s="125"/>
+      <c r="C40" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="40"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="34"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="133"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>24</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="87" t="str">
+      <c r="B41" s="125"/>
+      <c r="C41" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="40"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="34"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="133"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>25</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="87" t="str">
+      <c r="B42" s="125"/>
+      <c r="C42" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="40"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="34"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="133"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>26</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="87" t="str">
+      <c r="B43" s="125"/>
+      <c r="C43" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="40"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="34"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="133"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>27</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="87" t="str">
+      <c r="B44" s="125"/>
+      <c r="C44" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="40"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="34"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="133"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>28</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="87" t="str">
+      <c r="B45" s="125"/>
+      <c r="C45" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="40"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="34"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="133"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>29</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="87" t="str">
+      <c r="B46" s="125"/>
+      <c r="C46" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="40"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="34"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="133"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>30</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="87" t="str">
+      <c r="B47" s="125"/>
+      <c r="C47" s="126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="40"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="34"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="133"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="40"/>
-      <c r="I48" s="40"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="139"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="40"/>
-      <c r="C49" s="89"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="I49" s="40"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="40"/>
-      <c r="C50" s="89"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="I50" s="40"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="40"/>
-      <c r="C51" s="89"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
       <c r="I51" s="40"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="40"/>
-      <c r="C52" s="89"/>
+      <c r="C52" s="82"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="I52" s="40"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="40"/>
-      <c r="C53" s="89"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="I53" s="40"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="40"/>
-      <c r="C54" s="89"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="I54" s="40"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="40"/>
-      <c r="C55" s="89"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
       <c r="I55" s="40"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="40"/>
-      <c r="C56" s="89"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="I56" s="40"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="40"/>
-      <c r="C57" s="89"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="I57" s="40"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="40"/>
-      <c r="C58" s="89"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="I58" s="40"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="40"/>
-      <c r="C59" s="89"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="I59" s="40"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="40"/>
-      <c r="C60" s="89"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="I60" s="40"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="40"/>
-      <c r="C61" s="89"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="I61" s="40"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="40"/>
-      <c r="C62" s="89"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="I62" s="40"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
-      <c r="C63" s="89"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="I63" s="40"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
-      <c r="C64" s="89"/>
+      <c r="C64" s="82"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="I64" s="40"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
-      <c r="C65" s="89"/>
+      <c r="C65" s="82"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
       <c r="I65" s="40"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
-      <c r="C66" s="89"/>
+      <c r="C66" s="82"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="I66" s="40"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
-      <c r="C67" s="89"/>
+      <c r="C67" s="82"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="I67" s="40"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="40"/>
-      <c r="C68" s="89"/>
+      <c r="C68" s="82"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="40"/>
-      <c r="C69" s="89"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="40"/>
-      <c r="C70" s="89"/>
+      <c r="C70" s="82"/>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="I70" s="40"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="40"/>
-      <c r="C71" s="89"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="I71" s="40"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="40"/>
-      <c r="C72" s="89"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="I72" s="40"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="40"/>
-      <c r="C73" s="89"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="I73" s="40"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="40"/>
-      <c r="C74" s="89"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="I74" s="40"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="40"/>
-      <c r="C75" s="89"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
       <c r="I75" s="40"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="40"/>
-      <c r="C76" s="89"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
       <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="40"/>
-      <c r="C77" s="89"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
       <c r="I77" s="40"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="40"/>
-      <c r="C78" s="89"/>
+      <c r="C78" s="82"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="40"/>
-      <c r="C79" s="89"/>
+      <c r="C79" s="82"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="I79" s="40"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="40"/>
-      <c r="C80" s="89"/>
+      <c r="C80" s="82"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="I80" s="40"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="40"/>
-      <c r="C81" s="89"/>
+      <c r="C81" s="82"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="I81" s="40"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="40"/>
-      <c r="C82" s="89"/>
+      <c r="C82" s="82"/>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
       <c r="I82" s="40"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="40"/>
-      <c r="C83" s="89"/>
+      <c r="C83" s="82"/>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
       <c r="I83" s="40"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="40"/>
-      <c r="C84" s="89"/>
+      <c r="C84" s="82"/>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="I84" s="40"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="40"/>
-      <c r="C85" s="89"/>
+      <c r="C85" s="82"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
       <c r="I85" s="40"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="40"/>
-      <c r="C86" s="89"/>
+      <c r="C86" s="82"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
       <c r="I86" s="40"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="40"/>
-      <c r="C87" s="89"/>
+      <c r="C87" s="82"/>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
       <c r="I87" s="40"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="40"/>
-      <c r="C88" s="89"/>
+      <c r="C88" s="82"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="I88" s="40"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="40"/>
-      <c r="C89" s="89"/>
+      <c r="C89" s="82"/>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
       <c r="I89" s="40"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="40"/>
-      <c r="C90" s="89"/>
+      <c r="C90" s="82"/>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
       <c r="I90" s="40"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="40"/>
-      <c r="C91" s="89"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
       <c r="I91" s="40"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="40"/>
-      <c r="C92" s="89"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="I92" s="40"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="40"/>
-      <c r="C93" s="89"/>
+      <c r="C93" s="82"/>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
       <c r="I93" s="40"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="40"/>
-      <c r="C94" s="89"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
       <c r="I94" s="40"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="40"/>
-      <c r="C95" s="89"/>
+      <c r="C95" s="82"/>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
       <c r="I95" s="40"/>
@@ -7695,19 +7890,19 @@
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="59.44140625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="90" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="90" customWidth="1"/>
-    <col min="12" max="12" width="18" style="90" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="83" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="83" customWidth="1"/>
+    <col min="12" max="12" width="18" style="83" customWidth="1"/>
     <col min="13" max="13" width="9.109375"/>
-    <col min="14" max="14" width="8.88671875" style="82" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="77" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="81" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="57" t="s">
@@ -7716,20 +7911,20 @@
       <c r="F1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="74" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="98" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="92" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7763,12 +7958,12 @@
       <c r="I2" s="17">
         <v>2</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="100" t="str">
+      <c r="J2" s="77"/>
+      <c r="K2" s="93" t="str">
         <f>IF(Input!C18="","","\")</f>
         <v/>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="94" t="s">
         <v>200</v>
       </c>
       <c r="N2" t="s">
@@ -7806,12 +8001,12 @@
       <c r="I3" s="19">
         <v>2</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="93" t="str">
+      <c r="J3" s="77"/>
+      <c r="K3" s="86" t="str">
         <f>IF(Input!C19="","","\")</f>
         <v/>
       </c>
-      <c r="L3" s="94" t="str">
+      <c r="L3" s="87" t="str">
         <f>IF(E3="","",L$2)</f>
         <v/>
       </c>
@@ -7849,12 +8044,12 @@
       <c r="I4" s="19">
         <v>2</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="93" t="str">
+      <c r="J4" s="77"/>
+      <c r="K4" s="86" t="str">
         <f>IF(Input!C20="","","\")</f>
         <v/>
       </c>
-      <c r="L4" s="94" t="str">
+      <c r="L4" s="87" t="str">
         <f t="shared" ref="L4:L31" si="0">IF(E4="","",L$2)</f>
         <v/>
       </c>
@@ -7889,12 +8084,12 @@
       <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="93" t="str">
+      <c r="J5" s="77"/>
+      <c r="K5" s="86" t="str">
         <f>IF(Input!C21="","","\")</f>
         <v/>
       </c>
-      <c r="L5" s="94" t="str">
+      <c r="L5" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7913,7 +8108,7 @@
       <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="81" t="str">
+      <c r="E6" s="76" t="str">
         <f>IF(Input!C22="","",Input!C22 &amp;"_"&amp;Input!D22 &amp;"_"&amp;Input!E22&amp;"_"&amp;Input!H22&amp;"_rep"&amp;Input!F22&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -7932,18 +8127,18 @@
       <c r="I6" s="19">
         <v>2</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="93" t="str">
+      <c r="J6" s="77"/>
+      <c r="K6" s="86" t="str">
         <f>IF(Input!C22="","","\")</f>
         <v/>
       </c>
-      <c r="L6" s="94" t="str">
+      <c r="L6" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="78"/>
+      <c r="A7" s="73"/>
       <c r="B7">
         <v>6</v>
       </c>
@@ -7973,12 +8168,12 @@
       <c r="I7" s="19">
         <v>2</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="93" t="str">
+      <c r="J7" s="77"/>
+      <c r="K7" s="86" t="str">
         <f>IF(Input!C23="","","\")</f>
         <v/>
       </c>
-      <c r="L7" s="94" t="str">
+      <c r="L7" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8013,12 +8208,12 @@
       <c r="I8" s="19">
         <v>2</v>
       </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="93" t="str">
+      <c r="J8" s="77"/>
+      <c r="K8" s="86" t="str">
         <f>IF(Input!C24="","","\")</f>
         <v/>
       </c>
-      <c r="L8" s="94" t="str">
+      <c r="L8" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8053,16 +8248,16 @@
       <c r="I9" s="19">
         <v>2</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="93" t="str">
+      <c r="J9" s="77"/>
+      <c r="K9" s="86" t="str">
         <f>IF(Input!C25="","","\")</f>
         <v/>
       </c>
-      <c r="L9" s="94" t="str">
+      <c r="L9" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P9" s="86"/>
+      <c r="P9" s="81"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -8097,12 +8292,12 @@
       <c r="I10" s="19">
         <v>2</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="93" t="str">
+      <c r="J10" s="77"/>
+      <c r="K10" s="86" t="str">
         <f>IF(Input!C26="","","\")</f>
         <v/>
       </c>
-      <c r="L10" s="94" t="str">
+      <c r="L10" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8140,12 +8335,12 @@
       <c r="I11" s="19">
         <v>2</v>
       </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="93" t="str">
+      <c r="J11" s="77"/>
+      <c r="K11" s="86" t="str">
         <f>IF(Input!C27="","","\")</f>
         <v/>
       </c>
-      <c r="L11" s="94" t="str">
+      <c r="L11" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8161,7 +8356,7 @@
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="81" t="str">
+      <c r="E12" s="76" t="str">
         <f>IF(Input!C28="","",Input!C28 &amp;"_"&amp;Input!D28 &amp;"_"&amp;Input!E28&amp;"_"&amp;Input!H28&amp;"_rep"&amp;Input!F28&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8180,12 +8375,12 @@
       <c r="I12" s="19">
         <v>2</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="93" t="str">
+      <c r="J12" s="77"/>
+      <c r="K12" s="86" t="str">
         <f>IF(Input!C28="","","\")</f>
         <v/>
       </c>
-      <c r="L12" s="94" t="str">
+      <c r="L12" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8220,12 +8415,12 @@
       <c r="I13" s="19">
         <v>2</v>
       </c>
-      <c r="J13" s="82"/>
-      <c r="K13" s="93" t="str">
+      <c r="J13" s="77"/>
+      <c r="K13" s="86" t="str">
         <f>IF(Input!C29="","","\")</f>
         <v/>
       </c>
-      <c r="L13" s="94" t="str">
+      <c r="L13" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8260,12 +8455,12 @@
       <c r="I14" s="19">
         <v>2</v>
       </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="93" t="str">
+      <c r="J14" s="77"/>
+      <c r="K14" s="86" t="str">
         <f>IF(Input!C30="","","\")</f>
         <v/>
       </c>
-      <c r="L14" s="94" t="str">
+      <c r="L14" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8300,12 +8495,12 @@
       <c r="I15" s="19">
         <v>2</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="93" t="str">
+      <c r="J15" s="77"/>
+      <c r="K15" s="86" t="str">
         <f>IF(Input!C31="","","\")</f>
         <v/>
       </c>
-      <c r="L15" s="94" t="str">
+      <c r="L15" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8340,12 +8535,12 @@
       <c r="I16" s="19">
         <v>2</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="93" t="str">
+      <c r="J16" s="77"/>
+      <c r="K16" s="86" t="str">
         <f>IF(Input!C32="","","\")</f>
         <v/>
       </c>
-      <c r="L16" s="94" t="str">
+      <c r="L16" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8380,12 +8575,12 @@
       <c r="I17" s="19">
         <v>2</v>
       </c>
-      <c r="J17" s="82"/>
-      <c r="K17" s="93" t="str">
+      <c r="J17" s="77"/>
+      <c r="K17" s="86" t="str">
         <f>IF(Input!C33="","","\")</f>
         <v/>
       </c>
-      <c r="L17" s="94" t="str">
+      <c r="L17" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8401,7 +8596,7 @@
       <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="81" t="str">
+      <c r="E18" s="76" t="str">
         <f>IF(Input!C34="","",Input!C34 &amp;"_"&amp;Input!D34 &amp;"_"&amp;Input!E34&amp;"_"&amp;Input!H34&amp;"_rep"&amp;Input!F34&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8420,12 +8615,12 @@
       <c r="I18" s="19">
         <v>2</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="93" t="str">
+      <c r="J18" s="77"/>
+      <c r="K18" s="86" t="str">
         <f>IF(Input!C34="","","\")</f>
         <v/>
       </c>
-      <c r="L18" s="94" t="str">
+      <c r="L18" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8460,12 +8655,12 @@
       <c r="I19" s="19">
         <v>2</v>
       </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="93" t="str">
+      <c r="J19" s="77"/>
+      <c r="K19" s="86" t="str">
         <f>IF(Input!C35="","","\")</f>
         <v/>
       </c>
-      <c r="L19" s="94" t="str">
+      <c r="L19" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8500,12 +8695,12 @@
       <c r="I20" s="19">
         <v>2</v>
       </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="93" t="str">
+      <c r="J20" s="77"/>
+      <c r="K20" s="86" t="str">
         <f>IF(Input!C36="","","\")</f>
         <v/>
       </c>
-      <c r="L20" s="94" t="str">
+      <c r="L20" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8540,12 +8735,12 @@
       <c r="I21" s="19">
         <v>2</v>
       </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="93" t="str">
+      <c r="J21" s="77"/>
+      <c r="K21" s="86" t="str">
         <f>IF(Input!C37="","","\")</f>
         <v/>
       </c>
-      <c r="L21" s="94" t="str">
+      <c r="L21" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8580,12 +8775,12 @@
       <c r="I22" s="19">
         <v>2</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="93" t="str">
+      <c r="J22" s="77"/>
+      <c r="K22" s="86" t="str">
         <f>IF(Input!C38="","","\")</f>
         <v/>
       </c>
-      <c r="L22" s="94" t="str">
+      <c r="L22" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8620,12 +8815,12 @@
       <c r="I23" s="19">
         <v>2</v>
       </c>
-      <c r="J23" s="82"/>
-      <c r="K23" s="93" t="str">
+      <c r="J23" s="77"/>
+      <c r="K23" s="86" t="str">
         <f>IF(Input!C39="","","\")</f>
         <v/>
       </c>
-      <c r="L23" s="94" t="str">
+      <c r="L23" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8660,12 +8855,12 @@
       <c r="I24" s="19">
         <v>2</v>
       </c>
-      <c r="J24" s="82"/>
-      <c r="K24" s="93" t="str">
+      <c r="J24" s="77"/>
+      <c r="K24" s="86" t="str">
         <f>IF(Input!C40="","","\")</f>
         <v/>
       </c>
-      <c r="L24" s="94" t="str">
+      <c r="L24" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8700,12 +8895,12 @@
       <c r="I25" s="19">
         <v>2</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="93" t="str">
+      <c r="J25" s="77"/>
+      <c r="K25" s="86" t="str">
         <f>IF(Input!C41="","","\")</f>
         <v/>
       </c>
-      <c r="L25" s="94" t="str">
+      <c r="L25" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8740,12 +8935,12 @@
       <c r="I26" s="19">
         <v>2</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="93" t="str">
+      <c r="J26" s="77"/>
+      <c r="K26" s="86" t="str">
         <f>IF(Input!C42="","","\")</f>
         <v/>
       </c>
-      <c r="L26" s="94" t="str">
+      <c r="L26" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8780,12 +8975,12 @@
       <c r="I27" s="19">
         <v>2</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="93" t="str">
+      <c r="J27" s="77"/>
+      <c r="K27" s="86" t="str">
         <f>IF(Input!C43="","","\")</f>
         <v/>
       </c>
-      <c r="L27" s="94" t="str">
+      <c r="L27" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8801,7 +8996,7 @@
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="81" t="str">
+      <c r="E28" s="76" t="str">
         <f>IF(Input!C44="","",Input!C44 &amp;"_"&amp;Input!D44 &amp;"_"&amp;Input!E44&amp;"_"&amp;Input!H44&amp;"_rep"&amp;Input!F44&amp;Input!$J$4)</f>
         <v/>
       </c>
@@ -8820,12 +9015,12 @@
       <c r="I28" s="19">
         <v>2</v>
       </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="93" t="str">
+      <c r="J28" s="77"/>
+      <c r="K28" s="86" t="str">
         <f>IF(Input!C44="","","\")</f>
         <v/>
       </c>
-      <c r="L28" s="94" t="str">
+      <c r="L28" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8861,12 +9056,12 @@
       <c r="I29" s="19">
         <v>2</v>
       </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="93" t="str">
+      <c r="J29" s="77"/>
+      <c r="K29" s="86" t="str">
         <f>IF(Input!C45="","","\")</f>
         <v/>
       </c>
-      <c r="L29" s="94" t="str">
+      <c r="L29" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8901,12 +9096,12 @@
       <c r="I30" s="19">
         <v>2</v>
       </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="93" t="str">
+      <c r="J30" s="77"/>
+      <c r="K30" s="86" t="str">
         <f>IF(Input!C46="","","\")</f>
         <v/>
       </c>
-      <c r="L30" s="94" t="str">
+      <c r="L30" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8941,12 +9136,12 @@
       <c r="I31" s="24">
         <v>2</v>
       </c>
-      <c r="J31" s="97"/>
-      <c r="K31" s="93" t="str">
+      <c r="J31" s="90"/>
+      <c r="K31" s="86" t="str">
         <f>IF(Input!C47="","","\")</f>
         <v/>
       </c>
-      <c r="L31" s="94" t="str">
+      <c r="L31" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8954,31 +9149,31 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="95"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="88"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="86" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="O33" s="86" t="s">
+      <c r="O33" s="81" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8996,36 +9191,36 @@
       <c r="D34" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="81" t="str">
+      <c r="E34" s="76" t="str">
         <f>IF(C34="","",Input!$J$5&amp;"_QC_prerun1")</f>
         <v/>
       </c>
-      <c r="F34" s="81" t="str">
+      <c r="F34" s="76" t="str">
         <f t="shared" ref="F34:F66" si="1">IF(C34="","","C:\Xcalibur\data\DiagnosticBSA")</f>
         <v/>
       </c>
-      <c r="G34" s="81" t="str">
+      <c r="G34" s="76" t="str">
         <f>IF(C34="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H34" s="81" t="str">
+      <c r="H34" s="76" t="str">
         <f>IF(C34="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I34" s="20">
         <v>0.5</v>
       </c>
-      <c r="J34" s="82"/>
-      <c r="K34" s="91" t="s">
+      <c r="J34" s="77"/>
+      <c r="K34" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="L34" s="95" t="str">
+      <c r="L34" s="88" t="str">
         <f>IF(E34="","",L$2)</f>
         <v/>
       </c>
-      <c r="M34" s="82"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -9038,37 +9233,37 @@
       <c r="D35" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="81" t="str">
+      <c r="E35" s="76" t="str">
         <f>IF(C35="","",Input!$J$5&amp;"_QC_prerun2")</f>
         <v/>
       </c>
-      <c r="F35" s="81" t="str">
+      <c r="F35" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G35" s="81" t="str">
+      <c r="G35" s="76" t="str">
         <f>IF(C35="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H35" s="81" t="str">
+      <c r="H35" s="76" t="str">
         <f>IF(C35="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I35" s="20">
         <v>0.5</v>
       </c>
-      <c r="J35" s="82"/>
-      <c r="K35" s="91" t="str">
+      <c r="J35" s="77"/>
+      <c r="K35" s="84" t="str">
         <f>IF(E35="","",K$34)</f>
         <v/>
       </c>
-      <c r="L35" s="95" t="str">
+      <c r="L35" s="88" t="str">
         <f t="shared" ref="L35:L65" si="2">IF(E35="","",L$2)</f>
         <v/>
       </c>
-      <c r="M35" s="82"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
@@ -9081,37 +9276,37 @@
       <c r="D36" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="81" t="str">
+      <c r="E36" s="76" t="str">
         <f>IF(C36="","",Input!$J$5&amp;"_QC_prerun")</f>
         <v/>
       </c>
-      <c r="F36" s="81" t="str">
+      <c r="F36" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G36" s="81" t="str">
+      <c r="G36" s="76" t="str">
         <f>IF(C36="","",Input!$J$8)</f>
         <v/>
       </c>
-      <c r="H36" s="81" t="str">
+      <c r="H36" s="76" t="str">
         <f>IF(C36="","",Input!$J$9)</f>
         <v/>
       </c>
       <c r="I36" s="20">
         <v>0.5</v>
       </c>
-      <c r="J36" s="82"/>
-      <c r="K36" s="91" t="str">
+      <c r="J36" s="77"/>
+      <c r="K36" s="84" t="str">
         <f t="shared" ref="K36:K66" si="3">IF(E36="","",K$34)</f>
         <v/>
       </c>
-      <c r="L36" s="95" t="str">
+      <c r="L36" s="88" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M36" s="82"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37">
@@ -9124,31 +9319,31 @@
       <c r="D37" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="81" t="e">
+      <c r="E37" s="76" t="e">
         <f>IF(C37="","",Input!$J$5&amp;"_QC"&amp;$N$37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="81" t="e">
+      <c r="F37" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="81" t="e">
+      <c r="G37" s="76" t="e">
         <f>IF(C37="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="81" t="e">
+      <c r="H37" s="76" t="e">
         <f>IF(C37="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="20">
         <v>0.5</v>
       </c>
-      <c r="J37" s="82"/>
-      <c r="K37" s="91" t="e">
+      <c r="J37" s="77"/>
+      <c r="K37" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="95" t="e">
+      <c r="L37" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9156,10 +9351,10 @@
         <f>IF(AND($B$37-0.4&lt;=MAX($O$37:$O$66),($B$37-0.4)/Input!$J$11=INT(($B$37-0.4)/Input!$J$11)),$B$37,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="86">
+      <c r="N37" s="81">
         <v>1</v>
       </c>
-      <c r="O37" s="86" t="str">
+      <c r="O37" s="81" t="str">
         <f>IF(Input!B18="","",Input!A18 +1)</f>
         <v/>
       </c>
@@ -9175,31 +9370,31 @@
       <c r="D38" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="81" t="e">
+      <c r="E38" s="76" t="e">
         <f>IF(C38="","",Input!$J$5&amp;"_QC"&amp;$N$38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="81" t="e">
+      <c r="F38" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="81" t="e">
+      <c r="G38" s="76" t="e">
         <f>IF(C38="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="81" t="e">
+      <c r="H38" s="76" t="e">
         <f>IF(C38="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="20">
         <v>0.5</v>
       </c>
-      <c r="J38" s="82"/>
-      <c r="K38" s="91" t="e">
+      <c r="J38" s="77"/>
+      <c r="K38" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="95" t="e">
+      <c r="L38" s="88" t="e">
         <f>IF(E38="","",L$2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -9207,11 +9402,11 @@
         <f>IF(AND($B$38-0.4&lt;=MAX($O$37:$O$66),($B$38-0.4)/Input!$J$11=INT(($B$38-0.4)/Input!$J$11)),$B$38,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="86" t="e">
+      <c r="N38" s="81" t="e">
         <f t="shared" ref="N38:N66" si="4">IF(M37="",N37,N37+1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="86" t="str">
+      <c r="O38" s="81" t="str">
         <f>IF(Input!B19="","",Input!A19 +1)</f>
         <v/>
       </c>
@@ -9227,31 +9422,31 @@
       <c r="D39" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="81" t="e">
+      <c r="E39" s="76" t="e">
         <f>IF(C39="","",Input!$J$5&amp;"_QC"&amp;$N$39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="81" t="e">
+      <c r="F39" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="81" t="e">
+      <c r="G39" s="76" t="e">
         <f>IF(C39="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="81" t="e">
+      <c r="H39" s="76" t="e">
         <f>IF(C39="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="20">
         <v>0.5</v>
       </c>
-      <c r="J39" s="82"/>
-      <c r="K39" s="91" t="e">
+      <c r="J39" s="77"/>
+      <c r="K39" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="95" t="e">
+      <c r="L39" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9259,11 +9454,11 @@
         <f>IF(AND($B$39-0.4&lt;=MAX($O$37:$O$66),($B$39-0.4)/Input!$J$11=INT(($B$39-0.4)/Input!$J$11)),$B$39,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="86" t="e">
+      <c r="N39" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="86" t="str">
+      <c r="O39" s="81" t="str">
         <f>IF(Input!B20="","",Input!A20 +1)</f>
         <v/>
       </c>
@@ -9279,31 +9474,31 @@
       <c r="D40" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="81" t="e">
+      <c r="E40" s="76" t="e">
         <f>IF(C40="","",Input!$J$5&amp;"_QC"&amp;$N$40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="81" t="e">
+      <c r="F40" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="81" t="e">
+      <c r="G40" s="76" t="e">
         <f>IF(C40="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="81" t="e">
+      <c r="H40" s="76" t="e">
         <f>IF(C40="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="20">
         <v>0.5</v>
       </c>
-      <c r="J40" s="82"/>
-      <c r="K40" s="91" t="e">
+      <c r="J40" s="77"/>
+      <c r="K40" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="95" t="e">
+      <c r="L40" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9311,11 +9506,11 @@
         <f>IF(AND($B$40-0.4&lt;=MAX($O$37:$O$66),($B$40-0.4)/Input!$J$11=INT(($B$40-0.4)/Input!$J$11)),$B$40,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="86" t="e">
+      <c r="N40" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="86" t="str">
+      <c r="O40" s="81" t="str">
         <f>IF(Input!B21="","",Input!A21 +1)</f>
         <v/>
       </c>
@@ -9331,31 +9526,31 @@
       <c r="D41" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="81" t="e">
+      <c r="E41" s="76" t="e">
         <f>IF(C41="","",Input!$J$5&amp;"_QC"&amp;$N$41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="81" t="e">
+      <c r="F41" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="81" t="e">
+      <c r="G41" s="76" t="e">
         <f>IF(C41="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="81" t="e">
+      <c r="H41" s="76" t="e">
         <f>IF(C41="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="20">
         <v>0.5</v>
       </c>
-      <c r="J41" s="82"/>
-      <c r="K41" s="91" t="e">
+      <c r="J41" s="77"/>
+      <c r="K41" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="95" t="e">
+      <c r="L41" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9363,11 +9558,11 @@
         <f>IF(AND($B$41-0.4&lt;=MAX($O$37:$O$66),($B$41-0.4)/Input!$J$11=INT(($B$41-0.4)/Input!$J$11)),$B$41,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="86" t="e">
+      <c r="N41" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="86" t="str">
+      <c r="O41" s="81" t="str">
         <f>IF(Input!B22="","",Input!A22 +1)</f>
         <v/>
       </c>
@@ -9383,31 +9578,31 @@
       <c r="D42" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="81" t="e">
+      <c r="E42" s="76" t="e">
         <f>IF(C42="","",Input!$J$5&amp;"_QC"&amp;$N$42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="81" t="e">
+      <c r="F42" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="81" t="e">
+      <c r="G42" s="76" t="e">
         <f>IF(C42="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="81" t="e">
+      <c r="H42" s="76" t="e">
         <f>IF(C42="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="20">
         <v>0.5</v>
       </c>
-      <c r="J42" s="82"/>
-      <c r="K42" s="91" t="e">
+      <c r="J42" s="77"/>
+      <c r="K42" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="95" t="e">
+      <c r="L42" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9415,11 +9610,11 @@
         <f>IF(AND($B$42-0.4&lt;=MAX($O$37:$O$66),($B$42-0.4)/Input!$J$11=INT(($B$42-0.4)/Input!$J$11)),$B$42,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N42" s="86" t="e">
+      <c r="N42" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" s="86" t="str">
+      <c r="O42" s="81" t="str">
         <f>IF(Input!B23="","",Input!A23 +1)</f>
         <v/>
       </c>
@@ -9435,31 +9630,31 @@
       <c r="D43" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="81" t="e">
+      <c r="E43" s="76" t="e">
         <f>IF(C43="","",Input!$J$5&amp;"_QC"&amp;$N$43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="81" t="e">
+      <c r="F43" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="81" t="e">
+      <c r="G43" s="76" t="e">
         <f>IF(C43="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="81" t="e">
+      <c r="H43" s="76" t="e">
         <f>IF(C43="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="20">
         <v>0.5</v>
       </c>
-      <c r="J43" s="82"/>
-      <c r="K43" s="91" t="e">
+      <c r="J43" s="77"/>
+      <c r="K43" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L43" s="95" t="e">
+      <c r="L43" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9467,11 +9662,11 @@
         <f>IF(AND($B$43-0.4&lt;=MAX($O$37:$O$66),($B$43-0.4)/Input!$J$11=INT(($B$43-0.4)/Input!$J$11)),$B$43,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N43" s="86" t="e">
+      <c r="N43" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="86" t="str">
+      <c r="O43" s="81" t="str">
         <f>IF(Input!B24="","",Input!A24 +1)</f>
         <v/>
       </c>
@@ -9487,31 +9682,31 @@
       <c r="D44" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="81" t="e">
+      <c r="E44" s="76" t="e">
         <f>IF(C44="","",Input!$J$5&amp;"_QC"&amp;$N$44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="81" t="e">
+      <c r="F44" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="81" t="e">
+      <c r="G44" s="76" t="e">
         <f>IF(C44="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="81" t="e">
+      <c r="H44" s="76" t="e">
         <f>IF(C44="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="20">
         <v>0.5</v>
       </c>
-      <c r="J44" s="82"/>
-      <c r="K44" s="91" t="e">
+      <c r="J44" s="77"/>
+      <c r="K44" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="95" t="e">
+      <c r="L44" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9519,11 +9714,11 @@
         <f>IF(AND($B$44-0.4&lt;=MAX($O$37:$O$66),($B$44-0.4)/Input!$J$11=INT(($B$44-0.4)/Input!$J$11)),$B$44,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N44" s="86" t="e">
+      <c r="N44" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="86" t="str">
+      <c r="O44" s="81" t="str">
         <f>IF(Input!B25="","",Input!A25 +1)</f>
         <v/>
       </c>
@@ -9539,31 +9734,31 @@
       <c r="D45" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="81" t="e">
+      <c r="E45" s="76" t="e">
         <f>IF(C45="","",Input!$J$5&amp;"_QC"&amp;$N$45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="81" t="e">
+      <c r="F45" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="81" t="e">
+      <c r="G45" s="76" t="e">
         <f>IF(C45="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="81" t="e">
+      <c r="H45" s="76" t="e">
         <f>IF(C45="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="20">
         <v>0.5</v>
       </c>
-      <c r="J45" s="82"/>
-      <c r="K45" s="91" t="e">
+      <c r="J45" s="77"/>
+      <c r="K45" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="95" t="e">
+      <c r="L45" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9571,11 +9766,11 @@
         <f>IF(AND($B$45-0.4&lt;=MAX($O$37:$O$66),($B$45-0.4)/Input!$J$11=INT(($B$45-0.4)/Input!$J$11)),$B$45,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N45" s="86" t="e">
+      <c r="N45" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="86" t="str">
+      <c r="O45" s="81" t="str">
         <f>IF(Input!B26="","",Input!A26 +1)</f>
         <v/>
       </c>
@@ -9591,31 +9786,31 @@
       <c r="D46" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="81" t="e">
+      <c r="E46" s="76" t="e">
         <f>IF(C46="","",Input!$J$5&amp;"_QC"&amp;$N$46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="81" t="e">
+      <c r="F46" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="81" t="e">
+      <c r="G46" s="76" t="e">
         <f>IF(C46="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="81" t="e">
+      <c r="H46" s="76" t="e">
         <f>IF(C46="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="20">
         <v>0.5</v>
       </c>
-      <c r="J46" s="82"/>
-      <c r="K46" s="91" t="e">
+      <c r="J46" s="77"/>
+      <c r="K46" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="95" t="e">
+      <c r="L46" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9623,11 +9818,11 @@
         <f>IF(AND($B$46-0.4&lt;=MAX($O$37:$O$66),($B$46-0.4)/Input!$J$11=INT(($B$46-0.4)/Input!$J$11)),$B$46,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="86" t="e">
+      <c r="N46" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="86" t="str">
+      <c r="O46" s="81" t="str">
         <f>IF(Input!B27="","",Input!A27 +1)</f>
         <v/>
       </c>
@@ -9643,31 +9838,31 @@
       <c r="D47" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="81" t="e">
+      <c r="E47" s="76" t="e">
         <f>IF(C47="","",Input!$J$5&amp;"_QC"&amp;$N$47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="81" t="e">
+      <c r="F47" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="81" t="e">
+      <c r="G47" s="76" t="e">
         <f>IF(C47="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="81" t="e">
+      <c r="H47" s="76" t="e">
         <f>IF(C47="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="20">
         <v>0.5</v>
       </c>
-      <c r="J47" s="82"/>
-      <c r="K47" s="91" t="e">
+      <c r="J47" s="77"/>
+      <c r="K47" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="95" t="e">
+      <c r="L47" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9675,11 +9870,11 @@
         <f>IF(AND($B$47-0.4&lt;=MAX($O$37:$O$66),($B$47-0.4)/Input!$J$11=INT(($B$47-0.4)/Input!$J$11)),$B$47,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N47" s="86" t="e">
+      <c r="N47" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="86" t="str">
+      <c r="O47" s="81" t="str">
         <f>IF(Input!B28="","",Input!A28 +1)</f>
         <v/>
       </c>
@@ -9695,31 +9890,31 @@
       <c r="D48" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="81" t="e">
+      <c r="E48" s="76" t="e">
         <f>IF(C48="","",Input!$J$5&amp;"_QC"&amp;$N$48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="81" t="e">
+      <c r="F48" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="81" t="e">
+      <c r="G48" s="76" t="e">
         <f>IF(C48="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="81" t="e">
+      <c r="H48" s="76" t="e">
         <f>IF(C48="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="20">
         <v>0.5</v>
       </c>
-      <c r="J48" s="82"/>
-      <c r="K48" s="91" t="e">
+      <c r="J48" s="77"/>
+      <c r="K48" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="95" t="e">
+      <c r="L48" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9727,11 +9922,11 @@
         <f>IF(AND($B$48-0.4&lt;=MAX($O$37:$O$66),($B$48-0.4)/Input!$J$11=INT(($B$48-0.4)/Input!$J$11)),$B$48,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="86" t="e">
+      <c r="N48" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O48" s="86" t="str">
+      <c r="O48" s="81" t="str">
         <f>IF(Input!B29="","",Input!A29 +1)</f>
         <v/>
       </c>
@@ -9747,31 +9942,31 @@
       <c r="D49" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="81" t="e">
+      <c r="E49" s="76" t="e">
         <f>IF(C49="","",Input!$J$5&amp;"_QC"&amp;$N$49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="81" t="e">
+      <c r="F49" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="81" t="e">
+      <c r="G49" s="76" t="e">
         <f>IF(C49="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="81" t="e">
+      <c r="H49" s="76" t="e">
         <f>IF(C49="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I49" s="20">
         <v>0.5</v>
       </c>
-      <c r="J49" s="82"/>
-      <c r="K49" s="91" t="e">
+      <c r="J49" s="77"/>
+      <c r="K49" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="95" t="e">
+      <c r="L49" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9779,11 +9974,11 @@
         <f>IF(AND($B$49-0.4&lt;=MAX($O$37:$O$66),($B$49-0.4)/Input!$J$11=INT(($B$49-0.4)/Input!$J$11)),$B$49,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="86" t="e">
+      <c r="N49" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="86" t="str">
+      <c r="O49" s="81" t="str">
         <f>IF(Input!B30="","",Input!A30 +1)</f>
         <v/>
       </c>
@@ -9799,31 +9994,31 @@
       <c r="D50" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="81" t="e">
+      <c r="E50" s="76" t="e">
         <f>IF(C50="","",Input!$J$5&amp;"_QC"&amp;$N$50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="81" t="e">
+      <c r="F50" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="81" t="e">
+      <c r="G50" s="76" t="e">
         <f>IF(C50="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="81" t="e">
+      <c r="H50" s="76" t="e">
         <f>IF(C50="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I50" s="20">
         <v>0.5</v>
       </c>
-      <c r="J50" s="82"/>
-      <c r="K50" s="91" t="e">
+      <c r="J50" s="77"/>
+      <c r="K50" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="95" t="e">
+      <c r="L50" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9831,11 +10026,11 @@
         <f>IF(AND($B$50-0.4&lt;=MAX($O$37:$O$66),($B$50-0.4)/Input!$J$11=INT(($B$50-0.4)/Input!$J$11)),$B$50,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="86" t="e">
+      <c r="N50" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="86" t="str">
+      <c r="O50" s="81" t="str">
         <f>IF(Input!B31="","",Input!A31 +1)</f>
         <v/>
       </c>
@@ -9851,31 +10046,31 @@
       <c r="D51" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="81" t="e">
+      <c r="E51" s="76" t="e">
         <f>IF(C51="","",Input!$J$5&amp;"_QC"&amp;$N$51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="81" t="e">
+      <c r="F51" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="81" t="e">
+      <c r="G51" s="76" t="e">
         <f>IF(C51="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="81" t="e">
+      <c r="H51" s="76" t="e">
         <f>IF(C51="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I51" s="20">
         <v>0.5</v>
       </c>
-      <c r="J51" s="82"/>
-      <c r="K51" s="91" t="e">
+      <c r="J51" s="77"/>
+      <c r="K51" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="95" t="e">
+      <c r="L51" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9883,11 +10078,11 @@
         <f>IF(AND($B$51-0.4&lt;=MAX($O$37:$O$66),($B$51-0.4)/Input!$J$11=INT(($B$51-0.4)/Input!$J$11)),$B$51,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N51" s="86" t="e">
+      <c r="N51" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="86" t="str">
+      <c r="O51" s="81" t="str">
         <f>IF(Input!B32="","",Input!A32 +1)</f>
         <v/>
       </c>
@@ -9903,31 +10098,31 @@
       <c r="D52" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="81" t="e">
+      <c r="E52" s="76" t="e">
         <f>IF(C52="","",Input!$J$5&amp;"_QC"&amp;$N$52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="81" t="e">
+      <c r="F52" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="81" t="e">
+      <c r="G52" s="76" t="e">
         <f>IF(C52="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="81" t="e">
+      <c r="H52" s="76" t="e">
         <f>IF(C52="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="20">
         <v>0.5</v>
       </c>
-      <c r="J52" s="82"/>
-      <c r="K52" s="91" t="e">
+      <c r="J52" s="77"/>
+      <c r="K52" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="95" t="e">
+      <c r="L52" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9935,11 +10130,11 @@
         <f>IF(AND($B$52-0.4&lt;=MAX($O$37:$O$66),($B$52-0.4)/Input!$J$11=INT(($B$52-0.4)/Input!$J$11)),$B$52,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N52" s="86" t="e">
+      <c r="N52" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="86" t="str">
+      <c r="O52" s="81" t="str">
         <f>IF(Input!B33="","",Input!A33 +1)</f>
         <v/>
       </c>
@@ -9955,31 +10150,31 @@
       <c r="D53" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="81" t="e">
+      <c r="E53" s="76" t="e">
         <f>IF(C53="","",Input!$J$5&amp;"_QC"&amp;$N$53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="81" t="e">
+      <c r="F53" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="81" t="e">
+      <c r="G53" s="76" t="e">
         <f>IF(C53="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="81" t="e">
+      <c r="H53" s="76" t="e">
         <f>IF(C53="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I53" s="20">
         <v>0.5</v>
       </c>
-      <c r="J53" s="82"/>
-      <c r="K53" s="91" t="e">
+      <c r="J53" s="77"/>
+      <c r="K53" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="95" t="e">
+      <c r="L53" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -9987,11 +10182,11 @@
         <f>IF(AND($B$53-0.4&lt;=MAX($O$37:$O$66),($B$53-0.4)/Input!$J$11=INT(($B$53-0.4)/Input!$J$11)),$B$53,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N53" s="86" t="e">
+      <c r="N53" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O53" s="86" t="str">
+      <c r="O53" s="81" t="str">
         <f>IF(Input!B34="","",Input!A34 +1)</f>
         <v/>
       </c>
@@ -10007,31 +10202,31 @@
       <c r="D54" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="81" t="e">
+      <c r="E54" s="76" t="e">
         <f>IF(C54="","",Input!$J$5&amp;"_QC"&amp;$N$54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="81" t="e">
+      <c r="F54" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="81" t="e">
+      <c r="G54" s="76" t="e">
         <f>IF(C54="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="81" t="e">
+      <c r="H54" s="76" t="e">
         <f>IF(C54="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I54" s="20">
         <v>0.5</v>
       </c>
-      <c r="J54" s="82"/>
-      <c r="K54" s="91" t="e">
+      <c r="J54" s="77"/>
+      <c r="K54" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="95" t="e">
+      <c r="L54" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10039,11 +10234,11 @@
         <f>IF(AND($B$54-0.4&lt;=MAX($O$37:$O$66),($B$54-0.4)/Input!$J$11=INT(($B$54-0.4)/Input!$J$11)),$B$54,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N54" s="86" t="e">
+      <c r="N54" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O54" s="86" t="str">
+      <c r="O54" s="81" t="str">
         <f>IF(Input!B35="","",Input!A35 +1)</f>
         <v/>
       </c>
@@ -10059,31 +10254,31 @@
       <c r="D55" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="81" t="e">
+      <c r="E55" s="76" t="e">
         <f>IF(C55="","",Input!$J$5&amp;"_QC"&amp;$N$55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="81" t="e">
+      <c r="F55" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="81" t="e">
+      <c r="G55" s="76" t="e">
         <f>IF(C55="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="81" t="e">
+      <c r="H55" s="76" t="e">
         <f>IF(C55="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" s="20">
         <v>0.5</v>
       </c>
-      <c r="J55" s="82"/>
-      <c r="K55" s="91" t="e">
+      <c r="J55" s="77"/>
+      <c r="K55" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="95" t="e">
+      <c r="L55" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10091,11 +10286,11 @@
         <f>IF(AND($B$55-0.4&lt;=MAX($O$37:$O$66),($B$55-0.4)/Input!$J$11=INT(($B$55-0.4)/Input!$J$11)),$B$55,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N55" s="86" t="e">
+      <c r="N55" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O55" s="86" t="str">
+      <c r="O55" s="81" t="str">
         <f>IF(Input!B36="","",Input!A36 +1)</f>
         <v/>
       </c>
@@ -10111,31 +10306,31 @@
       <c r="D56" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="81" t="e">
+      <c r="E56" s="76" t="e">
         <f>IF(C56="","",Input!$J$5&amp;"_QC"&amp;$N$56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="81" t="e">
+      <c r="F56" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G56" s="81" t="e">
+      <c r="G56" s="76" t="e">
         <f>IF(C56="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="81" t="e">
+      <c r="H56" s="76" t="e">
         <f>IF(C56="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" s="20">
         <v>0.5</v>
       </c>
-      <c r="J56" s="82"/>
-      <c r="K56" s="91" t="e">
+      <c r="J56" s="77"/>
+      <c r="K56" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="95" t="e">
+      <c r="L56" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10143,11 +10338,11 @@
         <f>IF(AND($B$56-0.4&lt;=MAX($O$37:$O$66),($B$56-0.4)/Input!$J$11=INT(($B$56-0.4)/Input!$J$11)),$B$56,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="86" t="e">
+      <c r="N56" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O56" s="86" t="str">
+      <c r="O56" s="81" t="str">
         <f>IF(Input!B37="","",Input!A37 +1)</f>
         <v/>
       </c>
@@ -10163,31 +10358,31 @@
       <c r="D57" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="81" t="e">
+      <c r="E57" s="76" t="e">
         <f>IF(C57="","",Input!$J$5&amp;"_QC"&amp;$N$57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="81" t="e">
+      <c r="F57" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G57" s="81" t="e">
+      <c r="G57" s="76" t="e">
         <f>IF(C57="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="81" t="e">
+      <c r="H57" s="76" t="e">
         <f>IF(C57="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="20">
         <v>0.5</v>
       </c>
-      <c r="J57" s="82"/>
-      <c r="K57" s="91" t="e">
+      <c r="J57" s="77"/>
+      <c r="K57" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L57" s="95" t="e">
+      <c r="L57" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10195,11 +10390,11 @@
         <f>IF(AND($B$57-0.4&lt;=MAX($O$37:$O$66),($B$57-0.4)/Input!$J$11=INT(($B$57-0.4)/Input!$J$11)),$B$57,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="86" t="e">
+      <c r="N57" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O57" s="86" t="str">
+      <c r="O57" s="81" t="str">
         <f>IF(Input!B38="","",Input!A38 +1)</f>
         <v/>
       </c>
@@ -10215,31 +10410,31 @@
       <c r="D58" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="81" t="e">
+      <c r="E58" s="76" t="e">
         <f>IF(C58="","",Input!$J$5&amp;"_QC"&amp;$N$58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="81" t="e">
+      <c r="F58" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="81" t="e">
+      <c r="G58" s="76" t="e">
         <f>IF(C58="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="81" t="e">
+      <c r="H58" s="76" t="e">
         <f>IF(C58="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="20">
         <v>0.5</v>
       </c>
-      <c r="J58" s="82"/>
-      <c r="K58" s="91" t="e">
+      <c r="J58" s="77"/>
+      <c r="K58" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L58" s="95" t="e">
+      <c r="L58" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10247,11 +10442,11 @@
         <f>IF(AND($B$58-0.4&lt;=MAX($O$37:$O$66),($B$58-0.4)/Input!$J$11=INT(($B$58-0.4)/Input!$J$11)),$B$58,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N58" s="86" t="e">
+      <c r="N58" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O58" s="86" t="str">
+      <c r="O58" s="81" t="str">
         <f>IF(Input!B39="","",Input!A39 +1)</f>
         <v/>
       </c>
@@ -10267,31 +10462,31 @@
       <c r="D59" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E59" s="81" t="e">
+      <c r="E59" s="76" t="e">
         <f>IF(C59="","",Input!$J$5&amp;"_QC"&amp;$N$59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="81" t="e">
+      <c r="F59" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="81" t="e">
+      <c r="G59" s="76" t="e">
         <f>IF(C59="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="81" t="e">
+      <c r="H59" s="76" t="e">
         <f>IF(C59="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I59" s="20">
         <v>0.5</v>
       </c>
-      <c r="J59" s="82"/>
-      <c r="K59" s="91" t="e">
+      <c r="J59" s="77"/>
+      <c r="K59" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L59" s="95" t="e">
+      <c r="L59" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10299,11 +10494,11 @@
         <f>IF(AND($B$59-0.4&lt;=MAX($O$37:$O$66),($B$59-0.4)/Input!$J$11=INT(($B$59-0.4)/Input!$J$11)),$B$59,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N59" s="86" t="e">
+      <c r="N59" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O59" s="86" t="str">
+      <c r="O59" s="81" t="str">
         <f>IF(Input!B40="","",Input!A40 +1)</f>
         <v/>
       </c>
@@ -10319,31 +10514,31 @@
       <c r="D60" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="81" t="e">
+      <c r="E60" s="76" t="e">
         <f>IF(C60="","",Input!$J$5&amp;"_QC"&amp;$N$60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="81" t="e">
+      <c r="F60" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="81" t="e">
+      <c r="G60" s="76" t="e">
         <f>IF(C60="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="81" t="e">
+      <c r="H60" s="76" t="e">
         <f>IF(C60="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" s="20">
         <v>0.5</v>
       </c>
-      <c r="J60" s="82"/>
-      <c r="K60" s="91" t="e">
+      <c r="J60" s="77"/>
+      <c r="K60" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L60" s="95" t="e">
+      <c r="L60" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10351,11 +10546,11 @@
         <f>IF(AND($B$60-0.4&lt;=MAX($O$37:$O$66),($B$60-0.4)/Input!$J$11=INT(($B$60-0.4)/Input!$J$11)),$B$60,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N60" s="86" t="e">
+      <c r="N60" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O60" s="86" t="str">
+      <c r="O60" s="81" t="str">
         <f>IF(Input!B41="","",Input!A41 +1)</f>
         <v/>
       </c>
@@ -10371,31 +10566,31 @@
       <c r="D61" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="81" t="e">
+      <c r="E61" s="76" t="e">
         <f>IF(C61="","",Input!$J$5&amp;"_QC"&amp;$N$61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F61" s="81" t="e">
+      <c r="F61" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="81" t="e">
+      <c r="G61" s="76" t="e">
         <f>IF(C61="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="81" t="e">
+      <c r="H61" s="76" t="e">
         <f>IF(C61="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="20">
         <v>0.5</v>
       </c>
-      <c r="J61" s="82"/>
-      <c r="K61" s="91" t="e">
+      <c r="J61" s="77"/>
+      <c r="K61" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L61" s="95" t="e">
+      <c r="L61" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10403,11 +10598,11 @@
         <f>IF(AND($B$61-0.4&lt;=MAX($O$37:$O$66),($B$61-0.4)/Input!$J$11=INT(($B$61-0.4)/Input!$J$11)),$B$61,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N61" s="86" t="e">
+      <c r="N61" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O61" s="86" t="str">
+      <c r="O61" s="81" t="str">
         <f>IF(Input!B42="","",Input!A42 +1)</f>
         <v/>
       </c>
@@ -10423,31 +10618,31 @@
       <c r="D62" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="81" t="e">
+      <c r="E62" s="76" t="e">
         <f>IF(C62="","",Input!$J$5&amp;"_QC"&amp;$N$62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="81" t="e">
+      <c r="F62" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="81" t="e">
+      <c r="G62" s="76" t="e">
         <f>IF(C62="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="81" t="e">
+      <c r="H62" s="76" t="e">
         <f>IF(C62="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="20">
         <v>0.5</v>
       </c>
-      <c r="J62" s="82"/>
-      <c r="K62" s="91" t="e">
+      <c r="J62" s="77"/>
+      <c r="K62" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L62" s="95" t="e">
+      <c r="L62" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10455,11 +10650,11 @@
         <f>IF(AND($B$62-0.4&lt;=MAX($O$37:$O$66),($B$62-0.4)/Input!$J$11=INT(($B$62-0.4)/Input!$J$11)),$B$62,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N62" s="86" t="e">
+      <c r="N62" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O62" s="86" t="str">
+      <c r="O62" s="81" t="str">
         <f>IF(Input!B43="","",Input!A43 +1)</f>
         <v/>
       </c>
@@ -10475,31 +10670,31 @@
       <c r="D63" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="81" t="e">
+      <c r="E63" s="76" t="e">
         <f>IF(C63="","",Input!$J$5&amp;"_QC"&amp;$N$63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="81" t="e">
+      <c r="F63" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="81" t="e">
+      <c r="G63" s="76" t="e">
         <f>IF(C63="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="81" t="e">
+      <c r="H63" s="76" t="e">
         <f>IF(C63="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I63" s="20">
         <v>0.5</v>
       </c>
-      <c r="J63" s="82"/>
-      <c r="K63" s="91" t="e">
+      <c r="J63" s="77"/>
+      <c r="K63" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L63" s="95" t="e">
+      <c r="L63" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10507,11 +10702,11 @@
         <f>IF(AND($B$63-0.4&lt;=MAX($O$37:$O$66),($B$63-0.4)/Input!$J$11=INT(($B$63-0.4)/Input!$J$11)),$B$63,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N63" s="86" t="e">
+      <c r="N63" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O63" s="86" t="str">
+      <c r="O63" s="81" t="str">
         <f>IF(Input!B44="","",Input!A44 +1)</f>
         <v/>
       </c>
@@ -10527,31 +10722,31 @@
       <c r="D64" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="81" t="e">
+      <c r="E64" s="76" t="e">
         <f>IF(C64="","",Input!$J$5&amp;"_QC"&amp;$N$64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F64" s="81" t="e">
+      <c r="F64" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="81" t="e">
+      <c r="G64" s="76" t="e">
         <f>IF(C64="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="81" t="e">
+      <c r="H64" s="76" t="e">
         <f>IF(C64="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="20">
         <v>0.5</v>
       </c>
-      <c r="J64" s="82"/>
-      <c r="K64" s="91" t="e">
+      <c r="J64" s="77"/>
+      <c r="K64" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L64" s="95" t="e">
+      <c r="L64" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10559,11 +10754,11 @@
         <f>IF(AND($B$64-0.4&lt;=MAX($O$37:$O$66),($B$64-0.4)/Input!$J$11=INT(($B$64-0.4)/Input!$J$11)),$B$64,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N64" s="86" t="e">
+      <c r="N64" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O64" s="86" t="str">
+      <c r="O64" s="81" t="str">
         <f>IF(Input!B45="","",Input!A45 +1)</f>
         <v/>
       </c>
@@ -10579,31 +10774,31 @@
       <c r="D65" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E65" s="81" t="e">
+      <c r="E65" s="76" t="e">
         <f>IF(C65="","",Input!$J$5&amp;"_QC"&amp;$N$65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F65" s="81" t="e">
+      <c r="F65" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="81" t="e">
+      <c r="G65" s="76" t="e">
         <f>IF(C65="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="81" t="e">
+      <c r="H65" s="76" t="e">
         <f>IF(C65="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I65" s="20">
         <v>0.5</v>
       </c>
-      <c r="J65" s="82"/>
-      <c r="K65" s="91" t="e">
+      <c r="J65" s="77"/>
+      <c r="K65" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L65" s="95" t="e">
+      <c r="L65" s="88" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -10611,11 +10806,11 @@
         <f>IF(AND($B$65-0.4&lt;=MAX($O$37:$O$66),($B$65-0.4)/Input!$J$11=INT(($B$65-0.4)/Input!$J$11)),$B$65,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N65" s="86" t="e">
+      <c r="N65" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O65" s="86" t="str">
+      <c r="O65" s="81" t="str">
         <f>IF(Input!B46="","",Input!A46 +1)</f>
         <v/>
       </c>
@@ -10628,34 +10823,34 @@
         <f>IF(AND($B$66-0.4&lt;=MAX($O$37:$O$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D66" s="83" t="s">
+      <c r="D66" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="84" t="e">
+      <c r="E66" s="79" t="e">
         <f>IF(C66="","",Input!$J$5&amp;"_QC"&amp;$N$66)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F66" s="84" t="e">
+      <c r="F66" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="84" t="e">
+      <c r="G66" s="79" t="e">
         <f>IF(C66="","",Input!$J$8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="84" t="e">
+      <c r="H66" s="79" t="e">
         <f>IF(C66="","",Input!$J$9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I66" s="85">
+      <c r="I66" s="80">
         <v>0.5</v>
       </c>
-      <c r="J66" s="97"/>
-      <c r="K66" s="92" t="e">
+      <c r="J66" s="90"/>
+      <c r="K66" s="85" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L66" s="96" t="e">
+      <c r="L66" s="89" t="e">
         <f>IF(E66="","",L$2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10663,11 +10858,11 @@
         <f>IF(AND($B$66-0.4&lt;=MAX($O$37:$O$66),($B$66-0.4)/Input!$J$11=INT(($B$66-0.4)/Input!$J$11)),$B$66,"")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N66" s="86" t="e">
+      <c r="N66" s="81" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O66" s="86" t="str">
+      <c r="O66" s="81" t="str">
         <f>IF(Input!B47="","",Input!A47 +1)</f>
         <v/>
       </c>
@@ -10948,64 +11143,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -11053,9 +11248,9 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="58"/>
-      <c r="D11" s="80"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="58"/>
       <c r="F11" s="4"/>
       <c r="H11" s="5"/>
@@ -11064,9 +11259,9 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="58"/>
       <c r="F12" s="4"/>
       <c r="H12" s="5"/>
@@ -11075,9 +11270,9 @@
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="80"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="58"/>
       <c r="F13" s="4"/>
       <c r="H13" s="5"/>
@@ -11086,9 +11281,9 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="58"/>
-      <c r="D14" s="80"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="58"/>
       <c r="F14" s="4"/>
       <c r="H14" s="5"/>
@@ -11097,9 +11292,9 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="58"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="58"/>
       <c r="F15" s="4"/>
       <c r="H15" s="5"/>
@@ -11108,9 +11303,9 @@
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="58"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="58"/>
       <c r="F16" s="4"/>
       <c r="H16" s="5"/>
@@ -11119,9 +11314,9 @@
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="80"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="58"/>
       <c r="F17" s="4"/>
       <c r="H17" s="5"/>
@@ -11130,9 +11325,9 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="80"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="58"/>
       <c r="F18" s="4"/>
       <c r="H18" s="5"/>
@@ -11141,9 +11336,9 @@
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="80"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="58"/>
       <c r="F19" s="4"/>
       <c r="H19" s="5"/>
@@ -11152,9 +11347,9 @@
       <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="80"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="58"/>
       <c r="F20" s="4"/>
       <c r="H20" s="5"/>
@@ -11163,9 +11358,9 @@
       <c r="A21" s="4">
         <v>11</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="80"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="58"/>
       <c r="F21" s="4"/>
       <c r="H21" s="5"/>
@@ -11174,9 +11369,9 @@
       <c r="A22" s="4">
         <v>12</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="80"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="58"/>
       <c r="F22" s="4"/>
       <c r="H22" s="5"/>
@@ -11185,9 +11380,9 @@
       <c r="A23" s="4">
         <v>13</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="80"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="58"/>
       <c r="F23" s="4"/>
       <c r="H23" s="5"/>
@@ -11196,9 +11391,9 @@
       <c r="A24" s="4">
         <v>14</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="80"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="58"/>
       <c r="F24" s="4"/>
       <c r="H24" s="5"/>
@@ -11207,9 +11402,9 @@
       <c r="A25" s="4">
         <v>15</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="80"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="58"/>
       <c r="F25" s="4"/>
       <c r="H25" s="5"/>
@@ -11218,9 +11413,9 @@
       <c r="A26" s="4">
         <v>16</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="58"/>
       <c r="F26" s="4"/>
       <c r="H26" s="5"/>
@@ -11229,9 +11424,9 @@
       <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="58"/>
-      <c r="D27" s="80"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="58"/>
       <c r="F27" s="4"/>
       <c r="H27" s="5"/>
@@ -11240,9 +11435,9 @@
       <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="80"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="58"/>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
@@ -11251,9 +11446,9 @@
       <c r="A29" s="4">
         <v>19</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="58"/>
-      <c r="D29" s="80"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="58"/>
       <c r="F29" s="4"/>
       <c r="H29" s="5"/>
@@ -11262,9 +11457,9 @@
       <c r="A30" s="4">
         <v>20</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="80"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="58"/>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
@@ -11273,9 +11468,9 @@
       <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="80"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="58"/>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
@@ -11284,9 +11479,9 @@
       <c r="A32" s="4">
         <v>22</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="58"/>
-      <c r="D32" s="80"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="58"/>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
@@ -11295,9 +11490,9 @@
       <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="58"/>
-      <c r="D33" s="80"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="58"/>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
@@ -11306,9 +11501,9 @@
       <c r="A34" s="4">
         <v>24</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="80"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="58"/>
       <c r="F34" s="4"/>
       <c r="H34" s="5"/>
@@ -11317,9 +11512,9 @@
       <c r="A35" s="4">
         <v>25</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="58"/>
-      <c r="D35" s="80"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="58"/>
       <c r="F35" s="4"/>
       <c r="H35" s="5"/>
@@ -11328,9 +11523,9 @@
       <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="80"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="58"/>
       <c r="F36" s="4"/>
       <c r="H36" s="5"/>
@@ -11339,9 +11534,9 @@
       <c r="A37" s="4">
         <v>27</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="58"/>
-      <c r="D37" s="80"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="58"/>
       <c r="F37" s="4"/>
       <c r="H37" s="5"/>
@@ -11350,9 +11545,9 @@
       <c r="A38" s="4">
         <v>28</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="80"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="58"/>
       <c r="F38" s="4"/>
       <c r="H38" s="5"/>
@@ -11361,9 +11556,9 @@
       <c r="A39" s="4">
         <v>29</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="80"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="58"/>
       <c r="F39" s="4"/>
       <c r="H39" s="5"/>
@@ -11372,9 +11567,9 @@
       <c r="A40" s="4">
         <v>30</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="80"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="58"/>
       <c r="F40" s="4"/>
       <c r="H40" s="5"/>

--- a/DataMan/Records/static/download-template.xlsx
+++ b/DataMan/Records/static/download-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56970B23-EAA7-451D-8A83-2CDC5A3F07AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC331B21-23D2-4004-9952-AAF61EFAB740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="1104" windowWidth="12180" windowHeight="10860" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Details" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
   <si>
     <t>Species</t>
   </si>
@@ -2370,6 +2370,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="A14:J14"/>
@@ -2386,8 +2388,6 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2725,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O1007"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2963,9 +2963,7 @@
       <c r="M15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -7462,7 +7460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
